--- a/documents/templates/bulk-upload/02-BulkUploadEmployee.xlsx
+++ b/documents/templates/bulk-upload/02-BulkUploadEmployee.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dineshgajjar/Documents/Work/GitLab/YHWorks/Briot/clients/TMML/server/documents/templates/bulk-upload/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECF99E2D-C2B2-E941-903F-9312B21BE13B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4CF511E-51FD-3244-B0DE-C55E63F0E2C1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1180" yWindow="1460" windowWidth="27240" windowHeight="16040" xr2:uid="{6BA803BE-7637-644E-81BF-475A654E4F59}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Notify for Machine Maintenance</t>
   </si>
@@ -52,6 +52,15 @@
   </si>
   <si>
     <t>Employee Id</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>Administrator</t>
+  </si>
+  <si>
+    <t>IT</t>
   </si>
 </sst>
 </file>
@@ -403,15 +412,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADC00F89-2235-B741-A22E-475A64033711}">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="28.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
@@ -437,6 +450,29 @@
         <v>1</v>
       </c>
     </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/documents/templates/bulk-upload/02-BulkUploadEmployee.xlsx
+++ b/documents/templates/bulk-upload/02-BulkUploadEmployee.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dineshgajjar/Documents/Work/GitLab/YHWorks/Briot/clients/TMML/server/documents/templates/bulk-upload/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4CF511E-51FD-3244-B0DE-C55E63F0E2C1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{395AD999-CEFE-7B46-A027-16EDD5BC9494}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1180" yWindow="1460" windowWidth="27240" windowHeight="16040" xr2:uid="{6BA803BE-7637-644E-81BF-475A654E4F59}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Notify for Machine Maintenance</t>
   </si>
@@ -61,6 +61,9 @@
   </si>
   <si>
     <t>IT</t>
+  </si>
+  <si>
+    <t>Should have User Access? (Y/N)</t>
   </si>
 </sst>
 </file>
@@ -412,10 +415,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADC00F89-2235-B741-A22E-475A64033711}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -425,9 +428,10 @@
     <col min="5" max="5" width="6.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="28.1640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -449,8 +453,11 @@
       <c r="G1" t="s">
         <v>1</v>
       </c>
+      <c r="H1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>

--- a/documents/templates/bulk-upload/02-BulkUploadEmployee.xlsx
+++ b/documents/templates/bulk-upload/02-BulkUploadEmployee.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dineshgajjar/Documents/Work/GitLab/YHWorks/Briot/clients/TMML/server/documents/templates/bulk-upload/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{395AD999-CEFE-7B46-A027-16EDD5BC9494}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EE91E98-42E2-4C4D-9C62-5CC68029A0FE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1180" yWindow="1460" windowWidth="27240" windowHeight="16040" xr2:uid="{6BA803BE-7637-644E-81BF-475A654E4F59}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="87">
   <si>
     <t>Notify for Machine Maintenance</t>
   </si>
@@ -64,15 +64,258 @@
   </si>
   <si>
     <t>Should have User Access? (Y/N)</t>
+  </si>
+  <si>
+    <t>Girisha C N</t>
+  </si>
+  <si>
+    <t>girisha.c@tatamarcopolo.com</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Factory Maintenance</t>
+  </si>
+  <si>
+    <t>Srinivasachari.K</t>
+  </si>
+  <si>
+    <t>skk731018@tatamarcopolo.com</t>
+  </si>
+  <si>
+    <t>Bhoopathy .M</t>
+  </si>
+  <si>
+    <t>m.boopathy@tatamarcopolo.com</t>
+  </si>
+  <si>
+    <t>Shidlingaswami H</t>
+  </si>
+  <si>
+    <t>shidlingaswami.h@tatamarcopolo.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KIRAN V K </t>
+  </si>
+  <si>
+    <t>kiran.kulkarni@tatamarcopolo.com</t>
+  </si>
+  <si>
+    <t>VINAYAK BHAT</t>
+  </si>
+  <si>
+    <t>vinayak.bhat@tatamarcopolo.com</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>UMESH GAYAKWAD</t>
+  </si>
+  <si>
+    <t>umesh.gayakwad@tatamarcopolo.com</t>
+  </si>
+  <si>
+    <t>VISHWANATH JAVALI</t>
+  </si>
+  <si>
+    <t>vishwanath@tatamarcopolo.com</t>
+  </si>
+  <si>
+    <t>Chandrashekar Hiremath</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chandrashekhar.Hiremath@tatamarcopolo.com&gt;; </t>
+  </si>
+  <si>
+    <t>santosh.angadaki</t>
+  </si>
+  <si>
+    <t>santosh.angadaki2@tatamarcopolo.com</t>
+  </si>
+  <si>
+    <t>Parashuram Huded</t>
+  </si>
+  <si>
+    <t>parashuram.huded@tatamarcopolo.com</t>
+  </si>
+  <si>
+    <t>SATYNARAYANA S</t>
+  </si>
+  <si>
+    <t>RAMANAGOWDA I PATIL</t>
+  </si>
+  <si>
+    <t>CHIDAMBAR BADIGER</t>
+  </si>
+  <si>
+    <t>CHIDANAND KAMATI</t>
+  </si>
+  <si>
+    <t>KARABASAPPA KAYAKAD</t>
+  </si>
+  <si>
+    <t>SANJEEV HATTIKAL</t>
+  </si>
+  <si>
+    <t>DHARMAGOWDA N PATIL</t>
+  </si>
+  <si>
+    <t>VENKATESH H K</t>
+  </si>
+  <si>
+    <t>DEEPAK INGALE</t>
+  </si>
+  <si>
+    <t>VEERANAGOWDA PATIL</t>
+  </si>
+  <si>
+    <t>YASHAVANT KUMAR B</t>
+  </si>
+  <si>
+    <t>CHETAN KUMAR HIREMAT</t>
+  </si>
+  <si>
+    <t>KALMESH K</t>
+  </si>
+  <si>
+    <t>BASAVARAJ TADASAD</t>
+  </si>
+  <si>
+    <t>SANTOSH KUMAR B G</t>
+  </si>
+  <si>
+    <t>MAZHAR PARVEZ</t>
+  </si>
+  <si>
+    <t>NITYNAND LAWAR</t>
+  </si>
+  <si>
+    <t>VINAY S K</t>
+  </si>
+  <si>
+    <t>BASAVARAJ UNAKAL</t>
+  </si>
+  <si>
+    <t>BASAVARAJ SAJJAN</t>
+  </si>
+  <si>
+    <t>VITHOBA HUGAR</t>
+  </si>
+  <si>
+    <t>MALASIDDAPPA HOOGAR</t>
+  </si>
+  <si>
+    <t>MANJU NAYK</t>
+  </si>
+  <si>
+    <t>VISHAL DESHPANDE</t>
+  </si>
+  <si>
+    <t>RAJAHMED NADAF</t>
+  </si>
+  <si>
+    <t>SANTOSH BADIGER</t>
+  </si>
+  <si>
+    <t>GURUSHANTAGOUDA.P</t>
+  </si>
+  <si>
+    <t>MANTESH MALLAD</t>
+  </si>
+  <si>
+    <t>MAHANTESH MACHALLI</t>
+  </si>
+  <si>
+    <t>NAVEEN B</t>
+  </si>
+  <si>
+    <t>nbb731728@tatamarcopolo.com</t>
+  </si>
+  <si>
+    <t>Chandrakanth P</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>Chandrakanth T</t>
+  </si>
+  <si>
+    <t>Sanjiv Patil</t>
+  </si>
+  <si>
+    <t>Sitaram Gouda</t>
+  </si>
+  <si>
+    <t>Basavaraj K</t>
+  </si>
+  <si>
+    <t>Ishwarappa  H</t>
+  </si>
+  <si>
+    <t>Sunil Goudar</t>
+  </si>
+  <si>
+    <t>Veeresh Kurli</t>
+  </si>
+  <si>
+    <t>Siddalingesh M</t>
+  </si>
+  <si>
+    <t>GURUSHANTH Y</t>
+  </si>
+  <si>
+    <t>SANTHOSH PATIL</t>
+  </si>
+  <si>
+    <t>ABDUL KHADAR</t>
+  </si>
+  <si>
+    <t>MUKUND MOTE</t>
+  </si>
+  <si>
+    <t>MANJUNATH LAMBI</t>
+  </si>
+  <si>
+    <t>MALHAR MUTALIK</t>
+  </si>
+  <si>
+    <t>RAVINDRA BASTI</t>
+  </si>
+  <si>
+    <t>MANJUNATH AKKI</t>
+  </si>
+  <si>
+    <t>MANJUNATH BP</t>
+  </si>
+  <si>
+    <t>VASEEM NADAF</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -96,13 +339,27 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -415,72 +672,1353 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADC00F89-2235-B741-A22E-475A64033711}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="27.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="G1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="1">
         <v>0</v>
       </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="H2" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>730809</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="1">
+        <v>9243265893</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>731018</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="1">
+        <v>9243299879</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>730869</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="1">
+        <v>9243265702</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>731653</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="1">
+        <v>7204069750</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>731855</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="1">
+        <v>7204009033</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>731924</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="1">
+        <v>7204009035</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>732210</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="1">
+        <v>9513733160</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>730130</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="1">
+        <v>9243299682</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>731446</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="1">
+        <v>9243323920</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>732091</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="1">
+        <v>9632442887</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>732211</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="1">
+        <v>9513733169</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>730386</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>730222</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>731654</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>731866</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>731869</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>730899</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E19" s="1">
+        <v>1</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>730255</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E20" s="1">
+        <v>1</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>730410</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E21" s="1">
+        <v>1</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>731244</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E22" s="1">
+        <v>1</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>731187</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E23" s="1">
+        <v>1</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>730219</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E24" s="1">
+        <v>1</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>731726</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E25" s="1">
+        <v>1</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>731868</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E26" s="1">
+        <v>1</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>730900</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E27" s="1">
+        <v>1</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>730260</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E28" s="1">
+        <v>1</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>731655</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E29" s="1">
+        <v>1</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>731729</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E30" s="1">
+        <v>1</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
+        <v>730544</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E31" s="1">
+        <v>1</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
+        <v>731253</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E32" s="1">
+        <v>1</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
+        <v>730442</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E33" s="1">
+        <v>1</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
+        <v>730259</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E34" s="1">
+        <v>1</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" s="1">
+        <v>730541</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E35" s="1">
+        <v>1</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
+        <v>730223</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E36" s="1">
+        <v>1</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" s="1">
+        <v>731949</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E37" s="1">
+        <v>1</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
+        <v>730257</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E38" s="1">
+        <v>1</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" s="1">
+        <v>731527</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E39" s="1">
+        <v>1</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40" s="1">
+        <v>796679</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E40" s="1">
+        <v>1</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41" s="1">
+        <v>731510</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E41" s="1">
+        <v>1</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42" s="1">
+        <v>731511</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E42" s="1">
+        <v>1</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43" s="1">
+        <v>731728</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E43" s="1">
+        <v>1</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44" s="1">
+        <v>730409</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E44" s="1">
+        <v>1</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A45" s="1">
+        <v>731445</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E45" s="1">
+        <v>1</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A46" s="1">
+        <v>731250</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E46" s="1">
+        <v>1</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A47" s="1">
+        <v>730359</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E47" s="1">
+        <v>1</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A48" s="1">
+        <v>731946</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E48" s="1">
+        <v>1</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A49" s="1">
+        <v>730543</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E49" s="1">
+        <v>1</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A50" s="1">
+        <v>731871</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E50" s="1">
+        <v>1</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A51" s="1">
+        <v>731872</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E51" s="1">
+        <v>1</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A52" s="1">
+        <v>731948</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E52" s="1">
+        <v>1</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A53" s="1">
+        <v>731867</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E53" s="1">
+        <v>1</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A54" s="1">
+        <v>731870</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E54" s="1">
+        <v>1</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A55" s="1">
+        <v>730871</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E55" s="1">
+        <v>1</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A56" s="1">
+        <v>730898</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E56" s="1">
+        <v>1</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A57" s="1">
+        <v>731727</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E57" s="1">
+        <v>1</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A58" s="1">
+        <v>730897</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E58" s="1">
+        <v>1</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A59" s="1">
+        <v>731947</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E59" s="1">
+        <v>1</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A60" s="1">
+        <v>730256</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E60" s="1">
+        <v>1</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A61" s="1">
+        <v>730225</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E61" s="1">
+        <v>1</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A62" s="1">
+        <v>731730</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E62" s="1">
+        <v>1</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H62" s="2" t="s">
+        <v>25</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C4" r:id="rId1" xr:uid="{393CA979-EF90-134A-A7D4-543A5BFF66DB}"/>
+    <hyperlink ref="C5" r:id="rId2" display="mailto:m.boopathy@tatamarcopolo.com" xr:uid="{DEAB8DC6-CE1E-CA4D-998A-4C63B2F309D4}"/>
+    <hyperlink ref="C3" r:id="rId3" display="mailto:girisha.c@tatamarcopolo.com" xr:uid="{8469C089-4848-724A-83C4-6DAB79C9ED0D}"/>
+    <hyperlink ref="C11" r:id="rId4" display="mailto:Chandrashekhar.Hiremath@tatamarcopolo.com" xr:uid="{0045E5DD-3E7A-0C47-9D6E-607DAB08AFE3}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/documents/templates/bulk-upload/02-BulkUploadEmployee.xlsx
+++ b/documents/templates/bulk-upload/02-BulkUploadEmployee.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dineshgajjar/Documents/Work/GitLab/YHWorks/Briot/clients/TMML/server/documents/templates/bulk-upload/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EE91E98-42E2-4C4D-9C62-5CC68029A0FE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC8B4FCA-9DB3-EB42-9257-29C5F88D342E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1180" yWindow="1460" windowWidth="27240" windowHeight="16040" xr2:uid="{6BA803BE-7637-644E-81BF-475A654E4F59}"/>
   </bookViews>
@@ -674,8 +674,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADC00F89-2235-B741-A22E-475A64033711}">
   <dimension ref="A1:H62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="G52" sqref="G52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/documents/templates/bulk-upload/02-BulkUploadEmployee.xlsx
+++ b/documents/templates/bulk-upload/02-BulkUploadEmployee.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dineshgajjar/Documents/Work/GitLab/YHWorks/Briot/clients/TMML/server/documents/templates/bulk-upload/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\All Projects\TMML\server\server\documents\templates\bulk-upload\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC8B4FCA-9DB3-EB42-9257-29C5F88D342E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35660818-A3B7-4550-926B-79E696144414}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1180" yWindow="1460" windowWidth="27240" windowHeight="16040" xr2:uid="{6BA803BE-7637-644E-81BF-475A654E4F59}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{6BA803BE-7637-644E-81BF-475A654E4F59}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -343,7 +343,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -355,6 +355,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -674,24 +680,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADC00F89-2235-B741-A22E-475A64033711}">
   <dimension ref="A1:H62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="G52" sqref="G52"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F65" sqref="F65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="43.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.125" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="27.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="10.83203125" style="1"/>
+    <col min="8" max="8" width="27.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -701,7 +707,7 @@
       <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="6" t="s">
         <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -717,7 +723,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -727,7 +733,7 @@
       <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="5">
         <v>0</v>
       </c>
       <c r="E2" s="1">
@@ -743,7 +749,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>730809</v>
       </c>
@@ -753,7 +759,7 @@
       <c r="C3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="5">
         <v>9243265893</v>
       </c>
       <c r="E3" s="1">
@@ -769,7 +775,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>731018</v>
       </c>
@@ -779,7 +785,7 @@
       <c r="C4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="5">
         <v>9243299879</v>
       </c>
       <c r="E4" s="1">
@@ -795,7 +801,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>730869</v>
       </c>
@@ -805,7 +811,7 @@
       <c r="C5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="5">
         <v>9243265702</v>
       </c>
       <c r="E5" s="1">
@@ -821,7 +827,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>731653</v>
       </c>
@@ -831,7 +837,7 @@
       <c r="C6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="5">
         <v>7204069750</v>
       </c>
       <c r="E6" s="1">
@@ -847,7 +853,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>731855</v>
       </c>
@@ -857,7 +863,7 @@
       <c r="C7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="5">
         <v>7204009033</v>
       </c>
       <c r="E7" s="1">
@@ -873,7 +879,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>731924</v>
       </c>
@@ -883,7 +889,7 @@
       <c r="C8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="5">
         <v>7204009035</v>
       </c>
       <c r="E8" s="1">
@@ -899,7 +905,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>732210</v>
       </c>
@@ -909,7 +915,7 @@
       <c r="C9" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="5">
         <v>9513733160</v>
       </c>
       <c r="E9" s="1">
@@ -925,7 +931,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>730130</v>
       </c>
@@ -935,7 +941,7 @@
       <c r="C10" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="5">
         <v>9243299682</v>
       </c>
       <c r="E10" s="1">
@@ -951,7 +957,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>731446</v>
       </c>
@@ -961,7 +967,7 @@
       <c r="C11" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="5">
         <v>9243323920</v>
       </c>
       <c r="E11" s="1">
@@ -977,7 +983,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>732091</v>
       </c>
@@ -987,7 +993,7 @@
       <c r="C12" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="5">
         <v>9632442887</v>
       </c>
       <c r="E12" s="1">
@@ -1003,7 +1009,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>732211</v>
       </c>
@@ -1013,7 +1019,7 @@
       <c r="C13" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="5">
         <v>9513733169</v>
       </c>
       <c r="E13" s="1">
@@ -1029,13 +1035,16 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>730386</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>36</v>
       </c>
+      <c r="D14" s="5">
+        <v>0</v>
+      </c>
       <c r="E14" s="1">
         <v>1</v>
       </c>
@@ -1049,13 +1058,16 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>730222</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>37</v>
       </c>
+      <c r="D15" s="5">
+        <v>0</v>
+      </c>
       <c r="E15" s="1">
         <v>1</v>
       </c>
@@ -1069,13 +1081,16 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>731654</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>38</v>
       </c>
+      <c r="D16" s="5">
+        <v>0</v>
+      </c>
       <c r="E16" s="1">
         <v>1</v>
       </c>
@@ -1089,13 +1104,16 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>731866</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="D17" s="5">
+        <v>0</v>
+      </c>
       <c r="E17" s="1">
         <v>1</v>
       </c>
@@ -1109,13 +1127,16 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>731869</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>40</v>
       </c>
+      <c r="D18" s="5">
+        <v>0</v>
+      </c>
       <c r="E18" s="1">
         <v>1</v>
       </c>
@@ -1129,13 +1150,16 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>730899</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>41</v>
       </c>
+      <c r="D19" s="5">
+        <v>0</v>
+      </c>
       <c r="E19" s="1">
         <v>1</v>
       </c>
@@ -1149,13 +1173,16 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>730255</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>42</v>
       </c>
+      <c r="D20" s="5">
+        <v>0</v>
+      </c>
       <c r="E20" s="1">
         <v>1</v>
       </c>
@@ -1169,13 +1196,16 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>730410</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>43</v>
       </c>
+      <c r="D21" s="5">
+        <v>0</v>
+      </c>
       <c r="E21" s="1">
         <v>1</v>
       </c>
@@ -1189,13 +1219,16 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>731244</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>44</v>
       </c>
+      <c r="D22" s="5">
+        <v>0</v>
+      </c>
       <c r="E22" s="1">
         <v>1</v>
       </c>
@@ -1209,13 +1242,16 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>731187</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>45</v>
       </c>
+      <c r="D23" s="5">
+        <v>0</v>
+      </c>
       <c r="E23" s="1">
         <v>1</v>
       </c>
@@ -1229,13 +1265,16 @@
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>730219</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>46</v>
       </c>
+      <c r="D24" s="5">
+        <v>0</v>
+      </c>
       <c r="E24" s="1">
         <v>1</v>
       </c>
@@ -1249,13 +1288,16 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>731726</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>47</v>
       </c>
+      <c r="D25" s="5">
+        <v>0</v>
+      </c>
       <c r="E25" s="1">
         <v>1</v>
       </c>
@@ -1269,13 +1311,16 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>731868</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>48</v>
       </c>
+      <c r="D26" s="5">
+        <v>0</v>
+      </c>
       <c r="E26" s="1">
         <v>1</v>
       </c>
@@ -1289,13 +1334,16 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>730900</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>49</v>
       </c>
+      <c r="D27" s="5">
+        <v>0</v>
+      </c>
       <c r="E27" s="1">
         <v>1</v>
       </c>
@@ -1309,13 +1357,16 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>730260</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>50</v>
       </c>
+      <c r="D28" s="5">
+        <v>0</v>
+      </c>
       <c r="E28" s="1">
         <v>1</v>
       </c>
@@ -1329,13 +1380,16 @@
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>731655</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>51</v>
       </c>
+      <c r="D29" s="5">
+        <v>0</v>
+      </c>
       <c r="E29" s="1">
         <v>1</v>
       </c>
@@ -1349,13 +1403,16 @@
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>731729</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>52</v>
       </c>
+      <c r="D30" s="5">
+        <v>0</v>
+      </c>
       <c r="E30" s="1">
         <v>1</v>
       </c>
@@ -1369,13 +1426,16 @@
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>730544</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>53</v>
       </c>
+      <c r="D31" s="5">
+        <v>0</v>
+      </c>
       <c r="E31" s="1">
         <v>1</v>
       </c>
@@ -1389,13 +1449,16 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>731253</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>54</v>
       </c>
+      <c r="D32" s="5">
+        <v>0</v>
+      </c>
       <c r="E32" s="1">
         <v>1</v>
       </c>
@@ -1409,13 +1472,16 @@
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>730442</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>55</v>
       </c>
+      <c r="D33" s="5">
+        <v>0</v>
+      </c>
       <c r="E33" s="1">
         <v>1</v>
       </c>
@@ -1429,13 +1495,16 @@
         <v>25</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>730259</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>56</v>
       </c>
+      <c r="D34" s="5">
+        <v>0</v>
+      </c>
       <c r="E34" s="1">
         <v>1</v>
       </c>
@@ -1449,13 +1518,16 @@
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>730541</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>57</v>
       </c>
+      <c r="D35" s="5">
+        <v>0</v>
+      </c>
       <c r="E35" s="1">
         <v>1</v>
       </c>
@@ -1469,13 +1541,16 @@
         <v>25</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>730223</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>58</v>
       </c>
+      <c r="D36" s="5">
+        <v>0</v>
+      </c>
       <c r="E36" s="1">
         <v>1</v>
       </c>
@@ -1489,13 +1564,16 @@
         <v>25</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>731949</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>59</v>
       </c>
+      <c r="D37" s="5">
+        <v>0</v>
+      </c>
       <c r="E37" s="1">
         <v>1</v>
       </c>
@@ -1509,13 +1587,16 @@
         <v>25</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>730257</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>60</v>
       </c>
+      <c r="D38" s="5">
+        <v>0</v>
+      </c>
       <c r="E38" s="1">
         <v>1</v>
       </c>
@@ -1529,13 +1610,16 @@
         <v>25</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>731527</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>61</v>
       </c>
+      <c r="D39" s="5">
+        <v>0</v>
+      </c>
       <c r="E39" s="1">
         <v>1</v>
       </c>
@@ -1549,13 +1633,16 @@
         <v>25</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>796679</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>62</v>
       </c>
+      <c r="D40" s="5">
+        <v>0</v>
+      </c>
       <c r="E40" s="1">
         <v>1</v>
       </c>
@@ -1569,13 +1656,16 @@
         <v>25</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>731510</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>63</v>
       </c>
+      <c r="D41" s="5">
+        <v>0</v>
+      </c>
       <c r="E41" s="1">
         <v>1</v>
       </c>
@@ -1589,13 +1679,16 @@
         <v>25</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>731511</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>64</v>
       </c>
+      <c r="D42" s="5">
+        <v>0</v>
+      </c>
       <c r="E42" s="1">
         <v>1</v>
       </c>
@@ -1609,7 +1702,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>731728</v>
       </c>
@@ -1619,6 +1712,9 @@
       <c r="C43" s="4" t="s">
         <v>66</v>
       </c>
+      <c r="D43" s="5">
+        <v>0</v>
+      </c>
       <c r="E43" s="1">
         <v>1</v>
       </c>
@@ -1632,13 +1728,16 @@
         <v>13</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>730409</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>67</v>
       </c>
+      <c r="D44" s="5">
+        <v>0</v>
+      </c>
       <c r="E44" s="1">
         <v>1</v>
       </c>
@@ -1652,13 +1751,16 @@
         <v>25</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>731445</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>69</v>
       </c>
+      <c r="D45" s="5">
+        <v>0</v>
+      </c>
       <c r="E45" s="1">
         <v>1</v>
       </c>
@@ -1672,13 +1774,16 @@
         <v>25</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>731250</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>70</v>
       </c>
+      <c r="D46" s="5">
+        <v>0</v>
+      </c>
       <c r="E46" s="1">
         <v>1</v>
       </c>
@@ -1692,13 +1797,16 @@
         <v>25</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>730359</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>71</v>
       </c>
+      <c r="D47" s="5">
+        <v>0</v>
+      </c>
       <c r="E47" s="1">
         <v>1</v>
       </c>
@@ -1712,13 +1820,16 @@
         <v>25</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>731946</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>72</v>
       </c>
+      <c r="D48" s="5">
+        <v>0</v>
+      </c>
       <c r="E48" s="1">
         <v>1</v>
       </c>
@@ -1732,13 +1843,16 @@
         <v>25</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>730543</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>73</v>
       </c>
+      <c r="D49" s="5">
+        <v>0</v>
+      </c>
       <c r="E49" s="1">
         <v>1</v>
       </c>
@@ -1752,13 +1866,16 @@
         <v>25</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>731871</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>74</v>
       </c>
+      <c r="D50" s="5">
+        <v>0</v>
+      </c>
       <c r="E50" s="1">
         <v>1</v>
       </c>
@@ -1772,13 +1889,16 @@
         <v>25</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>731872</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>75</v>
       </c>
+      <c r="D51" s="5">
+        <v>0</v>
+      </c>
       <c r="E51" s="1">
         <v>1</v>
       </c>
@@ -1792,13 +1912,16 @@
         <v>68</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>731948</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>76</v>
       </c>
+      <c r="D52" s="5">
+        <v>0</v>
+      </c>
       <c r="E52" s="1">
         <v>1</v>
       </c>
@@ -1812,13 +1935,16 @@
         <v>13</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>731867</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>77</v>
       </c>
+      <c r="D53" s="5">
+        <v>0</v>
+      </c>
       <c r="E53" s="1">
         <v>1</v>
       </c>
@@ -1832,13 +1958,16 @@
         <v>25</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>731870</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>78</v>
       </c>
+      <c r="D54" s="5">
+        <v>0</v>
+      </c>
       <c r="E54" s="1">
         <v>1</v>
       </c>
@@ -1852,13 +1981,16 @@
         <v>25</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>730871</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>79</v>
       </c>
+      <c r="D55" s="5">
+        <v>0</v>
+      </c>
       <c r="E55" s="1">
         <v>1</v>
       </c>
@@ -1872,13 +2004,16 @@
         <v>25</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>730898</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>80</v>
       </c>
+      <c r="D56" s="5">
+        <v>0</v>
+      </c>
       <c r="E56" s="1">
         <v>1</v>
       </c>
@@ -1892,13 +2027,16 @@
         <v>25</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>731727</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>81</v>
       </c>
+      <c r="D57" s="5">
+        <v>0</v>
+      </c>
       <c r="E57" s="1">
         <v>1</v>
       </c>
@@ -1912,13 +2050,16 @@
         <v>25</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>730897</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>82</v>
       </c>
+      <c r="D58" s="5">
+        <v>0</v>
+      </c>
       <c r="E58" s="1">
         <v>1</v>
       </c>
@@ -1932,13 +2073,16 @@
         <v>25</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>731947</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>83</v>
       </c>
+      <c r="D59" s="5">
+        <v>0</v>
+      </c>
       <c r="E59" s="1">
         <v>1</v>
       </c>
@@ -1952,13 +2096,16 @@
         <v>25</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>730256</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>84</v>
       </c>
+      <c r="D60" s="5">
+        <v>0</v>
+      </c>
       <c r="E60" s="1">
         <v>1</v>
       </c>
@@ -1972,13 +2119,16 @@
         <v>25</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>730225</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>85</v>
       </c>
+      <c r="D61" s="5">
+        <v>0</v>
+      </c>
       <c r="E61" s="1">
         <v>1</v>
       </c>
@@ -1992,12 +2142,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>731730</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>86</v>
+      </c>
+      <c r="D62" s="5">
+        <v>0</v>
       </c>
       <c r="E62" s="1">
         <v>1</v>

--- a/documents/templates/bulk-upload/02-BulkUploadEmployee.xlsx
+++ b/documents/templates/bulk-upload/02-BulkUploadEmployee.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\All Projects\TMML\server\server\documents\templates\bulk-upload\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dineshgajjar/Documents/Work/GitLab/YHWorks/Briot/clients/TMML/server/documents/templates/bulk-upload/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35660818-A3B7-4550-926B-79E696144414}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F9F0B13-AEE1-754F-92E0-1D21E631C13C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{6BA803BE-7637-644E-81BF-475A654E4F59}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{6BA803BE-7637-644E-81BF-475A654E4F59}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="96">
   <si>
     <t>Notify for Machine Maintenance</t>
   </si>
@@ -292,13 +292,40 @@
   </si>
   <si>
     <t>VASEEM NADAF</t>
+  </si>
+  <si>
+    <t>Mahaveer Kadatti</t>
+  </si>
+  <si>
+    <t>mkk730688@tatamarcopolo.com</t>
+  </si>
+  <si>
+    <t>Process</t>
+  </si>
+  <si>
+    <t>Mahaveer Gali</t>
+  </si>
+  <si>
+    <t>SAYED SAIF ALI P</t>
+  </si>
+  <si>
+    <t>DUNDAYYA V HIREMATH</t>
+  </si>
+  <si>
+    <t>SHIVANAND NOORJEPPANAVAR</t>
+  </si>
+  <si>
+    <t>Santosh Arishinakar</t>
+  </si>
+  <si>
+    <t>santosh.arishinakar@tatamarcopolo.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -321,6 +348,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -330,7 +363,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -338,12 +371,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -362,6 +410,16 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -678,26 +736,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADC00F89-2235-B741-A22E-475A64033711}">
-  <dimension ref="A1:H62"/>
+  <dimension ref="A1:H68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F65" sqref="F65"/>
+    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="G63" sqref="G63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="43.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.1640625" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="27.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="10.875" style="1"/>
+    <col min="8" max="8" width="27.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -723,7 +781,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -749,7 +807,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>730809</v>
       </c>
@@ -775,7 +833,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>731018</v>
       </c>
@@ -801,7 +859,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>730869</v>
       </c>
@@ -827,7 +885,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>731653</v>
       </c>
@@ -853,7 +911,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>731855</v>
       </c>
@@ -879,7 +937,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>731924</v>
       </c>
@@ -905,7 +963,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>732210</v>
       </c>
@@ -931,7 +989,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>730130</v>
       </c>
@@ -957,7 +1015,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>731446</v>
       </c>
@@ -983,7 +1041,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>732091</v>
       </c>
@@ -1009,7 +1067,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>732211</v>
       </c>
@@ -1035,7 +1093,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>730386</v>
       </c>
@@ -1058,7 +1116,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>730222</v>
       </c>
@@ -1081,7 +1139,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>731654</v>
       </c>
@@ -1104,7 +1162,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>731866</v>
       </c>
@@ -1127,7 +1185,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>731869</v>
       </c>
@@ -1150,7 +1208,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>730899</v>
       </c>
@@ -1173,7 +1231,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>730255</v>
       </c>
@@ -1196,7 +1254,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>730410</v>
       </c>
@@ -1219,7 +1277,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>731244</v>
       </c>
@@ -1242,7 +1300,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>731187</v>
       </c>
@@ -1265,7 +1323,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>730219</v>
       </c>
@@ -1288,7 +1346,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>731726</v>
       </c>
@@ -1311,7 +1369,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>731868</v>
       </c>
@@ -1334,7 +1392,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>730900</v>
       </c>
@@ -1357,7 +1415,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>730260</v>
       </c>
@@ -1380,7 +1438,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>731655</v>
       </c>
@@ -1403,7 +1461,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>731729</v>
       </c>
@@ -1426,7 +1484,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>730544</v>
       </c>
@@ -1449,7 +1507,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>731253</v>
       </c>
@@ -1472,7 +1530,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>730442</v>
       </c>
@@ -1495,7 +1553,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>730259</v>
       </c>
@@ -1518,7 +1576,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>730541</v>
       </c>
@@ -1541,7 +1599,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>730223</v>
       </c>
@@ -1564,7 +1622,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>731949</v>
       </c>
@@ -1587,7 +1645,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>730257</v>
       </c>
@@ -1610,7 +1668,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>731527</v>
       </c>
@@ -1633,7 +1691,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>796679</v>
       </c>
@@ -1656,7 +1714,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>731510</v>
       </c>
@@ -1679,7 +1737,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>731511</v>
       </c>
@@ -1702,7 +1760,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>731728</v>
       </c>
@@ -1728,7 +1786,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>730409</v>
       </c>
@@ -1751,7 +1809,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>731445</v>
       </c>
@@ -1774,7 +1832,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>731250</v>
       </c>
@@ -1797,7 +1855,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>730359</v>
       </c>
@@ -1820,7 +1878,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>731946</v>
       </c>
@@ -1843,7 +1901,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>730543</v>
       </c>
@@ -1866,7 +1924,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>731871</v>
       </c>
@@ -1889,7 +1947,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>731872</v>
       </c>
@@ -1912,7 +1970,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>731948</v>
       </c>
@@ -1935,7 +1993,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>731867</v>
       </c>
@@ -1958,7 +2016,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>731870</v>
       </c>
@@ -1981,7 +2039,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>730871</v>
       </c>
@@ -2004,7 +2062,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>730898</v>
       </c>
@@ -2027,7 +2085,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>731727</v>
       </c>
@@ -2050,7 +2108,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>730897</v>
       </c>
@@ -2073,7 +2131,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>731947</v>
       </c>
@@ -2096,7 +2154,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>730256</v>
       </c>
@@ -2119,7 +2177,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>730225</v>
       </c>
@@ -2142,7 +2200,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>731730</v>
       </c>
@@ -2163,6 +2221,142 @@
       </c>
       <c r="H62" s="2" t="s">
         <v>25</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A63" s="7">
+        <v>730688</v>
+      </c>
+      <c r="B63" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C63" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="D63" s="8">
+        <v>9980121494</v>
+      </c>
+      <c r="E63" s="8"/>
+      <c r="F63" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G63" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A64" s="7">
+        <v>731131</v>
+      </c>
+      <c r="B64" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C64" s="8"/>
+      <c r="D64" s="8">
+        <v>9513648097</v>
+      </c>
+      <c r="E64" s="8"/>
+      <c r="F64" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G64" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A65" s="9">
+        <v>779392</v>
+      </c>
+      <c r="B65" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C65" s="8"/>
+      <c r="D65" s="8">
+        <v>7829534082</v>
+      </c>
+      <c r="E65" s="8"/>
+      <c r="F65" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G65" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="H65" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A66" s="9">
+        <v>779395</v>
+      </c>
+      <c r="B66" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C66" s="8"/>
+      <c r="D66" s="8">
+        <v>8951102136</v>
+      </c>
+      <c r="E66" s="8"/>
+      <c r="F66" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G66" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A67" s="9">
+        <v>779414</v>
+      </c>
+      <c r="B67" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="C67" s="8"/>
+      <c r="D67" s="8">
+        <v>6360045772</v>
+      </c>
+      <c r="E67" s="8"/>
+      <c r="F67" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G67" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="H67" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A68" s="9">
+        <v>730101</v>
+      </c>
+      <c r="B68" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="D68" s="8">
+        <v>9243744153</v>
+      </c>
+      <c r="E68" s="8"/>
+      <c r="F68" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G68" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="H68" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/documents/templates/bulk-upload/02-BulkUploadEmployee.xlsx
+++ b/documents/templates/bulk-upload/02-BulkUploadEmployee.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dineshgajjar/Documents/Work/GitLab/YHWorks/Briot/clients/TMML/server/documents/templates/bulk-upload/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F9F0B13-AEE1-754F-92E0-1D21E631C13C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55E54D00-C33F-9641-928B-267FF2ADFA75}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{6BA803BE-7637-644E-81BF-475A654E4F59}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{6BA803BE-7637-644E-81BF-475A654E4F59}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1299" uniqueCount="501">
   <si>
     <t>Notify for Machine Maintenance</t>
   </si>
@@ -319,13 +319,1228 @@
   </si>
   <si>
     <t>santosh.arishinakar@tatamarcopolo.com</t>
+  </si>
+  <si>
+    <t>PRAVEEN DATAR</t>
+  </si>
+  <si>
+    <t>praveen.datar@tatamarcopolo.com</t>
+  </si>
+  <si>
+    <t>YES</t>
+  </si>
+  <si>
+    <t>SANTOSH JOGLEKAR</t>
+  </si>
+  <si>
+    <t>santosh.joglekar@tatamarcopolo.com</t>
+  </si>
+  <si>
+    <t>SANTOSH HATTI</t>
+  </si>
+  <si>
+    <t>santosh@tatamarcopolo.com</t>
+  </si>
+  <si>
+    <t>SHRIKANT R</t>
+  </si>
+  <si>
+    <t>sreekantr@tatamarcopolo.com</t>
+  </si>
+  <si>
+    <t>CHANDRU DANAPPANAVAR</t>
+  </si>
+  <si>
+    <t>chandru.d@tatamarcopolo.com</t>
+  </si>
+  <si>
+    <t>VISHWANATH HIREMATH</t>
+  </si>
+  <si>
+    <t>vishwanath.hiremath@tatamarcopolo.com</t>
+  </si>
+  <si>
+    <t>BHARAMGOUDA ABALUR</t>
+  </si>
+  <si>
+    <t>bharamagowda.abalur@tatamarcopolo.com</t>
+  </si>
+  <si>
+    <t>SHRIDHAR CHANDARKAY</t>
+  </si>
+  <si>
+    <t>shridhar.y@tatamarcopolo.com</t>
+  </si>
+  <si>
+    <t>NAVEENKUMAR MS</t>
+  </si>
+  <si>
+    <t>naveenkumar.ms@tatamarcopolo.com</t>
+  </si>
+  <si>
+    <t>VINAYAK SHIMPAGER</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>SANTOSH NANDEPPANAVAR</t>
+  </si>
+  <si>
+    <t>730226</t>
+  </si>
+  <si>
+    <t>MOHAMMED SHAHID SINDOLI</t>
+  </si>
+  <si>
+    <t>730230</t>
+  </si>
+  <si>
+    <t>SHIDDALINGESH NARAGUND</t>
+  </si>
+  <si>
+    <t>730248</t>
+  </si>
+  <si>
+    <t>MANJUNATH AMBANNAVAR</t>
+  </si>
+  <si>
+    <t>730258</t>
+  </si>
+  <si>
+    <t>VIJAYAKUMAR MIRAJKAR</t>
+  </si>
+  <si>
+    <t>730296</t>
+  </si>
+  <si>
+    <t>SACHIN HAIBATTI</t>
+  </si>
+  <si>
+    <t>730302</t>
+  </si>
+  <si>
+    <t>PANDITH RAO</t>
+  </si>
+  <si>
+    <t>730346</t>
+  </si>
+  <si>
+    <t>MANJUNATH PAWAR</t>
+  </si>
+  <si>
+    <t>730399</t>
+  </si>
+  <si>
+    <t>MANJUNATH CHIKKANNAVAR</t>
+  </si>
+  <si>
+    <t>730405</t>
+  </si>
+  <si>
+    <t>BASAVESHA JOGI</t>
+  </si>
+  <si>
+    <t>730416</t>
+  </si>
+  <si>
+    <t>NAGARAJ HARAKOONI</t>
+  </si>
+  <si>
+    <t>730417</t>
+  </si>
+  <si>
+    <t>MARUTI TALAWAR</t>
+  </si>
+  <si>
+    <t>730467</t>
+  </si>
+  <si>
+    <t>RAGHAVENDRA DIVATE</t>
+  </si>
+  <si>
+    <t>730551</t>
+  </si>
+  <si>
+    <t>MALLINATH MALIPATIL</t>
+  </si>
+  <si>
+    <t>730555</t>
+  </si>
+  <si>
+    <t>ASHOKA KARGI</t>
+  </si>
+  <si>
+    <t>730605</t>
+  </si>
+  <si>
+    <t>SHANKARAPA GOOLI</t>
+  </si>
+  <si>
+    <t>730606</t>
+  </si>
+  <si>
+    <t>MANJUNATH ULLIKASHI</t>
+  </si>
+  <si>
+    <t>730667</t>
+  </si>
+  <si>
+    <t>ISHWARA NAIK</t>
+  </si>
+  <si>
+    <t>730668</t>
+  </si>
+  <si>
+    <t>MANJAPPA HONNATTI</t>
+  </si>
+  <si>
+    <t>730669</t>
+  </si>
+  <si>
+    <t>KAREPPA DANDIN</t>
+  </si>
+  <si>
+    <t>730670</t>
+  </si>
+  <si>
+    <t>RAGHVENDRA S</t>
+  </si>
+  <si>
+    <t>730694</t>
+  </si>
+  <si>
+    <t>MANJUNATH GUDENNAVAR</t>
+  </si>
+  <si>
+    <t>730695</t>
+  </si>
+  <si>
+    <t>VEERANNA HUGAR</t>
+  </si>
+  <si>
+    <t>730701</t>
+  </si>
+  <si>
+    <t>MOSHIN MOMIN</t>
+  </si>
+  <si>
+    <t>730708</t>
+  </si>
+  <si>
+    <t>NAVEEN WADAWADAGI</t>
+  </si>
+  <si>
+    <t>730774</t>
+  </si>
+  <si>
+    <t>MANJAPPA T</t>
+  </si>
+  <si>
+    <t>730776</t>
+  </si>
+  <si>
+    <t>MANJUNATH KADUR</t>
+  </si>
+  <si>
+    <t>730777</t>
+  </si>
+  <si>
+    <t>NIRANJANA D R</t>
+  </si>
+  <si>
+    <t>730778</t>
+  </si>
+  <si>
+    <t>PUNDALEEK BENDRE</t>
+  </si>
+  <si>
+    <t>730852</t>
+  </si>
+  <si>
+    <t>SHIVAPPA NYAMANAGOUDAR</t>
+  </si>
+  <si>
+    <t>730853</t>
+  </si>
+  <si>
+    <t>BALAPPA MADDI</t>
+  </si>
+  <si>
+    <t>730854</t>
+  </si>
+  <si>
+    <t>DEVENDRA POMOJI</t>
+  </si>
+  <si>
+    <t>730855</t>
+  </si>
+  <si>
+    <t>MALLESHAPPA NAIKAR</t>
+  </si>
+  <si>
+    <t>730856</t>
+  </si>
+  <si>
+    <t>RAVI LONI</t>
+  </si>
+  <si>
+    <t>730857</t>
+  </si>
+  <si>
+    <t>MARIGOWDA DY</t>
+  </si>
+  <si>
+    <t>730858</t>
+  </si>
+  <si>
+    <t>IMAMSAB TADAKOD</t>
+  </si>
+  <si>
+    <t>730859</t>
+  </si>
+  <si>
+    <t>KALAPPA KAMMAR</t>
+  </si>
+  <si>
+    <t>730912</t>
+  </si>
+  <si>
+    <t>PRAVEEN GANGADHAR</t>
+  </si>
+  <si>
+    <t>730922</t>
+  </si>
+  <si>
+    <t>SAMEER AHMED JALALDAR</t>
+  </si>
+  <si>
+    <t>730923</t>
+  </si>
+  <si>
+    <t>SHRIDHAR VISHWAKARMA</t>
+  </si>
+  <si>
+    <t>730973</t>
+  </si>
+  <si>
+    <t>MAILARAPPA PIRAGANNAVAR</t>
+  </si>
+  <si>
+    <t>731189</t>
+  </si>
+  <si>
+    <t>RAVI DURGANNAWAR</t>
+  </si>
+  <si>
+    <t>731297</t>
+  </si>
+  <si>
+    <t>BASAVARAJ KALLUR</t>
+  </si>
+  <si>
+    <t>731298</t>
+  </si>
+  <si>
+    <t>MANJUNATH METI</t>
+  </si>
+  <si>
+    <t>731300</t>
+  </si>
+  <si>
+    <t>VTTTAL JAGADAPPANAVAR</t>
+  </si>
+  <si>
+    <t>731322</t>
+  </si>
+  <si>
+    <t>PRAVEEN AMBANNAVAR</t>
+  </si>
+  <si>
+    <t>731473</t>
+  </si>
+  <si>
+    <t>ANIL KUMARA K</t>
+  </si>
+  <si>
+    <t>731474</t>
+  </si>
+  <si>
+    <t>CHANDRASHEKHAR MATAGI</t>
+  </si>
+  <si>
+    <t>731475</t>
+  </si>
+  <si>
+    <t>CHANNABASAPPA HUMBERI</t>
+  </si>
+  <si>
+    <t>731476</t>
+  </si>
+  <si>
+    <t>CHANNABASAVA BASAVARAJ</t>
+  </si>
+  <si>
+    <t>731477</t>
+  </si>
+  <si>
+    <t>GALI ARIHANT</t>
+  </si>
+  <si>
+    <t>731481</t>
+  </si>
+  <si>
+    <t>MAHESH DESAI</t>
+  </si>
+  <si>
+    <t>731496</t>
+  </si>
+  <si>
+    <t>VEERESHA .</t>
+  </si>
+  <si>
+    <t>731542</t>
+  </si>
+  <si>
+    <t>NAGAPPA WALIKAR</t>
+  </si>
+  <si>
+    <t>731572</t>
+  </si>
+  <si>
+    <t>SHANKARAGOUD PATIL</t>
+  </si>
+  <si>
+    <t>731629</t>
+  </si>
+  <si>
+    <t>BASAVARAJ .</t>
+  </si>
+  <si>
+    <t>731667</t>
+  </si>
+  <si>
+    <t>PRABHU SUBHEDAR</t>
+  </si>
+  <si>
+    <t>731668</t>
+  </si>
+  <si>
+    <t>PRAKASH UGARKHOD</t>
+  </si>
+  <si>
+    <t>731669</t>
+  </si>
+  <si>
+    <t>SURESH SHIBARAGATTI</t>
+  </si>
+  <si>
+    <t>731736</t>
+  </si>
+  <si>
+    <t>MANJUNATH PUJAR</t>
+  </si>
+  <si>
+    <t>731737</t>
+  </si>
+  <si>
+    <t>NARAYAN NARAHARI</t>
+  </si>
+  <si>
+    <t>731738</t>
+  </si>
+  <si>
+    <t>NINGAPPA CHIKKANNAVAR</t>
+  </si>
+  <si>
+    <t>731739</t>
+  </si>
+  <si>
+    <t>PRAKASH YARAGATTI</t>
+  </si>
+  <si>
+    <t>731740</t>
+  </si>
+  <si>
+    <t>SANJU NARVEKAR</t>
+  </si>
+  <si>
+    <t>731741</t>
+  </si>
+  <si>
+    <t>SHIVANAND BATAKURKI</t>
+  </si>
+  <si>
+    <t>731774</t>
+  </si>
+  <si>
+    <t>SADASHIVA BOGUR</t>
+  </si>
+  <si>
+    <t>731812</t>
+  </si>
+  <si>
+    <t>PRAVEEN MUDIYAPPANAVAR</t>
+  </si>
+  <si>
+    <t>731813</t>
+  </si>
+  <si>
+    <t>SHARANAPPA MADAGUNAKI</t>
+  </si>
+  <si>
+    <t>731894</t>
+  </si>
+  <si>
+    <t>BASAVARAJ BHAVIKATTI</t>
+  </si>
+  <si>
+    <t>731895</t>
+  </si>
+  <si>
+    <t>FAKKIRAPPA CHAVADIMANI</t>
+  </si>
+  <si>
+    <t>731903</t>
+  </si>
+  <si>
+    <t>SHIVARAJ BOLESHWAR</t>
+  </si>
+  <si>
+    <t>731904</t>
+  </si>
+  <si>
+    <t>SHREENIVASA .</t>
+  </si>
+  <si>
+    <t>731909</t>
+  </si>
+  <si>
+    <t>PRAKASH MADIWALAR</t>
+  </si>
+  <si>
+    <t>731910</t>
+  </si>
+  <si>
+    <t>RAVI PATTAR</t>
+  </si>
+  <si>
+    <t>731915</t>
+  </si>
+  <si>
+    <t>VEERABASAPPA BALIGAR</t>
+  </si>
+  <si>
+    <t>731935</t>
+  </si>
+  <si>
+    <t>VISHWANATH SHETTY</t>
+  </si>
+  <si>
+    <t>732104</t>
+  </si>
+  <si>
+    <t>SANDEEP ANAND KAMMAR</t>
+  </si>
+  <si>
+    <t>779413</t>
+  </si>
+  <si>
+    <t>VIRUPAKSHAPPA MALAPUR</t>
+  </si>
+  <si>
+    <t>795812</t>
+  </si>
+  <si>
+    <t>MALIKAJAN VAKKUND</t>
+  </si>
+  <si>
+    <t>795837</t>
+  </si>
+  <si>
+    <t>PRAVEEN IRAGAR</t>
+  </si>
+  <si>
+    <t>795840</t>
+  </si>
+  <si>
+    <t>ISHWARGOUDA HALEMANI</t>
+  </si>
+  <si>
+    <t>795841</t>
+  </si>
+  <si>
+    <t>JYOTIBA SHIVAPPA KARISUBBANAVAR</t>
+  </si>
+  <si>
+    <t>795845</t>
+  </si>
+  <si>
+    <t>ARJUN JAVOORI</t>
+  </si>
+  <si>
+    <t>795847</t>
+  </si>
+  <si>
+    <t>SHIVAJI PARASHURAM VAKODE</t>
+  </si>
+  <si>
+    <t>795848</t>
+  </si>
+  <si>
+    <t>BASAVARAJ MALLIGAWAD</t>
+  </si>
+  <si>
+    <t>795850</t>
+  </si>
+  <si>
+    <t>RAVI MADINNI</t>
+  </si>
+  <si>
+    <t>795852</t>
+  </si>
+  <si>
+    <t>SHIVANAND AJJAPPA HONGAL</t>
+  </si>
+  <si>
+    <t>795858</t>
+  </si>
+  <si>
+    <t>NITYANAND BASAPPA TOTAR</t>
+  </si>
+  <si>
+    <t>795861</t>
+  </si>
+  <si>
+    <t>FAKKEERAPPA MADIVALAR</t>
+  </si>
+  <si>
+    <t>795903</t>
+  </si>
+  <si>
+    <t>ASARAR SALEEM HOSOORAKAR</t>
+  </si>
+  <si>
+    <t>795924</t>
+  </si>
+  <si>
+    <t>VITTHAL CHAVAN</t>
+  </si>
+  <si>
+    <t>795972</t>
+  </si>
+  <si>
+    <t>CHIDANAND ELALLI</t>
+  </si>
+  <si>
+    <t>796025</t>
+  </si>
+  <si>
+    <t>NINGANAGOUDA NINGANAGOUDRA</t>
+  </si>
+  <si>
+    <t>796090</t>
+  </si>
+  <si>
+    <t>MUTTU BHIMAPPA HUGAR</t>
+  </si>
+  <si>
+    <t>796100</t>
+  </si>
+  <si>
+    <t>DAYANAND S MARALINGANNAVAR</t>
+  </si>
+  <si>
+    <t>796105</t>
+  </si>
+  <si>
+    <t>RAJASHEKAR IRAPPA DEGANVI</t>
+  </si>
+  <si>
+    <t>796113</t>
+  </si>
+  <si>
+    <t>SANGAMESH PATHANI</t>
+  </si>
+  <si>
+    <t>796227</t>
+  </si>
+  <si>
+    <t>ATHMANANDA I BEDASUR</t>
+  </si>
+  <si>
+    <t>796244</t>
+  </si>
+  <si>
+    <t>MANJUNATH ALADAKATTI</t>
+  </si>
+  <si>
+    <t>796251</t>
+  </si>
+  <si>
+    <t>NAMADEV N PISNE</t>
+  </si>
+  <si>
+    <t>796293</t>
+  </si>
+  <si>
+    <t>SURESH JODALLI</t>
+  </si>
+  <si>
+    <t>796302</t>
+  </si>
+  <si>
+    <t>JAGADEESH KAMMAR</t>
+  </si>
+  <si>
+    <t>796326</t>
+  </si>
+  <si>
+    <t>IRANNA NEELAPPA TALAWAR</t>
+  </si>
+  <si>
+    <t>796341</t>
+  </si>
+  <si>
+    <t>SATISHAGOUDA S BHOOMANAGOUDRA</t>
+  </si>
+  <si>
+    <t>796345</t>
+  </si>
+  <si>
+    <t>ASHOK MADIWALAR</t>
+  </si>
+  <si>
+    <t>796353</t>
+  </si>
+  <si>
+    <t>CHANDRAGOUD GOUDRA</t>
+  </si>
+  <si>
+    <t>796355</t>
+  </si>
+  <si>
+    <t>BHIMAPPA MADAR</t>
+  </si>
+  <si>
+    <t>796364</t>
+  </si>
+  <si>
+    <t>NINGANAGOUDA KALLANAGOUDRA</t>
+  </si>
+  <si>
+    <t>796366</t>
+  </si>
+  <si>
+    <t>NAGARAJ SAMPAGAU</t>
+  </si>
+  <si>
+    <t>796369</t>
+  </si>
+  <si>
+    <t>MANJU ANAPATI</t>
+  </si>
+  <si>
+    <t>796406</t>
+  </si>
+  <si>
+    <t>VIJAYAKUMAR J JAINAR</t>
+  </si>
+  <si>
+    <t>796431</t>
+  </si>
+  <si>
+    <t>DEEPAK NAREGAL</t>
+  </si>
+  <si>
+    <t>796439</t>
+  </si>
+  <si>
+    <t>PRADEEP ASHOK ENAGI</t>
+  </si>
+  <si>
+    <t>796445</t>
+  </si>
+  <si>
+    <t>MALLAPPA N HANDUR</t>
+  </si>
+  <si>
+    <t>796448</t>
+  </si>
+  <si>
+    <t>ANIKET ASHOK BANDEKAR</t>
+  </si>
+  <si>
+    <t>796454</t>
+  </si>
+  <si>
+    <t>PRAVEEN JADHAV</t>
+  </si>
+  <si>
+    <t>796455</t>
+  </si>
+  <si>
+    <t>CHOUDAYYA BADASAD</t>
+  </si>
+  <si>
+    <t>796456</t>
+  </si>
+  <si>
+    <t>MANJUNATH SONAPPANAVAR</t>
+  </si>
+  <si>
+    <t>796457</t>
+  </si>
+  <si>
+    <t>JAGADEESH BASAVARAJ SOODI</t>
+  </si>
+  <si>
+    <t>796458</t>
+  </si>
+  <si>
+    <t>CHETAN KEMANAVAR</t>
+  </si>
+  <si>
+    <t>796461</t>
+  </si>
+  <si>
+    <t>ANIL CHANDRASHEKHAR KURUBAGATTI</t>
+  </si>
+  <si>
+    <t>796468</t>
+  </si>
+  <si>
+    <t>SACHIN S HUGAR</t>
+  </si>
+  <si>
+    <t>796471</t>
+  </si>
+  <si>
+    <t>SOMASHEKAR CHULAKI</t>
+  </si>
+  <si>
+    <t>796473</t>
+  </si>
+  <si>
+    <t>NINGAYYA SHIVALINGAYYA PUJAR</t>
+  </si>
+  <si>
+    <t>796476</t>
+  </si>
+  <si>
+    <t>NAGARAJ B AGASIMANI</t>
+  </si>
+  <si>
+    <t>796477</t>
+  </si>
+  <si>
+    <t>MAHAMMADIRFAN M KADAPA</t>
+  </si>
+  <si>
+    <t>796478</t>
+  </si>
+  <si>
+    <t>DARSHAN SHASHIKIRAN NAIK</t>
+  </si>
+  <si>
+    <t>796479</t>
+  </si>
+  <si>
+    <t>NELAKANTHAPPA MARILINGANNAVAR</t>
+  </si>
+  <si>
+    <t>796480</t>
+  </si>
+  <si>
+    <t>KASHINATH IRAPANNAVAR</t>
+  </si>
+  <si>
+    <t>796481</t>
+  </si>
+  <si>
+    <t>PRAVEEN ELALLI</t>
+  </si>
+  <si>
+    <t>796482</t>
+  </si>
+  <si>
+    <t>SATHISH HONAGEKAR</t>
+  </si>
+  <si>
+    <t>796514</t>
+  </si>
+  <si>
+    <t>PRASHANT S PATIL</t>
+  </si>
+  <si>
+    <t>796520</t>
+  </si>
+  <si>
+    <t>DAYANAND GANAPATI BULABULE</t>
+  </si>
+  <si>
+    <t>796522</t>
+  </si>
+  <si>
+    <t>PRAVEEN KALAKERI</t>
+  </si>
+  <si>
+    <t>796528</t>
+  </si>
+  <si>
+    <t>SHIVANAND HUGAR</t>
+  </si>
+  <si>
+    <t>796541</t>
+  </si>
+  <si>
+    <t>PARAMESHWAR KUMBAR</t>
+  </si>
+  <si>
+    <t>796546</t>
+  </si>
+  <si>
+    <t>SANTOSH SUBHAS GURLAHOSUR</t>
+  </si>
+  <si>
+    <t>796554</t>
+  </si>
+  <si>
+    <t>SARFRAZ I DODAWAD</t>
+  </si>
+  <si>
+    <t>796559</t>
+  </si>
+  <si>
+    <t>NAGARAJ M KALLUR</t>
+  </si>
+  <si>
+    <t>796655</t>
+  </si>
+  <si>
+    <t>BASAVARAJ GUJAMAGADI</t>
+  </si>
+  <si>
+    <t>796672</t>
+  </si>
+  <si>
+    <t>SUNIL CHACHADI</t>
+  </si>
+  <si>
+    <t>796693</t>
+  </si>
+  <si>
+    <t>RAGHAVENDRA SINDHE</t>
+  </si>
+  <si>
+    <t>796694</t>
+  </si>
+  <si>
+    <t>PADEPPA UMESH SOMANATTI</t>
+  </si>
+  <si>
+    <t>796695</t>
+  </si>
+  <si>
+    <t>SHIVANAND GANGAYYA HIREMATH</t>
+  </si>
+  <si>
+    <t>796696</t>
+  </si>
+  <si>
+    <t>PRAKASH HANAMANTAPPA KARADE</t>
+  </si>
+  <si>
+    <t>796698</t>
+  </si>
+  <si>
+    <t>UMESH MAHANTESH HUGAR</t>
+  </si>
+  <si>
+    <t>796699</t>
+  </si>
+  <si>
+    <t>SUNEEL BASAVVA NAIKAR</t>
+  </si>
+  <si>
+    <t>796700</t>
+  </si>
+  <si>
+    <t>SANTOSH VIRUPAKSHAPPA MARABASHETTI</t>
+  </si>
+  <si>
+    <t>796701</t>
+  </si>
+  <si>
+    <t>PRASAD M IMMADI</t>
+  </si>
+  <si>
+    <t>796702</t>
+  </si>
+  <si>
+    <t>UMESH SHIVAPUTRAPPA SUBHEDAR</t>
+  </si>
+  <si>
+    <t>796703</t>
+  </si>
+  <si>
+    <t>VINAYAK KOTTAL</t>
+  </si>
+  <si>
+    <t>796704</t>
+  </si>
+  <si>
+    <t>NAVEEN SABAKALE</t>
+  </si>
+  <si>
+    <t>796705</t>
+  </si>
+  <si>
+    <t>DHANAJAY RAGHUNATH NATHAJI</t>
+  </si>
+  <si>
+    <t>796707</t>
+  </si>
+  <si>
+    <t>NAGARAJ K UPPIN</t>
+  </si>
+  <si>
+    <t>796708</t>
+  </si>
+  <si>
+    <t>VIRESH TIRLAPUR</t>
+  </si>
+  <si>
+    <t>796710</t>
+  </si>
+  <si>
+    <t>SANTOSH TALAVAYI</t>
+  </si>
+  <si>
+    <t>796712</t>
+  </si>
+  <si>
+    <t>IBRAHIM HANCHINAMANI</t>
+  </si>
+  <si>
+    <t>796713</t>
+  </si>
+  <si>
+    <t>HANAMANTHGOUDA CHIKKANAIKAR</t>
+  </si>
+  <si>
+    <t>796715</t>
+  </si>
+  <si>
+    <t>FAKRUSAB DEVALAPUR</t>
+  </si>
+  <si>
+    <t>796717</t>
+  </si>
+  <si>
+    <t>MANJUNATH MALLAPPA MADAR</t>
+  </si>
+  <si>
+    <t>796718</t>
+  </si>
+  <si>
+    <t>ANAND CHANDRAPPA MADAR</t>
+  </si>
+  <si>
+    <t>796719</t>
+  </si>
+  <si>
+    <t>ISHWAR ANCHATAGERI</t>
+  </si>
+  <si>
+    <t>796720</t>
+  </si>
+  <si>
+    <t>MARUTI SANNAYALLAPPA KAREEMANI</t>
+  </si>
+  <si>
+    <t>796721</t>
+  </si>
+  <si>
+    <t>DHARMARAJ YALLAPPA NAIKAR</t>
+  </si>
+  <si>
+    <t>796722</t>
+  </si>
+  <si>
+    <t>SURAJ APPU SHIGNALLI</t>
+  </si>
+  <si>
+    <t>796723</t>
+  </si>
+  <si>
+    <t>ANAND HUNASHIMARAD</t>
+  </si>
+  <si>
+    <t>796724</t>
+  </si>
+  <si>
+    <t>GURUNATH S GOBBARAGUMPI</t>
+  </si>
+  <si>
+    <t>796725</t>
+  </si>
+  <si>
+    <t>MALIKJAN HAKEEM</t>
+  </si>
+  <si>
+    <t>796726</t>
+  </si>
+  <si>
+    <t>MAHANTESH RAYEJI</t>
+  </si>
+  <si>
+    <t>796727</t>
+  </si>
+  <si>
+    <t>MAHESH MARAKUMBIMATH</t>
+  </si>
+  <si>
+    <t>796728</t>
+  </si>
+  <si>
+    <t>NEELAKANTH GUGGRI</t>
+  </si>
+  <si>
+    <t>796729</t>
+  </si>
+  <si>
+    <t>AKASH ASHOK LATANE</t>
+  </si>
+  <si>
+    <t>796730</t>
+  </si>
+  <si>
+    <t>MAHESH CHABBI</t>
+  </si>
+  <si>
+    <t>796731</t>
+  </si>
+  <si>
+    <t>NIKHIL LAXMAN NESARAGI</t>
+  </si>
+  <si>
+    <t>796732</t>
+  </si>
+  <si>
+    <t>PRASHANT ARKASALI</t>
+  </si>
+  <si>
+    <t>796733</t>
+  </si>
+  <si>
+    <t>VINAYAK S HUMBERI</t>
+  </si>
+  <si>
+    <t>796734</t>
+  </si>
+  <si>
+    <t>GANAPATI BHEEMAPPA KALLANNAVAR</t>
+  </si>
+  <si>
+    <t>796735</t>
+  </si>
+  <si>
+    <t>VIKAS SHIVASHIMPI</t>
+  </si>
+  <si>
+    <t>796736</t>
+  </si>
+  <si>
+    <t>MANJUNATH VIRUPAKSH TORANAGATTI</t>
+  </si>
+  <si>
+    <t>796737</t>
+  </si>
+  <si>
+    <t>PRAVEENKUMAR PATRAPPA SAVANUR</t>
+  </si>
+  <si>
+    <t>796738</t>
+  </si>
+  <si>
+    <t>BASAVARAJ SOGALAD</t>
+  </si>
+  <si>
+    <t>796739</t>
+  </si>
+  <si>
+    <t>MOHAN TIGADI</t>
+  </si>
+  <si>
+    <t>796740</t>
+  </si>
+  <si>
+    <t>IZAZAHMED UMACHAGI</t>
+  </si>
+  <si>
+    <t>796741</t>
+  </si>
+  <si>
+    <t>SHANKAREPPA CHANDRAKANT KILLIKETAR</t>
+  </si>
+  <si>
+    <t>796742</t>
+  </si>
+  <si>
+    <t>MANJUNATH SIDDANNAVAR</t>
+  </si>
+  <si>
+    <t>796743</t>
+  </si>
+  <si>
+    <t>MAHANTESH KALASANNAVAR</t>
+  </si>
+  <si>
+    <t>796744</t>
+  </si>
+  <si>
+    <t>MANTESH MADIWALAR</t>
+  </si>
+  <si>
+    <t>796745</t>
+  </si>
+  <si>
+    <t>MALLIKARJUN ANGADI</t>
+  </si>
+  <si>
+    <t>796746</t>
+  </si>
+  <si>
+    <t>MALLESHAPPA MARADI</t>
+  </si>
+  <si>
+    <t>796747</t>
+  </si>
+  <si>
+    <t>IRAPPA SIDDAPUR</t>
+  </si>
+  <si>
+    <t>796748</t>
+  </si>
+  <si>
+    <t>NINGAPPA PATIL</t>
+  </si>
+  <si>
+    <t>796749</t>
+  </si>
+  <si>
+    <t>SANJEEV KAMBALI</t>
+  </si>
+  <si>
+    <t>Machine Shop (Production)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -354,13 +1569,42 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -391,7 +1635,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -399,16 +1643,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -420,6 +1655,66 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -736,1627 +2031,6159 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADC00F89-2235-B741-A22E-475A64033711}">
-  <dimension ref="A1:H68"/>
+  <dimension ref="A1:H270"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="G63" sqref="G63"/>
+    <sheetView tabSelected="1" topLeftCell="A251" workbookViewId="0">
+      <selection activeCell="A270" sqref="A270"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="43.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43.1640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="28.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.5" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="27.83203125" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" s="2" t="s">
+      <c r="G1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="6" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="A2" s="9">
+        <v>1</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="8">
         <v>0</v>
       </c>
-      <c r="E2" s="1">
-        <v>1</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G2" s="1" t="s">
+      <c r="E2" s="9">
+        <v>1</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
+      <c r="A3" s="9">
         <v>730809</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="8">
         <v>9243265893</v>
       </c>
-      <c r="E3" s="1">
-        <v>1</v>
-      </c>
-      <c r="F3" s="2" t="s">
+      <c r="E3" s="9">
+        <v>1</v>
+      </c>
+      <c r="F3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
+      <c r="A4" s="9">
         <v>731018</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="8">
         <v>9243299879</v>
       </c>
-      <c r="E4" s="1">
-        <v>1</v>
-      </c>
-      <c r="F4" s="2" t="s">
+      <c r="E4" s="9">
+        <v>1</v>
+      </c>
+      <c r="F4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" s="6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
+      <c r="A5" s="9">
         <v>730869</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="8">
         <v>9243265702</v>
       </c>
-      <c r="E5" s="1">
-        <v>1</v>
-      </c>
-      <c r="F5" s="2" t="s">
+      <c r="E5" s="9">
+        <v>1</v>
+      </c>
+      <c r="F5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" s="6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
+      <c r="A6" s="9">
         <v>731653</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="8">
         <v>7204069750</v>
       </c>
-      <c r="E6" s="1">
-        <v>1</v>
-      </c>
-      <c r="F6" s="2" t="s">
+      <c r="E6" s="9">
+        <v>1</v>
+      </c>
+      <c r="F6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="H6" s="6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
+      <c r="A7" s="9">
         <v>731855</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="8">
         <v>7204009033</v>
       </c>
-      <c r="E7" s="1">
-        <v>1</v>
-      </c>
-      <c r="F7" s="2" t="s">
+      <c r="E7" s="9">
+        <v>1</v>
+      </c>
+      <c r="F7" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="H7" s="6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
+      <c r="A8" s="9">
         <v>731924</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="8">
         <v>7204009035</v>
       </c>
-      <c r="E8" s="1">
-        <v>1</v>
-      </c>
-      <c r="F8" s="2" t="s">
+      <c r="E8" s="9">
+        <v>1</v>
+      </c>
+      <c r="F8" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="G8" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="H8" s="6" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
+      <c r="A9" s="9">
         <v>732210</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="8">
         <v>9513733160</v>
       </c>
-      <c r="E9" s="1">
-        <v>1</v>
-      </c>
-      <c r="F9" s="2" t="s">
+      <c r="E9" s="9">
+        <v>1</v>
+      </c>
+      <c r="F9" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G9" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="H9" s="6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
+      <c r="A10" s="9">
         <v>730130</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="8">
         <v>9243299682</v>
       </c>
-      <c r="E10" s="1">
-        <v>1</v>
-      </c>
-      <c r="F10" s="2" t="s">
+      <c r="E10" s="9">
+        <v>1</v>
+      </c>
+      <c r="F10" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="G10" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="H10" s="6" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
+      <c r="A11" s="9">
         <v>731446</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="8">
         <v>9243323920</v>
       </c>
-      <c r="E11" s="1">
-        <v>1</v>
-      </c>
-      <c r="F11" s="2" t="s">
+      <c r="E11" s="9">
+        <v>1</v>
+      </c>
+      <c r="F11" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="G11" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="H11" s="6" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
+      <c r="A12" s="9">
         <v>732091</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="8">
         <v>9632442887</v>
       </c>
-      <c r="E12" s="1">
-        <v>1</v>
-      </c>
-      <c r="F12" s="2" t="s">
+      <c r="E12" s="9">
+        <v>1</v>
+      </c>
+      <c r="F12" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="G12" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="H12" s="6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
+      <c r="A13" s="9">
         <v>732211</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="8">
         <v>9513733169</v>
       </c>
-      <c r="E13" s="1">
-        <v>1</v>
-      </c>
-      <c r="F13" s="2" t="s">
+      <c r="E13" s="9">
+        <v>1</v>
+      </c>
+      <c r="F13" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="G13" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="H13" s="6" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
+      <c r="A14" s="9">
         <v>730386</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="5">
+      <c r="C14" s="7"/>
+      <c r="D14" s="8">
         <v>0</v>
       </c>
-      <c r="E14" s="1">
-        <v>1</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G14" s="1" t="s">
+      <c r="E14" s="9">
+        <v>1</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G14" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="H14" s="2" t="s">
+      <c r="H14" s="6" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
+      <c r="A15" s="9">
         <v>730222</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="D15" s="5">
+      <c r="C15" s="7"/>
+      <c r="D15" s="8">
         <v>0</v>
       </c>
-      <c r="E15" s="1">
-        <v>1</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G15" s="1" t="s">
+      <c r="E15" s="9">
+        <v>1</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G15" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="H15" s="2" t="s">
+      <c r="H15" s="6" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
+      <c r="A16" s="9">
         <v>731654</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="5">
+      <c r="C16" s="7"/>
+      <c r="D16" s="8">
         <v>0</v>
       </c>
-      <c r="E16" s="1">
-        <v>1</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G16" s="1" t="s">
+      <c r="E16" s="9">
+        <v>1</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G16" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="H16" s="2" t="s">
+      <c r="H16" s="6" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
+      <c r="A17" s="9">
         <v>731866</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D17" s="5">
+      <c r="C17" s="7"/>
+      <c r="D17" s="8">
         <v>0</v>
       </c>
-      <c r="E17" s="1">
-        <v>1</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G17" s="1" t="s">
+      <c r="E17" s="9">
+        <v>1</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G17" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="H17" s="2" t="s">
+      <c r="H17" s="6" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
+      <c r="A18" s="9">
         <v>731869</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="D18" s="5">
+      <c r="C18" s="7"/>
+      <c r="D18" s="8">
         <v>0</v>
       </c>
-      <c r="E18" s="1">
-        <v>1</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G18" s="1" t="s">
+      <c r="E18" s="9">
+        <v>1</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G18" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="H18" s="2" t="s">
+      <c r="H18" s="6" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="1">
+      <c r="A19" s="9">
         <v>730899</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="D19" s="5">
+      <c r="C19" s="7"/>
+      <c r="D19" s="8">
         <v>0</v>
       </c>
-      <c r="E19" s="1">
-        <v>1</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G19" s="1" t="s">
+      <c r="E19" s="9">
+        <v>1</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G19" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="H19" s="2" t="s">
+      <c r="H19" s="6" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="1">
+      <c r="A20" s="9">
         <v>730255</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D20" s="5">
+      <c r="C20" s="7"/>
+      <c r="D20" s="8">
         <v>0</v>
       </c>
-      <c r="E20" s="1">
-        <v>1</v>
-      </c>
-      <c r="F20" s="2" t="s">
+      <c r="E20" s="9">
+        <v>1</v>
+      </c>
+      <c r="F20" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G20" s="1" t="s">
+      <c r="G20" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="H20" s="2" t="s">
+      <c r="H20" s="6" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="1">
+      <c r="A21" s="9">
         <v>730410</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D21" s="5">
+      <c r="C21" s="7"/>
+      <c r="D21" s="8">
         <v>0</v>
       </c>
-      <c r="E21" s="1">
-        <v>1</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G21" s="1" t="s">
+      <c r="E21" s="9">
+        <v>1</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G21" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="H21" s="2" t="s">
+      <c r="H21" s="6" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="1">
+      <c r="A22" s="9">
         <v>731244</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="D22" s="5">
+      <c r="C22" s="7"/>
+      <c r="D22" s="8">
         <v>0</v>
       </c>
-      <c r="E22" s="1">
-        <v>1</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G22" s="1" t="s">
+      <c r="E22" s="9">
+        <v>1</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G22" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="H22" s="2" t="s">
+      <c r="H22" s="6" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="1">
+      <c r="A23" s="9">
         <v>731187</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D23" s="5">
+      <c r="C23" s="7"/>
+      <c r="D23" s="8">
         <v>0</v>
       </c>
-      <c r="E23" s="1">
-        <v>1</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G23" s="1" t="s">
+      <c r="E23" s="9">
+        <v>1</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G23" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="H23" s="2" t="s">
+      <c r="H23" s="6" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="1">
+      <c r="A24" s="9">
         <v>730219</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="D24" s="5">
+      <c r="C24" s="7"/>
+      <c r="D24" s="8">
         <v>0</v>
       </c>
-      <c r="E24" s="1">
-        <v>1</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G24" s="1" t="s">
+      <c r="E24" s="9">
+        <v>1</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G24" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="H24" s="2" t="s">
+      <c r="H24" s="6" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="1">
+      <c r="A25" s="9">
         <v>731726</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D25" s="5">
+      <c r="C25" s="7"/>
+      <c r="D25" s="8">
         <v>0</v>
       </c>
-      <c r="E25" s="1">
-        <v>1</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G25" s="1" t="s">
+      <c r="E25" s="9">
+        <v>1</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G25" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="H25" s="2" t="s">
+      <c r="H25" s="6" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="1">
+      <c r="A26" s="9">
         <v>731868</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="D26" s="5">
+      <c r="C26" s="7"/>
+      <c r="D26" s="8">
         <v>0</v>
       </c>
-      <c r="E26" s="1">
-        <v>1</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G26" s="1" t="s">
+      <c r="E26" s="9">
+        <v>1</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G26" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="H26" s="2" t="s">
+      <c r="H26" s="6" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="1">
+      <c r="A27" s="9">
         <v>730900</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="D27" s="5">
+      <c r="C27" s="7"/>
+      <c r="D27" s="8">
         <v>0</v>
       </c>
-      <c r="E27" s="1">
-        <v>1</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G27" s="1" t="s">
+      <c r="E27" s="9">
+        <v>1</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G27" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="H27" s="2" t="s">
+      <c r="H27" s="6" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="1">
+      <c r="A28" s="9">
         <v>730260</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="D28" s="5">
+      <c r="C28" s="7"/>
+      <c r="D28" s="8">
         <v>0</v>
       </c>
-      <c r="E28" s="1">
-        <v>1</v>
-      </c>
-      <c r="F28" s="2" t="s">
+      <c r="E28" s="9">
+        <v>1</v>
+      </c>
+      <c r="F28" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G28" s="1" t="s">
+      <c r="G28" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="H28" s="2" t="s">
+      <c r="H28" s="6" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="1">
+      <c r="A29" s="9">
         <v>731655</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="D29" s="5">
+      <c r="C29" s="7"/>
+      <c r="D29" s="8">
         <v>0</v>
       </c>
-      <c r="E29" s="1">
-        <v>1</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G29" s="1" t="s">
+      <c r="E29" s="9">
+        <v>1</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G29" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="H29" s="2" t="s">
+      <c r="H29" s="6" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" s="1">
+      <c r="A30" s="9">
         <v>731729</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="D30" s="5">
+      <c r="C30" s="7"/>
+      <c r="D30" s="8">
         <v>0</v>
       </c>
-      <c r="E30" s="1">
-        <v>1</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G30" s="1" t="s">
+      <c r="E30" s="9">
+        <v>1</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G30" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="H30" s="2" t="s">
+      <c r="H30" s="6" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" s="1">
+      <c r="A31" s="9">
         <v>730544</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="D31" s="5">
+      <c r="C31" s="7"/>
+      <c r="D31" s="8">
         <v>0</v>
       </c>
-      <c r="E31" s="1">
-        <v>1</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G31" s="1" t="s">
+      <c r="E31" s="9">
+        <v>1</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G31" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="H31" s="2" t="s">
+      <c r="H31" s="6" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" s="1">
+      <c r="A32" s="9">
         <v>731253</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="D32" s="5">
+      <c r="C32" s="7"/>
+      <c r="D32" s="8">
         <v>0</v>
       </c>
-      <c r="E32" s="1">
-        <v>1</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G32" s="1" t="s">
+      <c r="E32" s="9">
+        <v>1</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G32" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="H32" s="2" t="s">
+      <c r="H32" s="6" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33" s="1">
+      <c r="A33" s="9">
         <v>730442</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="D33" s="5">
+      <c r="C33" s="7"/>
+      <c r="D33" s="8">
         <v>0</v>
       </c>
-      <c r="E33" s="1">
-        <v>1</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G33" s="1" t="s">
+      <c r="E33" s="9">
+        <v>1</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G33" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="H33" s="2" t="s">
+      <c r="H33" s="6" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A34" s="1">
+      <c r="A34" s="9">
         <v>730259</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="D34" s="5">
+      <c r="C34" s="7"/>
+      <c r="D34" s="8">
         <v>0</v>
       </c>
-      <c r="E34" s="1">
-        <v>1</v>
-      </c>
-      <c r="F34" s="2" t="s">
+      <c r="E34" s="9">
+        <v>1</v>
+      </c>
+      <c r="F34" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G34" s="1" t="s">
+      <c r="G34" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="H34" s="2" t="s">
+      <c r="H34" s="6" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A35" s="1">
+      <c r="A35" s="9">
         <v>730541</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="D35" s="5">
+      <c r="C35" s="7"/>
+      <c r="D35" s="8">
         <v>0</v>
       </c>
-      <c r="E35" s="1">
-        <v>1</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G35" s="1" t="s">
+      <c r="E35" s="9">
+        <v>1</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G35" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="H35" s="2" t="s">
+      <c r="H35" s="6" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A36" s="1">
+      <c r="A36" s="9">
         <v>730223</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B36" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="D36" s="5">
+      <c r="C36" s="7"/>
+      <c r="D36" s="8">
         <v>0</v>
       </c>
-      <c r="E36" s="1">
-        <v>1</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G36" s="1" t="s">
+      <c r="E36" s="9">
+        <v>1</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G36" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="H36" s="2" t="s">
+      <c r="H36" s="6" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A37" s="1">
+      <c r="A37" s="9">
         <v>731949</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B37" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="D37" s="5">
+      <c r="C37" s="7"/>
+      <c r="D37" s="8">
         <v>0</v>
       </c>
-      <c r="E37" s="1">
-        <v>1</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G37" s="1" t="s">
+      <c r="E37" s="9">
+        <v>1</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G37" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="H37" s="2" t="s">
+      <c r="H37" s="6" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A38" s="1">
+      <c r="A38" s="9">
         <v>730257</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B38" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="D38" s="5">
+      <c r="C38" s="7"/>
+      <c r="D38" s="8">
         <v>0</v>
       </c>
-      <c r="E38" s="1">
-        <v>1</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G38" s="1" t="s">
+      <c r="E38" s="9">
+        <v>1</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G38" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="H38" s="2" t="s">
+      <c r="H38" s="6" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A39" s="1">
+      <c r="A39" s="9">
         <v>731527</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B39" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="D39" s="5">
+      <c r="C39" s="7"/>
+      <c r="D39" s="8">
         <v>0</v>
       </c>
-      <c r="E39" s="1">
-        <v>1</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G39" s="1" t="s">
+      <c r="E39" s="9">
+        <v>1</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G39" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="H39" s="2" t="s">
+      <c r="H39" s="6" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A40" s="1">
+      <c r="A40" s="9">
         <v>796679</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B40" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="D40" s="5">
+      <c r="C40" s="7"/>
+      <c r="D40" s="8">
         <v>0</v>
       </c>
-      <c r="E40" s="1">
-        <v>1</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G40" s="1" t="s">
+      <c r="E40" s="9">
+        <v>1</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G40" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="H40" s="2" t="s">
+      <c r="H40" s="6" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A41" s="1">
+      <c r="A41" s="9">
         <v>731510</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B41" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="D41" s="5">
+      <c r="C41" s="7"/>
+      <c r="D41" s="8">
         <v>0</v>
       </c>
-      <c r="E41" s="1">
-        <v>1</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G41" s="1" t="s">
+      <c r="E41" s="9">
+        <v>1</v>
+      </c>
+      <c r="F41" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G41" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="H41" s="2" t="s">
+      <c r="H41" s="6" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A42" s="1">
+      <c r="A42" s="9">
         <v>731511</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B42" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="D42" s="5">
+      <c r="C42" s="7"/>
+      <c r="D42" s="8">
         <v>0</v>
       </c>
-      <c r="E42" s="1">
-        <v>1</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G42" s="1" t="s">
+      <c r="E42" s="9">
+        <v>1</v>
+      </c>
+      <c r="F42" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G42" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="H42" s="2" t="s">
+      <c r="H42" s="6" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A43" s="1">
+      <c r="A43" s="9">
         <v>731728</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B43" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="C43" s="4" t="s">
+      <c r="C43" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="D43" s="5">
+      <c r="D43" s="8">
         <v>0</v>
       </c>
-      <c r="E43" s="1">
-        <v>1</v>
-      </c>
-      <c r="F43" s="2" t="s">
+      <c r="E43" s="9">
+        <v>1</v>
+      </c>
+      <c r="F43" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G43" s="1" t="s">
+      <c r="G43" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="H43" s="2" t="s">
+      <c r="H43" s="6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A44" s="1">
+      <c r="A44" s="9">
         <v>730409</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B44" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="D44" s="5">
+      <c r="C44" s="7"/>
+      <c r="D44" s="8">
         <v>0</v>
       </c>
-      <c r="E44" s="1">
-        <v>1</v>
-      </c>
-      <c r="F44" s="2" t="s">
+      <c r="E44" s="9">
+        <v>1</v>
+      </c>
+      <c r="F44" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="G44" s="1" t="s">
+      <c r="G44" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="H44" s="2" t="s">
+      <c r="H44" s="6" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A45" s="1">
+      <c r="A45" s="9">
         <v>731445</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B45" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="D45" s="5">
+      <c r="C45" s="7"/>
+      <c r="D45" s="8">
         <v>0</v>
       </c>
-      <c r="E45" s="1">
-        <v>1</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G45" s="1" t="s">
+      <c r="E45" s="9">
+        <v>1</v>
+      </c>
+      <c r="F45" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G45" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="H45" s="2" t="s">
+      <c r="H45" s="6" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A46" s="1">
+      <c r="A46" s="9">
         <v>731250</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B46" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="D46" s="5">
+      <c r="C46" s="7"/>
+      <c r="D46" s="8">
         <v>0</v>
       </c>
-      <c r="E46" s="1">
-        <v>1</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G46" s="1" t="s">
+      <c r="E46" s="9">
+        <v>1</v>
+      </c>
+      <c r="F46" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G46" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="H46" s="2" t="s">
+      <c r="H46" s="6" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A47" s="1">
+      <c r="A47" s="9">
         <v>730359</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B47" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="D47" s="5">
+      <c r="C47" s="7"/>
+      <c r="D47" s="8">
         <v>0</v>
       </c>
-      <c r="E47" s="1">
-        <v>1</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G47" s="1" t="s">
+      <c r="E47" s="9">
+        <v>1</v>
+      </c>
+      <c r="F47" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G47" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="H47" s="2" t="s">
+      <c r="H47" s="6" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A48" s="1">
+      <c r="A48" s="9">
         <v>731946</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B48" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="D48" s="5">
+      <c r="C48" s="7"/>
+      <c r="D48" s="8">
         <v>0</v>
       </c>
-      <c r="E48" s="1">
-        <v>1</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G48" s="1" t="s">
+      <c r="E48" s="9">
+        <v>1</v>
+      </c>
+      <c r="F48" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G48" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="H48" s="2" t="s">
+      <c r="H48" s="6" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A49" s="1">
+      <c r="A49" s="9">
         <v>730543</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B49" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="D49" s="5">
+      <c r="C49" s="7"/>
+      <c r="D49" s="8">
         <v>0</v>
       </c>
-      <c r="E49" s="1">
-        <v>1</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G49" s="1" t="s">
+      <c r="E49" s="9">
+        <v>1</v>
+      </c>
+      <c r="F49" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G49" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="H49" s="2" t="s">
+      <c r="H49" s="6" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A50" s="1">
+      <c r="A50" s="9">
         <v>731871</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B50" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="D50" s="5">
+      <c r="C50" s="7"/>
+      <c r="D50" s="8">
         <v>0</v>
       </c>
-      <c r="E50" s="1">
-        <v>1</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G50" s="1" t="s">
+      <c r="E50" s="9">
+        <v>1</v>
+      </c>
+      <c r="F50" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G50" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="H50" s="2" t="s">
+      <c r="H50" s="6" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A51" s="1">
+      <c r="A51" s="9">
         <v>731872</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B51" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="D51" s="5">
+      <c r="C51" s="7"/>
+      <c r="D51" s="8">
         <v>0</v>
       </c>
-      <c r="E51" s="1">
-        <v>1</v>
-      </c>
-      <c r="F51" s="2" t="s">
+      <c r="E51" s="9">
+        <v>1</v>
+      </c>
+      <c r="F51" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G51" s="1" t="s">
+      <c r="G51" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="H51" s="2" t="s">
+      <c r="H51" s="6" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A52" s="1">
+      <c r="A52" s="9">
         <v>731948</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B52" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="D52" s="5">
+      <c r="C52" s="7"/>
+      <c r="D52" s="8">
         <v>0</v>
       </c>
-      <c r="E52" s="1">
-        <v>1</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G52" s="1" t="s">
+      <c r="E52" s="9">
+        <v>1</v>
+      </c>
+      <c r="F52" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G52" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="H52" s="2" t="s">
+      <c r="H52" s="6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A53" s="1">
+      <c r="A53" s="9">
         <v>731867</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B53" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="D53" s="5">
+      <c r="C53" s="7"/>
+      <c r="D53" s="8">
         <v>0</v>
       </c>
-      <c r="E53" s="1">
-        <v>1</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G53" s="1" t="s">
+      <c r="E53" s="9">
+        <v>1</v>
+      </c>
+      <c r="F53" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G53" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="H53" s="2" t="s">
+      <c r="H53" s="6" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A54" s="1">
+      <c r="A54" s="9">
         <v>731870</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="B54" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="D54" s="5">
+      <c r="C54" s="7"/>
+      <c r="D54" s="8">
         <v>0</v>
       </c>
-      <c r="E54" s="1">
-        <v>1</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G54" s="1" t="s">
+      <c r="E54" s="9">
+        <v>1</v>
+      </c>
+      <c r="F54" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G54" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="H54" s="2" t="s">
+      <c r="H54" s="6" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A55" s="1">
+      <c r="A55" s="9">
         <v>730871</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="B55" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="D55" s="5">
+      <c r="C55" s="7"/>
+      <c r="D55" s="8">
         <v>0</v>
       </c>
-      <c r="E55" s="1">
-        <v>1</v>
-      </c>
-      <c r="F55" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G55" s="1" t="s">
+      <c r="E55" s="9">
+        <v>1</v>
+      </c>
+      <c r="F55" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G55" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="H55" s="2" t="s">
+      <c r="H55" s="6" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A56" s="1">
+      <c r="A56" s="9">
         <v>730898</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="B56" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="D56" s="5">
+      <c r="C56" s="7"/>
+      <c r="D56" s="8">
         <v>0</v>
       </c>
-      <c r="E56" s="1">
-        <v>1</v>
-      </c>
-      <c r="F56" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G56" s="1" t="s">
+      <c r="E56" s="9">
+        <v>1</v>
+      </c>
+      <c r="F56" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G56" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="H56" s="2" t="s">
+      <c r="H56" s="6" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A57" s="1">
+      <c r="A57" s="9">
         <v>731727</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="B57" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="D57" s="5">
+      <c r="C57" s="7"/>
+      <c r="D57" s="8">
         <v>0</v>
       </c>
-      <c r="E57" s="1">
-        <v>1</v>
-      </c>
-      <c r="F57" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G57" s="1" t="s">
+      <c r="E57" s="9">
+        <v>1</v>
+      </c>
+      <c r="F57" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G57" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="H57" s="2" t="s">
+      <c r="H57" s="6" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A58" s="1">
+      <c r="A58" s="9">
         <v>730897</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="B58" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="D58" s="5">
+      <c r="C58" s="7"/>
+      <c r="D58" s="8">
         <v>0</v>
       </c>
-      <c r="E58" s="1">
-        <v>1</v>
-      </c>
-      <c r="F58" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G58" s="1" t="s">
+      <c r="E58" s="9">
+        <v>1</v>
+      </c>
+      <c r="F58" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G58" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="H58" s="2" t="s">
+      <c r="H58" s="6" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A59" s="1">
+      <c r="A59" s="9">
         <v>731947</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="B59" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="D59" s="5">
+      <c r="C59" s="7"/>
+      <c r="D59" s="8">
         <v>0</v>
       </c>
-      <c r="E59" s="1">
-        <v>1</v>
-      </c>
-      <c r="F59" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G59" s="1" t="s">
+      <c r="E59" s="9">
+        <v>1</v>
+      </c>
+      <c r="F59" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G59" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="H59" s="2" t="s">
+      <c r="H59" s="6" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A60" s="1">
+      <c r="A60" s="9">
         <v>730256</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="B60" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="D60" s="5">
+      <c r="C60" s="7"/>
+      <c r="D60" s="8">
         <v>0</v>
       </c>
-      <c r="E60" s="1">
-        <v>1</v>
-      </c>
-      <c r="F60" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G60" s="1" t="s">
+      <c r="E60" s="9">
+        <v>1</v>
+      </c>
+      <c r="F60" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G60" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="H60" s="2" t="s">
+      <c r="H60" s="6" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A61" s="1">
+      <c r="A61" s="9">
         <v>730225</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="B61" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="D61" s="5">
+      <c r="C61" s="7"/>
+      <c r="D61" s="8">
         <v>0</v>
       </c>
-      <c r="E61" s="1">
-        <v>1</v>
-      </c>
-      <c r="F61" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G61" s="1" t="s">
+      <c r="E61" s="9">
+        <v>1</v>
+      </c>
+      <c r="F61" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G61" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="H61" s="2" t="s">
+      <c r="H61" s="6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A62" s="1">
+      <c r="A62" s="9">
         <v>731730</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="B62" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="D62" s="5">
+      <c r="C62" s="7"/>
+      <c r="D62" s="8">
         <v>0</v>
       </c>
-      <c r="E62" s="1">
-        <v>1</v>
-      </c>
-      <c r="F62" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G62" s="1" t="s">
+      <c r="E62" s="9">
+        <v>1</v>
+      </c>
+      <c r="F62" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G62" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="H62" s="2" t="s">
+      <c r="H62" s="6" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A63" s="7">
+      <c r="A63" s="4">
         <v>730688</v>
       </c>
-      <c r="B63" s="7" t="s">
+      <c r="B63" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="C63" s="8" t="s">
+      <c r="C63" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="D63" s="8">
+      <c r="D63" s="5">
         <v>9980121494</v>
       </c>
-      <c r="E63" s="8"/>
-      <c r="F63" s="9" t="s">
+      <c r="E63" s="5"/>
+      <c r="F63" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G63" s="8" t="s">
+      <c r="G63" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="H63" s="2" t="s">
+      <c r="H63" s="6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A64" s="7">
+      <c r="A64" s="4">
         <v>731131</v>
       </c>
-      <c r="B64" s="7" t="s">
+      <c r="B64" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C64" s="8"/>
-      <c r="D64" s="8">
+      <c r="C64" s="24"/>
+      <c r="D64" s="5">
         <v>9513648097</v>
       </c>
-      <c r="E64" s="8"/>
-      <c r="F64" s="9" t="s">
+      <c r="E64" s="5"/>
+      <c r="F64" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G64" s="8" t="s">
+      <c r="G64" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="H64" s="2" t="s">
+      <c r="H64" s="6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A65" s="9">
+      <c r="A65" s="6">
         <v>779392</v>
       </c>
-      <c r="B65" s="9" t="s">
+      <c r="B65" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="C65" s="8"/>
-      <c r="D65" s="8">
+      <c r="C65" s="24"/>
+      <c r="D65" s="5">
         <v>7829534082</v>
       </c>
-      <c r="E65" s="8"/>
-      <c r="F65" s="9" t="s">
+      <c r="E65" s="5"/>
+      <c r="F65" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G65" s="8" t="s">
+      <c r="G65" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="H65" s="2" t="s">
+      <c r="H65" s="6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A66" s="9">
+      <c r="A66" s="6">
         <v>779395</v>
       </c>
-      <c r="B66" s="9" t="s">
+      <c r="B66" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="C66" s="8"/>
-      <c r="D66" s="8">
+      <c r="C66" s="24"/>
+      <c r="D66" s="5">
         <v>8951102136</v>
       </c>
-      <c r="E66" s="8"/>
-      <c r="F66" s="9" t="s">
+      <c r="E66" s="5"/>
+      <c r="F66" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G66" s="8" t="s">
+      <c r="G66" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="H66" s="2" t="s">
+      <c r="H66" s="6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A67" s="9">
+      <c r="A67" s="6">
         <v>779414</v>
       </c>
-      <c r="B67" s="9" t="s">
+      <c r="B67" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="C67" s="8"/>
-      <c r="D67" s="8">
+      <c r="C67" s="24"/>
+      <c r="D67" s="5">
         <v>6360045772</v>
       </c>
-      <c r="E67" s="8"/>
-      <c r="F67" s="9" t="s">
+      <c r="E67" s="5"/>
+      <c r="F67" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G67" s="8" t="s">
+      <c r="G67" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="H67" s="2" t="s">
+      <c r="H67" s="6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A68" s="9">
+      <c r="A68" s="6">
         <v>730101</v>
       </c>
-      <c r="B68" s="10" t="s">
+      <c r="B68" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="C68" s="8" t="s">
+      <c r="C68" s="24" t="s">
         <v>95</v>
       </c>
-      <c r="D68" s="8">
+      <c r="D68" s="5">
         <v>9243744153</v>
       </c>
-      <c r="E68" s="8"/>
-      <c r="F68" s="9" t="s">
+      <c r="E68" s="5"/>
+      <c r="F68" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G68" s="8" t="s">
+      <c r="G68" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="H68" s="2" t="s">
+      <c r="H68" s="6" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A69" s="6">
+        <v>730081</v>
+      </c>
+      <c r="B69" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C69" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="D69" s="8">
+        <v>9243291745</v>
+      </c>
+      <c r="E69" s="9">
+        <v>1</v>
+      </c>
+      <c r="F69" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="G69" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="H69" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A70" s="6">
+        <v>730124</v>
+      </c>
+      <c r="B70" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C70" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="D70" s="8">
+        <v>9243340886</v>
+      </c>
+      <c r="E70" s="9">
+        <v>1</v>
+      </c>
+      <c r="F70" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="G70" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="H70" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A71" s="6">
+        <v>731450</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C71" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="D71" s="8">
+        <v>8050003975</v>
+      </c>
+      <c r="E71" s="9">
+        <v>1</v>
+      </c>
+      <c r="F71" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="G71" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="H71" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A72" s="6">
+        <v>731623</v>
+      </c>
+      <c r="B72" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C72" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="D72" s="8">
+        <v>7411098864</v>
+      </c>
+      <c r="E72" s="9">
+        <v>1</v>
+      </c>
+      <c r="F72" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="G72" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="H72" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A73" s="6">
+        <v>730057</v>
+      </c>
+      <c r="B73" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="C73" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="D73" s="8">
+        <v>9243341025</v>
+      </c>
+      <c r="E73" s="9">
+        <v>1</v>
+      </c>
+      <c r="F73" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="G73" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="H73" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A74" s="6">
+        <v>730113</v>
+      </c>
+      <c r="B74" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="C74" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="D74" s="8">
+        <v>9243340882</v>
+      </c>
+      <c r="E74" s="9">
+        <v>1</v>
+      </c>
+      <c r="F74" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="G74" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="H74" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A75" s="6">
+        <v>730031</v>
+      </c>
+      <c r="B75" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C75" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="D75" s="8">
+        <v>9243523162</v>
+      </c>
+      <c r="E75" s="9">
+        <v>1</v>
+      </c>
+      <c r="F75" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="G75" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="H75" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A76" s="6">
+        <v>732184</v>
+      </c>
+      <c r="B76" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="C76" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="D76" s="8">
+        <v>8884425279</v>
+      </c>
+      <c r="E76" s="9">
+        <v>1</v>
+      </c>
+      <c r="F76" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="G76" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="H76" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A77" s="6">
+        <v>732253</v>
+      </c>
+      <c r="B77" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C77" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="D77" s="8">
+        <v>7259592869</v>
+      </c>
+      <c r="E77" s="9">
+        <v>1</v>
+      </c>
+      <c r="F77" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="G77" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="H77" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A78" s="6">
+        <v>779397</v>
+      </c>
+      <c r="B78" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C78" s="25"/>
+      <c r="D78" s="8">
+        <v>9686123508</v>
+      </c>
+      <c r="E78" s="9">
+        <v>1</v>
+      </c>
+      <c r="F78" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="G78" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="H78" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A79" s="6">
+        <v>779345</v>
+      </c>
+      <c r="B79" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="C79" s="7"/>
+      <c r="D79" s="8">
+        <v>8722709277</v>
+      </c>
+      <c r="E79" s="9">
+        <v>1</v>
+      </c>
+      <c r="F79" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="G79" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="H79" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A80" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="B80" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="C80" s="7"/>
+      <c r="D80" s="8"/>
+      <c r="E80" s="9">
+        <v>1</v>
+      </c>
+      <c r="F80" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G80" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="H80" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A81" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="B81" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="C81" s="7"/>
+      <c r="D81" s="8"/>
+      <c r="E81" s="9">
+        <v>1</v>
+      </c>
+      <c r="F81" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G81" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="H81" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A82" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="B82" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="C82" s="7"/>
+      <c r="D82" s="8"/>
+      <c r="E82" s="9">
+        <v>1</v>
+      </c>
+      <c r="F82" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G82" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="H82" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A83" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="B83" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="C83" s="7"/>
+      <c r="D83" s="8"/>
+      <c r="E83" s="9">
+        <v>1</v>
+      </c>
+      <c r="F83" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G83" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="H83" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A84" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="B84" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="C84" s="7"/>
+      <c r="D84" s="8"/>
+      <c r="E84" s="9">
+        <v>1</v>
+      </c>
+      <c r="F84" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G84" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="H84" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A85" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="B85" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="C85" s="7"/>
+      <c r="D85" s="8"/>
+      <c r="E85" s="9">
+        <v>1</v>
+      </c>
+      <c r="F85" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G85" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="H85" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A86" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="B86" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="C86" s="7"/>
+      <c r="D86" s="8"/>
+      <c r="E86" s="9">
+        <v>1</v>
+      </c>
+      <c r="F86" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G86" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="H86" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A87" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="B87" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="C87" s="7"/>
+      <c r="D87" s="8"/>
+      <c r="E87" s="9">
+        <v>1</v>
+      </c>
+      <c r="F87" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G87" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="H87" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A88" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="B88" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="C88" s="7"/>
+      <c r="D88" s="8"/>
+      <c r="E88" s="9">
+        <v>1</v>
+      </c>
+      <c r="F88" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G88" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="H88" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A89" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="B89" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="C89" s="7"/>
+      <c r="D89" s="8"/>
+      <c r="E89" s="9">
+        <v>1</v>
+      </c>
+      <c r="F89" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G89" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="H89" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A90" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="B90" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="C90" s="7"/>
+      <c r="D90" s="8"/>
+      <c r="E90" s="9">
+        <v>1</v>
+      </c>
+      <c r="F90" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G90" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="H90" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A91" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="B91" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="C91" s="7"/>
+      <c r="D91" s="8"/>
+      <c r="E91" s="9">
+        <v>1</v>
+      </c>
+      <c r="F91" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G91" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="H91" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A92" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="B92" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="C92" s="7"/>
+      <c r="D92" s="8"/>
+      <c r="E92" s="9">
+        <v>1</v>
+      </c>
+      <c r="F92" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G92" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="H92" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A93" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="B93" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="C93" s="7"/>
+      <c r="D93" s="8"/>
+      <c r="E93" s="9">
+        <v>1</v>
+      </c>
+      <c r="F93" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G93" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="H93" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A94" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="B94" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="C94" s="7"/>
+      <c r="D94" s="8"/>
+      <c r="E94" s="9">
+        <v>1</v>
+      </c>
+      <c r="F94" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G94" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="H94" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A95" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="B95" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="C95" s="7"/>
+      <c r="D95" s="8"/>
+      <c r="E95" s="9">
+        <v>1</v>
+      </c>
+      <c r="F95" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G95" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="H95" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A96" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="B96" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="C96" s="7"/>
+      <c r="D96" s="8"/>
+      <c r="E96" s="9">
+        <v>1</v>
+      </c>
+      <c r="F96" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G96" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="H96" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A97" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="B97" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="C97" s="7"/>
+      <c r="D97" s="8"/>
+      <c r="E97" s="9">
+        <v>1</v>
+      </c>
+      <c r="F97" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G97" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="H97" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A98" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="B98" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="C98" s="7"/>
+      <c r="D98" s="8"/>
+      <c r="E98" s="9">
+        <v>1</v>
+      </c>
+      <c r="F98" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G98" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="H98" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A99" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="B99" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="C99" s="7"/>
+      <c r="D99" s="8"/>
+      <c r="E99" s="9">
+        <v>1</v>
+      </c>
+      <c r="F99" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G99" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="H99" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A100" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="B100" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="C100" s="7"/>
+      <c r="D100" s="8"/>
+      <c r="E100" s="9">
+        <v>1</v>
+      </c>
+      <c r="F100" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G100" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="H100" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A101" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="B101" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="C101" s="7"/>
+      <c r="D101" s="8"/>
+      <c r="E101" s="9">
+        <v>1</v>
+      </c>
+      <c r="F101" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G101" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="H101" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A102" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="B102" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="C102" s="7"/>
+      <c r="D102" s="8"/>
+      <c r="E102" s="9">
+        <v>1</v>
+      </c>
+      <c r="F102" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G102" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="H102" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A103" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="B103" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="C103" s="7"/>
+      <c r="D103" s="8"/>
+      <c r="E103" s="9">
+        <v>1</v>
+      </c>
+      <c r="F103" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G103" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="H103" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A104" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="B104" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="C104" s="7"/>
+      <c r="D104" s="8"/>
+      <c r="E104" s="9">
+        <v>1</v>
+      </c>
+      <c r="F104" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G104" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="H104" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A105" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="B105" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="C105" s="7"/>
+      <c r="D105" s="8"/>
+      <c r="E105" s="9">
+        <v>1</v>
+      </c>
+      <c r="F105" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G105" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="H105" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A106" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="B106" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="C106" s="7"/>
+      <c r="D106" s="8"/>
+      <c r="E106" s="9">
+        <v>1</v>
+      </c>
+      <c r="F106" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G106" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="H106" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A107" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="B107" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="C107" s="7"/>
+      <c r="D107" s="8"/>
+      <c r="E107" s="9">
+        <v>1</v>
+      </c>
+      <c r="F107" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G107" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="H107" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A108" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="B108" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="C108" s="7"/>
+      <c r="D108" s="8"/>
+      <c r="E108" s="9">
+        <v>1</v>
+      </c>
+      <c r="F108" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G108" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="H108" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A109" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="B109" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="C109" s="26"/>
+      <c r="D109" s="8"/>
+      <c r="E109" s="9">
+        <v>1</v>
+      </c>
+      <c r="F109" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G109" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="H109" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A110" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="B110" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="C110" s="7"/>
+      <c r="D110" s="8"/>
+      <c r="E110" s="9">
+        <v>1</v>
+      </c>
+      <c r="F110" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G110" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="H110" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A111" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="B111" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="C111" s="7"/>
+      <c r="D111" s="8"/>
+      <c r="E111" s="9">
+        <v>1</v>
+      </c>
+      <c r="F111" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G111" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="H111" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A112" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="B112" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="C112" s="7"/>
+      <c r="D112" s="8"/>
+      <c r="E112" s="9">
+        <v>1</v>
+      </c>
+      <c r="F112" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G112" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="H112" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A113" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="B113" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="C113" s="7"/>
+      <c r="D113" s="8"/>
+      <c r="E113" s="9">
+        <v>1</v>
+      </c>
+      <c r="F113" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G113" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="H113" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A114" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="B114" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="C114" s="7"/>
+      <c r="D114" s="8"/>
+      <c r="E114" s="9">
+        <v>1</v>
+      </c>
+      <c r="F114" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G114" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="H114" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A115" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="B115" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="C115" s="7"/>
+      <c r="D115" s="8"/>
+      <c r="E115" s="9">
+        <v>1</v>
+      </c>
+      <c r="F115" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G115" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="H115" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A116" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="B116" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="C116" s="7"/>
+      <c r="D116" s="8"/>
+      <c r="E116" s="9">
+        <v>1</v>
+      </c>
+      <c r="F116" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G116" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="H116" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A117" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="B117" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="C117" s="7"/>
+      <c r="D117" s="8"/>
+      <c r="E117" s="9">
+        <v>1</v>
+      </c>
+      <c r="F117" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G117" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="H117" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A118" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="B118" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="C118" s="7"/>
+      <c r="D118" s="8"/>
+      <c r="E118" s="9">
+        <v>1</v>
+      </c>
+      <c r="F118" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G118" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="H118" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A119" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="B119" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="C119" s="7"/>
+      <c r="D119" s="8"/>
+      <c r="E119" s="9">
+        <v>1</v>
+      </c>
+      <c r="F119" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G119" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="H119" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A120" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="B120" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="C120" s="7"/>
+      <c r="D120" s="8"/>
+      <c r="E120" s="9">
+        <v>1</v>
+      </c>
+      <c r="F120" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G120" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="H120" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A121" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="B121" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="C121" s="7"/>
+      <c r="D121" s="8"/>
+      <c r="E121" s="9">
+        <v>1</v>
+      </c>
+      <c r="F121" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G121" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="H121" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A122" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="B122" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="C122" s="7"/>
+      <c r="D122" s="8"/>
+      <c r="E122" s="9">
+        <v>1</v>
+      </c>
+      <c r="F122" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G122" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="H122" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A123" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="B123" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="C123" s="7"/>
+      <c r="D123" s="8"/>
+      <c r="E123" s="9">
+        <v>1</v>
+      </c>
+      <c r="F123" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G123" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="H123" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A124" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="B124" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="C124" s="7"/>
+      <c r="D124" s="8"/>
+      <c r="E124" s="9">
+        <v>1</v>
+      </c>
+      <c r="F124" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G124" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="H124" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A125" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="B125" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="C125" s="7"/>
+      <c r="D125" s="8"/>
+      <c r="E125" s="9">
+        <v>1</v>
+      </c>
+      <c r="F125" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G125" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="H125" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A126" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="B126" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="C126" s="7"/>
+      <c r="D126" s="8"/>
+      <c r="E126" s="9">
+        <v>1</v>
+      </c>
+      <c r="F126" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G126" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="H126" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A127" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="B127" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="C127" s="7"/>
+      <c r="D127" s="8"/>
+      <c r="E127" s="9">
+        <v>1</v>
+      </c>
+      <c r="F127" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G127" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="H127" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A128" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="B128" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="C128" s="7"/>
+      <c r="D128" s="8"/>
+      <c r="E128" s="9">
+        <v>1</v>
+      </c>
+      <c r="F128" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G128" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="H128" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A129" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="B129" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="C129" s="7"/>
+      <c r="D129" s="8"/>
+      <c r="E129" s="9">
+        <v>1</v>
+      </c>
+      <c r="F129" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G129" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="H129" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A130" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="B130" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="C130" s="7"/>
+      <c r="D130" s="8"/>
+      <c r="E130" s="9">
+        <v>1</v>
+      </c>
+      <c r="F130" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G130" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="H130" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A131" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="B131" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="C131" s="7"/>
+      <c r="D131" s="8"/>
+      <c r="E131" s="9">
+        <v>1</v>
+      </c>
+      <c r="F131" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G131" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="H131" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A132" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="B132" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="C132" s="7"/>
+      <c r="D132" s="8"/>
+      <c r="E132" s="9">
+        <v>1</v>
+      </c>
+      <c r="F132" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G132" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="H132" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A133" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="B133" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="C133" s="7"/>
+      <c r="D133" s="8"/>
+      <c r="E133" s="9">
+        <v>1</v>
+      </c>
+      <c r="F133" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G133" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="H133" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A134" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="B134" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="C134" s="7"/>
+      <c r="D134" s="8"/>
+      <c r="E134" s="9">
+        <v>1</v>
+      </c>
+      <c r="F134" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G134" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="H134" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A135" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="B135" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="C135" s="7"/>
+      <c r="D135" s="8"/>
+      <c r="E135" s="9">
+        <v>1</v>
+      </c>
+      <c r="F135" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G135" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="H135" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A136" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="B136" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="C136" s="7"/>
+      <c r="D136" s="8"/>
+      <c r="E136" s="9">
+        <v>1</v>
+      </c>
+      <c r="F136" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G136" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="H136" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A137" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="B137" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="C137" s="7"/>
+      <c r="D137" s="8"/>
+      <c r="E137" s="9">
+        <v>1</v>
+      </c>
+      <c r="F137" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G137" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="H137" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A138" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="B138" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="C138" s="7"/>
+      <c r="D138" s="8"/>
+      <c r="E138" s="9">
+        <v>1</v>
+      </c>
+      <c r="F138" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G138" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="H138" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A139" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="B139" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="C139" s="7"/>
+      <c r="D139" s="8"/>
+      <c r="E139" s="9">
+        <v>1</v>
+      </c>
+      <c r="F139" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G139" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="H139" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A140" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="B140" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="C140" s="7"/>
+      <c r="D140" s="8"/>
+      <c r="E140" s="9">
+        <v>1</v>
+      </c>
+      <c r="F140" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G140" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="H140" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A141" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="B141" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="C141" s="7"/>
+      <c r="D141" s="8"/>
+      <c r="E141" s="9">
+        <v>1</v>
+      </c>
+      <c r="F141" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G141" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="H141" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A142" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="B142" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="C142" s="7"/>
+      <c r="D142" s="8"/>
+      <c r="E142" s="9">
+        <v>1</v>
+      </c>
+      <c r="F142" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G142" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="H142" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A143" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="B143" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="C143" s="7"/>
+      <c r="D143" s="8"/>
+      <c r="E143" s="9">
+        <v>1</v>
+      </c>
+      <c r="F143" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G143" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="H143" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A144" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="B144" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="C144" s="7"/>
+      <c r="D144" s="8"/>
+      <c r="E144" s="9">
+        <v>1</v>
+      </c>
+      <c r="F144" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G144" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="H144" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A145" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="B145" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="C145" s="7"/>
+      <c r="D145" s="8"/>
+      <c r="E145" s="9">
+        <v>1</v>
+      </c>
+      <c r="F145" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G145" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="H145" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A146" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="B146" s="15" t="s">
+        <v>251</v>
+      </c>
+      <c r="C146" s="7"/>
+      <c r="D146" s="8"/>
+      <c r="E146" s="9">
+        <v>1</v>
+      </c>
+      <c r="F146" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G146" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="H146" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A147" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="B147" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="C147" s="7"/>
+      <c r="D147" s="8"/>
+      <c r="E147" s="9">
+        <v>1</v>
+      </c>
+      <c r="F147" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G147" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="H147" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A148" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="B148" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="C148" s="7"/>
+      <c r="D148" s="8"/>
+      <c r="E148" s="9">
+        <v>1</v>
+      </c>
+      <c r="F148" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G148" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="H148" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A149" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="B149" s="11" t="s">
+        <v>257</v>
+      </c>
+      <c r="C149" s="7"/>
+      <c r="D149" s="8"/>
+      <c r="E149" s="9">
+        <v>1</v>
+      </c>
+      <c r="F149" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G149" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="H149" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A150" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="B150" s="11" t="s">
+        <v>259</v>
+      </c>
+      <c r="C150" s="7"/>
+      <c r="D150" s="8"/>
+      <c r="E150" s="9">
+        <v>1</v>
+      </c>
+      <c r="F150" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G150" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="H150" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A151" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="B151" s="11" t="s">
+        <v>261</v>
+      </c>
+      <c r="C151" s="7"/>
+      <c r="D151" s="8"/>
+      <c r="E151" s="9">
+        <v>1</v>
+      </c>
+      <c r="F151" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G151" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="H151" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A152" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="B152" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="C152" s="7"/>
+      <c r="D152" s="8"/>
+      <c r="E152" s="9">
+        <v>1</v>
+      </c>
+      <c r="F152" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G152" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="H152" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A153" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="B153" s="11" t="s">
+        <v>265</v>
+      </c>
+      <c r="C153" s="7"/>
+      <c r="D153" s="8"/>
+      <c r="E153" s="9">
+        <v>1</v>
+      </c>
+      <c r="F153" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G153" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="H153" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A154" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="B154" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="C154" s="7"/>
+      <c r="D154" s="8"/>
+      <c r="E154" s="9">
+        <v>1</v>
+      </c>
+      <c r="F154" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G154" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="H154" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A155" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="B155" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="C155" s="7"/>
+      <c r="D155" s="8"/>
+      <c r="E155" s="9">
+        <v>1</v>
+      </c>
+      <c r="F155" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G155" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="H155" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A156" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="B156" s="11" t="s">
+        <v>271</v>
+      </c>
+      <c r="C156" s="7"/>
+      <c r="D156" s="8"/>
+      <c r="E156" s="9">
+        <v>1</v>
+      </c>
+      <c r="F156" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G156" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="H156" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A157" s="16" t="s">
+        <v>272</v>
+      </c>
+      <c r="B157" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="C157" s="7"/>
+      <c r="D157" s="8"/>
+      <c r="E157" s="9">
+        <v>1</v>
+      </c>
+      <c r="F157" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G157" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="H157" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A158" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="B158" s="11" t="s">
+        <v>275</v>
+      </c>
+      <c r="C158" s="7"/>
+      <c r="D158" s="8"/>
+      <c r="E158" s="9">
+        <v>1</v>
+      </c>
+      <c r="F158" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G158" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="H158" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A159" s="16" t="s">
+        <v>276</v>
+      </c>
+      <c r="B159" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="C159" s="7"/>
+      <c r="D159" s="8"/>
+      <c r="E159" s="9">
+        <v>1</v>
+      </c>
+      <c r="F159" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G159" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="H159" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A160" s="12" t="s">
+        <v>278</v>
+      </c>
+      <c r="B160" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="C160" s="7"/>
+      <c r="D160" s="8"/>
+      <c r="E160" s="9">
+        <v>1</v>
+      </c>
+      <c r="F160" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G160" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="H160" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A161" s="16" t="s">
+        <v>280</v>
+      </c>
+      <c r="B161" s="11" t="s">
+        <v>281</v>
+      </c>
+      <c r="C161" s="7"/>
+      <c r="D161" s="8"/>
+      <c r="E161" s="9">
+        <v>1</v>
+      </c>
+      <c r="F161" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G161" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="H161" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A162" s="12" t="s">
+        <v>282</v>
+      </c>
+      <c r="B162" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="C162" s="7"/>
+      <c r="D162" s="8"/>
+      <c r="E162" s="9">
+        <v>1</v>
+      </c>
+      <c r="F162" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G162" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="H162" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A163" s="16" t="s">
+        <v>284</v>
+      </c>
+      <c r="B163" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="C163" s="7"/>
+      <c r="D163" s="8"/>
+      <c r="E163" s="9">
+        <v>1</v>
+      </c>
+      <c r="F163" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G163" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="H163" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A164" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="B164" s="11" t="s">
+        <v>287</v>
+      </c>
+      <c r="C164" s="7"/>
+      <c r="D164" s="8"/>
+      <c r="E164" s="9">
+        <v>1</v>
+      </c>
+      <c r="F164" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G164" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="H164" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A165" s="16" t="s">
+        <v>288</v>
+      </c>
+      <c r="B165" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="C165" s="7"/>
+      <c r="D165" s="8"/>
+      <c r="E165" s="9">
+        <v>1</v>
+      </c>
+      <c r="F165" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G165" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="H165" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A166" s="12" t="s">
+        <v>290</v>
+      </c>
+      <c r="B166" s="11" t="s">
+        <v>291</v>
+      </c>
+      <c r="C166" s="7"/>
+      <c r="D166" s="8"/>
+      <c r="E166" s="9">
+        <v>1</v>
+      </c>
+      <c r="F166" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G166" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="H166" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A167" s="12" t="s">
+        <v>292</v>
+      </c>
+      <c r="B167" s="11" t="s">
+        <v>293</v>
+      </c>
+      <c r="C167" s="7"/>
+      <c r="D167" s="8"/>
+      <c r="E167" s="9">
+        <v>1</v>
+      </c>
+      <c r="F167" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G167" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="H167" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A168" s="12" t="s">
+        <v>294</v>
+      </c>
+      <c r="B168" s="11" t="s">
+        <v>295</v>
+      </c>
+      <c r="C168" s="7"/>
+      <c r="D168" s="8"/>
+      <c r="E168" s="9">
+        <v>1</v>
+      </c>
+      <c r="F168" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G168" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="H168" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A169" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="B169" s="11" t="s">
+        <v>297</v>
+      </c>
+      <c r="C169" s="7"/>
+      <c r="D169" s="8"/>
+      <c r="E169" s="9">
+        <v>1</v>
+      </c>
+      <c r="F169" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G169" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="H169" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A170" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="B170" s="11" t="s">
+        <v>299</v>
+      </c>
+      <c r="C170" s="7"/>
+      <c r="D170" s="8"/>
+      <c r="E170" s="9">
+        <v>1</v>
+      </c>
+      <c r="F170" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G170" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="H170" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A171" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="B171" s="11" t="s">
+        <v>301</v>
+      </c>
+      <c r="C171" s="7"/>
+      <c r="D171" s="8"/>
+      <c r="E171" s="9">
+        <v>1</v>
+      </c>
+      <c r="F171" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G171" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="H171" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A172" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="B172" s="11" t="s">
+        <v>303</v>
+      </c>
+      <c r="C172" s="7"/>
+      <c r="D172" s="8"/>
+      <c r="E172" s="9">
+        <v>1</v>
+      </c>
+      <c r="F172" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G172" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="H172" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A173" s="12" t="s">
+        <v>304</v>
+      </c>
+      <c r="B173" s="11" t="s">
+        <v>305</v>
+      </c>
+      <c r="C173" s="7"/>
+      <c r="D173" s="8"/>
+      <c r="E173" s="9">
+        <v>1</v>
+      </c>
+      <c r="F173" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G173" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="H173" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A174" s="16" t="s">
+        <v>306</v>
+      </c>
+      <c r="B174" s="11" t="s">
+        <v>307</v>
+      </c>
+      <c r="C174" s="7"/>
+      <c r="D174" s="8"/>
+      <c r="E174" s="9">
+        <v>1</v>
+      </c>
+      <c r="F174" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G174" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="H174" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A175" s="16" t="s">
+        <v>308</v>
+      </c>
+      <c r="B175" s="11" t="s">
+        <v>309</v>
+      </c>
+      <c r="C175" s="7"/>
+      <c r="D175" s="8"/>
+      <c r="E175" s="9">
+        <v>1</v>
+      </c>
+      <c r="F175" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G175" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="H175" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A176" s="17" t="s">
+        <v>310</v>
+      </c>
+      <c r="B176" s="15" t="s">
+        <v>311</v>
+      </c>
+      <c r="C176" s="7"/>
+      <c r="D176" s="8"/>
+      <c r="E176" s="9">
+        <v>1</v>
+      </c>
+      <c r="F176" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G176" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="H176" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A177" s="16" t="s">
+        <v>312</v>
+      </c>
+      <c r="B177" s="11" t="s">
+        <v>313</v>
+      </c>
+      <c r="C177" s="7"/>
+      <c r="D177" s="8"/>
+      <c r="E177" s="9">
+        <v>1</v>
+      </c>
+      <c r="F177" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G177" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="H177" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A178" s="16" t="s">
+        <v>314</v>
+      </c>
+      <c r="B178" s="11" t="s">
+        <v>315</v>
+      </c>
+      <c r="C178" s="7"/>
+      <c r="D178" s="8"/>
+      <c r="E178" s="9">
+        <v>1</v>
+      </c>
+      <c r="F178" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G178" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="H178" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A179" s="12" t="s">
+        <v>316</v>
+      </c>
+      <c r="B179" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="C179" s="7"/>
+      <c r="D179" s="8"/>
+      <c r="E179" s="9">
+        <v>1</v>
+      </c>
+      <c r="F179" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G179" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="H179" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A180" s="16" t="s">
+        <v>318</v>
+      </c>
+      <c r="B180" s="11" t="s">
+        <v>319</v>
+      </c>
+      <c r="C180" s="7"/>
+      <c r="D180" s="8"/>
+      <c r="E180" s="9">
+        <v>1</v>
+      </c>
+      <c r="F180" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G180" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="H180" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A181" s="12" t="s">
+        <v>320</v>
+      </c>
+      <c r="B181" s="11" t="s">
+        <v>321</v>
+      </c>
+      <c r="C181" s="7"/>
+      <c r="D181" s="8"/>
+      <c r="E181" s="9">
+        <v>1</v>
+      </c>
+      <c r="F181" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G181" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="H181" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A182" s="12" t="s">
+        <v>322</v>
+      </c>
+      <c r="B182" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="C182" s="7"/>
+      <c r="D182" s="8"/>
+      <c r="E182" s="9">
+        <v>1</v>
+      </c>
+      <c r="F182" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G182" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="H182" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A183" s="12" t="s">
+        <v>324</v>
+      </c>
+      <c r="B183" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="C183" s="7"/>
+      <c r="D183" s="8"/>
+      <c r="E183" s="9">
+        <v>1</v>
+      </c>
+      <c r="F183" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G183" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="H183" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A184" s="12" t="s">
+        <v>326</v>
+      </c>
+      <c r="B184" s="11" t="s">
+        <v>327</v>
+      </c>
+      <c r="C184" s="7"/>
+      <c r="D184" s="8"/>
+      <c r="E184" s="9">
+        <v>1</v>
+      </c>
+      <c r="F184" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G184" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="H184" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A185" s="12" t="s">
+        <v>328</v>
+      </c>
+      <c r="B185" s="11" t="s">
+        <v>329</v>
+      </c>
+      <c r="C185" s="7"/>
+      <c r="D185" s="8"/>
+      <c r="E185" s="9">
+        <v>1</v>
+      </c>
+      <c r="F185" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G185" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="H185" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A186" s="12" t="s">
+        <v>330</v>
+      </c>
+      <c r="B186" s="11" t="s">
+        <v>331</v>
+      </c>
+      <c r="C186" s="7"/>
+      <c r="D186" s="8"/>
+      <c r="E186" s="9">
+        <v>1</v>
+      </c>
+      <c r="F186" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G186" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="H186" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A187" s="12" t="s">
+        <v>332</v>
+      </c>
+      <c r="B187" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="C187" s="7"/>
+      <c r="D187" s="8"/>
+      <c r="E187" s="9">
+        <v>1</v>
+      </c>
+      <c r="F187" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G187" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="H187" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A188" s="12" t="s">
+        <v>334</v>
+      </c>
+      <c r="B188" s="11" t="s">
+        <v>335</v>
+      </c>
+      <c r="C188" s="7"/>
+      <c r="D188" s="8"/>
+      <c r="E188" s="9">
+        <v>1</v>
+      </c>
+      <c r="F188" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G188" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="H188" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A189" s="12" t="s">
+        <v>336</v>
+      </c>
+      <c r="B189" s="11" t="s">
+        <v>337</v>
+      </c>
+      <c r="C189" s="7"/>
+      <c r="D189" s="8"/>
+      <c r="E189" s="9">
+        <v>1</v>
+      </c>
+      <c r="F189" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G189" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="H189" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A190" s="12" t="s">
+        <v>338</v>
+      </c>
+      <c r="B190" s="11" t="s">
+        <v>339</v>
+      </c>
+      <c r="C190" s="7"/>
+      <c r="D190" s="8"/>
+      <c r="E190" s="9">
+        <v>1</v>
+      </c>
+      <c r="F190" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G190" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="H190" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A191" s="12" t="s">
+        <v>340</v>
+      </c>
+      <c r="B191" s="11" t="s">
+        <v>341</v>
+      </c>
+      <c r="C191" s="7"/>
+      <c r="D191" s="8"/>
+      <c r="E191" s="9">
+        <v>1</v>
+      </c>
+      <c r="F191" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G191" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="H191" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A192" s="12" t="s">
+        <v>342</v>
+      </c>
+      <c r="B192" s="11" t="s">
+        <v>343</v>
+      </c>
+      <c r="C192" s="7"/>
+      <c r="D192" s="8"/>
+      <c r="E192" s="9">
+        <v>1</v>
+      </c>
+      <c r="F192" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G192" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="H192" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A193" s="12" t="s">
+        <v>344</v>
+      </c>
+      <c r="B193" s="11" t="s">
+        <v>345</v>
+      </c>
+      <c r="C193" s="7"/>
+      <c r="D193" s="8"/>
+      <c r="E193" s="9">
+        <v>1</v>
+      </c>
+      <c r="F193" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G193" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="H193" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A194" s="12" t="s">
+        <v>346</v>
+      </c>
+      <c r="B194" s="11" t="s">
+        <v>347</v>
+      </c>
+      <c r="C194" s="7"/>
+      <c r="D194" s="8"/>
+      <c r="E194" s="9">
+        <v>1</v>
+      </c>
+      <c r="F194" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G194" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="H194" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A195" s="18" t="s">
+        <v>348</v>
+      </c>
+      <c r="B195" s="19" t="s">
+        <v>349</v>
+      </c>
+      <c r="C195" s="7"/>
+      <c r="D195" s="8"/>
+      <c r="E195" s="9">
+        <v>1</v>
+      </c>
+      <c r="F195" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G195" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="H195" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A196" s="12" t="s">
+        <v>350</v>
+      </c>
+      <c r="B196" s="11" t="s">
+        <v>351</v>
+      </c>
+      <c r="C196" s="7"/>
+      <c r="D196" s="8"/>
+      <c r="E196" s="9">
+        <v>1</v>
+      </c>
+      <c r="F196" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G196" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="H196" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A197" s="12" t="s">
+        <v>352</v>
+      </c>
+      <c r="B197" s="11" t="s">
+        <v>353</v>
+      </c>
+      <c r="C197" s="7"/>
+      <c r="D197" s="8"/>
+      <c r="E197" s="9">
+        <v>1</v>
+      </c>
+      <c r="F197" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G197" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="H197" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A198" s="12" t="s">
+        <v>354</v>
+      </c>
+      <c r="B198" s="11" t="s">
+        <v>355</v>
+      </c>
+      <c r="C198" s="7"/>
+      <c r="D198" s="8"/>
+      <c r="E198" s="9">
+        <v>1</v>
+      </c>
+      <c r="F198" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G198" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="H198" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A199" s="12" t="s">
+        <v>356</v>
+      </c>
+      <c r="B199" s="11" t="s">
+        <v>357</v>
+      </c>
+      <c r="C199" s="7"/>
+      <c r="D199" s="8"/>
+      <c r="E199" s="9">
+        <v>1</v>
+      </c>
+      <c r="F199" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G199" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="H199" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A200" s="12" t="s">
+        <v>358</v>
+      </c>
+      <c r="B200" s="11" t="s">
+        <v>359</v>
+      </c>
+      <c r="C200" s="7"/>
+      <c r="D200" s="8"/>
+      <c r="E200" s="9">
+        <v>1</v>
+      </c>
+      <c r="F200" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G200" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="H200" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A201" s="12" t="s">
+        <v>360</v>
+      </c>
+      <c r="B201" s="11" t="s">
+        <v>361</v>
+      </c>
+      <c r="C201" s="7"/>
+      <c r="D201" s="8"/>
+      <c r="E201" s="9">
+        <v>1</v>
+      </c>
+      <c r="F201" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G201" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="H201" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A202" s="12" t="s">
+        <v>362</v>
+      </c>
+      <c r="B202" s="11" t="s">
+        <v>363</v>
+      </c>
+      <c r="C202" s="7"/>
+      <c r="D202" s="8"/>
+      <c r="E202" s="9">
+        <v>1</v>
+      </c>
+      <c r="F202" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G202" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="H202" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A203" s="12" t="s">
+        <v>364</v>
+      </c>
+      <c r="B203" s="11" t="s">
+        <v>365</v>
+      </c>
+      <c r="C203" s="7"/>
+      <c r="D203" s="8"/>
+      <c r="E203" s="9">
+        <v>1</v>
+      </c>
+      <c r="F203" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G203" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="H203" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A204" s="12" t="s">
+        <v>366</v>
+      </c>
+      <c r="B204" s="11" t="s">
+        <v>367</v>
+      </c>
+      <c r="C204" s="7"/>
+      <c r="D204" s="8"/>
+      <c r="E204" s="9">
+        <v>1</v>
+      </c>
+      <c r="F204" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G204" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="H204" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A205" s="12" t="s">
+        <v>368</v>
+      </c>
+      <c r="B205" s="11" t="s">
+        <v>369</v>
+      </c>
+      <c r="C205" s="7"/>
+      <c r="D205" s="8"/>
+      <c r="E205" s="9">
+        <v>1</v>
+      </c>
+      <c r="F205" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G205" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="H205" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A206" s="12" t="s">
+        <v>370</v>
+      </c>
+      <c r="B206" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="C206" s="7"/>
+      <c r="D206" s="8"/>
+      <c r="E206" s="9">
+        <v>1</v>
+      </c>
+      <c r="F206" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G206" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="H206" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A207" s="12" t="s">
+        <v>372</v>
+      </c>
+      <c r="B207" s="11" t="s">
+        <v>373</v>
+      </c>
+      <c r="C207" s="7"/>
+      <c r="D207" s="8"/>
+      <c r="E207" s="9">
+        <v>1</v>
+      </c>
+      <c r="F207" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G207" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="H207" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A208" s="12" t="s">
+        <v>374</v>
+      </c>
+      <c r="B208" s="11" t="s">
+        <v>375</v>
+      </c>
+      <c r="C208" s="7"/>
+      <c r="D208" s="8"/>
+      <c r="E208" s="9">
+        <v>1</v>
+      </c>
+      <c r="F208" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G208" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="H208" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A209" s="12" t="s">
+        <v>376</v>
+      </c>
+      <c r="B209" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="C209" s="7"/>
+      <c r="D209" s="8"/>
+      <c r="E209" s="9">
+        <v>1</v>
+      </c>
+      <c r="F209" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G209" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="H209" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A210" s="12" t="s">
+        <v>378</v>
+      </c>
+      <c r="B210" s="11" t="s">
+        <v>379</v>
+      </c>
+      <c r="C210" s="7"/>
+      <c r="D210" s="8"/>
+      <c r="E210" s="9">
+        <v>1</v>
+      </c>
+      <c r="F210" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G210" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="H210" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A211" s="12" t="s">
+        <v>380</v>
+      </c>
+      <c r="B211" s="11" t="s">
+        <v>381</v>
+      </c>
+      <c r="C211" s="7"/>
+      <c r="D211" s="8"/>
+      <c r="E211" s="9">
+        <v>1</v>
+      </c>
+      <c r="F211" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G211" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="H211" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A212" s="12" t="s">
+        <v>382</v>
+      </c>
+      <c r="B212" s="11" t="s">
+        <v>383</v>
+      </c>
+      <c r="C212" s="7"/>
+      <c r="D212" s="8"/>
+      <c r="E212" s="9">
+        <v>1</v>
+      </c>
+      <c r="F212" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G212" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="H212" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A213" s="12" t="s">
+        <v>384</v>
+      </c>
+      <c r="B213" s="11" t="s">
+        <v>385</v>
+      </c>
+      <c r="C213" s="7"/>
+      <c r="D213" s="8"/>
+      <c r="E213" s="9">
+        <v>1</v>
+      </c>
+      <c r="F213" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G213" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="H213" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A214" s="12" t="s">
+        <v>386</v>
+      </c>
+      <c r="B214" s="11" t="s">
+        <v>387</v>
+      </c>
+      <c r="C214" s="7"/>
+      <c r="D214" s="8"/>
+      <c r="E214" s="9">
+        <v>1</v>
+      </c>
+      <c r="F214" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G214" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="H214" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A215" s="12" t="s">
+        <v>388</v>
+      </c>
+      <c r="B215" s="11" t="s">
+        <v>389</v>
+      </c>
+      <c r="C215" s="7"/>
+      <c r="D215" s="8"/>
+      <c r="E215" s="9">
+        <v>1</v>
+      </c>
+      <c r="F215" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G215" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="H215" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A216" s="12" t="s">
+        <v>390</v>
+      </c>
+      <c r="B216" s="11" t="s">
+        <v>391</v>
+      </c>
+      <c r="C216" s="7"/>
+      <c r="D216" s="8"/>
+      <c r="E216" s="9">
+        <v>1</v>
+      </c>
+      <c r="F216" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G216" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="H216" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A217" s="12" t="s">
+        <v>392</v>
+      </c>
+      <c r="B217" s="11" t="s">
+        <v>393</v>
+      </c>
+      <c r="C217" s="7"/>
+      <c r="D217" s="8"/>
+      <c r="E217" s="9">
+        <v>1</v>
+      </c>
+      <c r="F217" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G217" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="H217" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A218" s="12" t="s">
+        <v>394</v>
+      </c>
+      <c r="B218" s="11" t="s">
+        <v>395</v>
+      </c>
+      <c r="C218" s="7"/>
+      <c r="D218" s="8"/>
+      <c r="E218" s="9">
+        <v>1</v>
+      </c>
+      <c r="F218" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G218" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="H218" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A219" s="12" t="s">
+        <v>396</v>
+      </c>
+      <c r="B219" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="C219" s="7"/>
+      <c r="D219" s="8"/>
+      <c r="E219" s="9">
+        <v>1</v>
+      </c>
+      <c r="F219" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G219" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="H219" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A220" s="12" t="s">
+        <v>398</v>
+      </c>
+      <c r="B220" s="11" t="s">
+        <v>399</v>
+      </c>
+      <c r="C220" s="7"/>
+      <c r="D220" s="8"/>
+      <c r="E220" s="9">
+        <v>1</v>
+      </c>
+      <c r="F220" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G220" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="H220" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A221" s="12" t="s">
+        <v>400</v>
+      </c>
+      <c r="B221" s="11" t="s">
+        <v>401</v>
+      </c>
+      <c r="C221" s="7"/>
+      <c r="D221" s="8"/>
+      <c r="E221" s="9">
+        <v>1</v>
+      </c>
+      <c r="F221" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G221" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="H221" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A222" s="12" t="s">
+        <v>402</v>
+      </c>
+      <c r="B222" s="11" t="s">
+        <v>403</v>
+      </c>
+      <c r="C222" s="7"/>
+      <c r="D222" s="8"/>
+      <c r="E222" s="9">
+        <v>1</v>
+      </c>
+      <c r="F222" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G222" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="H222" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A223" s="12" t="s">
+        <v>404</v>
+      </c>
+      <c r="B223" s="11" t="s">
+        <v>405</v>
+      </c>
+      <c r="C223" s="7"/>
+      <c r="D223" s="8"/>
+      <c r="E223" s="9">
+        <v>1</v>
+      </c>
+      <c r="F223" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G223" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="H223" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A224" s="12" t="s">
+        <v>406</v>
+      </c>
+      <c r="B224" s="11" t="s">
+        <v>407</v>
+      </c>
+      <c r="C224" s="7"/>
+      <c r="D224" s="8"/>
+      <c r="E224" s="9">
+        <v>1</v>
+      </c>
+      <c r="F224" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G224" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="H224" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A225" s="12" t="s">
+        <v>408</v>
+      </c>
+      <c r="B225" s="11" t="s">
+        <v>409</v>
+      </c>
+      <c r="C225" s="7"/>
+      <c r="D225" s="8"/>
+      <c r="E225" s="9">
+        <v>1</v>
+      </c>
+      <c r="F225" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G225" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="H225" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A226" s="12" t="s">
+        <v>410</v>
+      </c>
+      <c r="B226" s="11" t="s">
+        <v>411</v>
+      </c>
+      <c r="C226" s="7"/>
+      <c r="D226" s="8"/>
+      <c r="E226" s="9">
+        <v>1</v>
+      </c>
+      <c r="F226" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G226" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="H226" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A227" s="20" t="s">
+        <v>412</v>
+      </c>
+      <c r="B227" s="21" t="s">
+        <v>413</v>
+      </c>
+      <c r="C227" s="7"/>
+      <c r="D227" s="8"/>
+      <c r="E227" s="9">
+        <v>1</v>
+      </c>
+      <c r="F227" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G227" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="H227" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A228" s="12" t="s">
+        <v>414</v>
+      </c>
+      <c r="B228" s="11" t="s">
+        <v>415</v>
+      </c>
+      <c r="C228" s="7"/>
+      <c r="D228" s="8"/>
+      <c r="E228" s="9">
+        <v>1</v>
+      </c>
+      <c r="F228" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G228" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="H228" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A229" s="12" t="s">
+        <v>416</v>
+      </c>
+      <c r="B229" s="11" t="s">
+        <v>417</v>
+      </c>
+      <c r="C229" s="7"/>
+      <c r="D229" s="8"/>
+      <c r="E229" s="9">
+        <v>1</v>
+      </c>
+      <c r="F229" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G229" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="H229" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A230" s="12" t="s">
+        <v>418</v>
+      </c>
+      <c r="B230" s="21" t="s">
+        <v>419</v>
+      </c>
+      <c r="C230" s="7"/>
+      <c r="D230" s="8"/>
+      <c r="E230" s="9">
+        <v>1</v>
+      </c>
+      <c r="F230" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G230" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="H230" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A231" s="22" t="s">
+        <v>420</v>
+      </c>
+      <c r="B231" s="15" t="s">
+        <v>421</v>
+      </c>
+      <c r="C231" s="7"/>
+      <c r="D231" s="8"/>
+      <c r="E231" s="9">
+        <v>1</v>
+      </c>
+      <c r="F231" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G231" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="H231" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A232" s="12" t="s">
+        <v>422</v>
+      </c>
+      <c r="B232" s="11" t="s">
+        <v>423</v>
+      </c>
+      <c r="C232" s="7"/>
+      <c r="D232" s="8"/>
+      <c r="E232" s="9">
+        <v>1</v>
+      </c>
+      <c r="F232" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G232" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="H232" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A233" s="12" t="s">
+        <v>424</v>
+      </c>
+      <c r="B233" s="11" t="s">
+        <v>425</v>
+      </c>
+      <c r="C233" s="7"/>
+      <c r="D233" s="8"/>
+      <c r="E233" s="9">
+        <v>1</v>
+      </c>
+      <c r="F233" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G233" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="H233" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A234" s="12" t="s">
+        <v>426</v>
+      </c>
+      <c r="B234" s="11" t="s">
+        <v>427</v>
+      </c>
+      <c r="C234" s="7"/>
+      <c r="D234" s="8"/>
+      <c r="E234" s="9">
+        <v>1</v>
+      </c>
+      <c r="F234" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G234" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="H234" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A235" s="12" t="s">
+        <v>428</v>
+      </c>
+      <c r="B235" s="11" t="s">
+        <v>429</v>
+      </c>
+      <c r="C235" s="7"/>
+      <c r="D235" s="8"/>
+      <c r="E235" s="9">
+        <v>1</v>
+      </c>
+      <c r="F235" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G235" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="H235" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A236" s="12" t="s">
+        <v>430</v>
+      </c>
+      <c r="B236" s="11" t="s">
+        <v>431</v>
+      </c>
+      <c r="C236" s="7"/>
+      <c r="D236" s="8"/>
+      <c r="E236" s="9">
+        <v>1</v>
+      </c>
+      <c r="F236" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G236" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="H236" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A237" s="12" t="s">
+        <v>432</v>
+      </c>
+      <c r="B237" s="11" t="s">
+        <v>433</v>
+      </c>
+      <c r="C237" s="7"/>
+      <c r="D237" s="8"/>
+      <c r="E237" s="9">
+        <v>1</v>
+      </c>
+      <c r="F237" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G237" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="H237" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A238" s="12" t="s">
+        <v>434</v>
+      </c>
+      <c r="B238" s="11" t="s">
+        <v>435</v>
+      </c>
+      <c r="C238" s="7"/>
+      <c r="D238" s="8"/>
+      <c r="E238" s="9">
+        <v>1</v>
+      </c>
+      <c r="F238" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G238" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="H238" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A239" s="12" t="s">
+        <v>436</v>
+      </c>
+      <c r="B239" s="11" t="s">
+        <v>437</v>
+      </c>
+      <c r="C239" s="7"/>
+      <c r="D239" s="8"/>
+      <c r="E239" s="9">
+        <v>1</v>
+      </c>
+      <c r="F239" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G239" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="H239" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A240" s="12" t="s">
+        <v>438</v>
+      </c>
+      <c r="B240" s="11" t="s">
+        <v>439</v>
+      </c>
+      <c r="C240" s="7"/>
+      <c r="D240" s="8"/>
+      <c r="E240" s="9">
+        <v>1</v>
+      </c>
+      <c r="F240" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G240" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="H240" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A241" s="12" t="s">
+        <v>440</v>
+      </c>
+      <c r="B241" s="11" t="s">
+        <v>441</v>
+      </c>
+      <c r="C241" s="7"/>
+      <c r="D241" s="8"/>
+      <c r="E241" s="9">
+        <v>1</v>
+      </c>
+      <c r="F241" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G241" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="H241" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A242" s="12" t="s">
+        <v>442</v>
+      </c>
+      <c r="B242" s="11" t="s">
+        <v>443</v>
+      </c>
+      <c r="C242" s="7"/>
+      <c r="D242" s="8"/>
+      <c r="E242" s="9">
+        <v>1</v>
+      </c>
+      <c r="F242" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G242" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="H242" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A243" s="22" t="s">
+        <v>444</v>
+      </c>
+      <c r="B243" s="15" t="s">
+        <v>445</v>
+      </c>
+      <c r="C243" s="7"/>
+      <c r="D243" s="8"/>
+      <c r="E243" s="9">
+        <v>1</v>
+      </c>
+      <c r="F243" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G243" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="H243" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A244" s="12" t="s">
+        <v>446</v>
+      </c>
+      <c r="B244" s="11" t="s">
+        <v>447</v>
+      </c>
+      <c r="C244" s="7"/>
+      <c r="D244" s="8"/>
+      <c r="E244" s="9">
+        <v>1</v>
+      </c>
+      <c r="F244" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G244" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="H244" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A245" s="12" t="s">
+        <v>448</v>
+      </c>
+      <c r="B245" s="11" t="s">
+        <v>449</v>
+      </c>
+      <c r="C245" s="7"/>
+      <c r="D245" s="8"/>
+      <c r="E245" s="9">
+        <v>1</v>
+      </c>
+      <c r="F245" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G245" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="H245" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A246" s="12" t="s">
+        <v>450</v>
+      </c>
+      <c r="B246" s="11" t="s">
+        <v>451</v>
+      </c>
+      <c r="C246" s="7"/>
+      <c r="D246" s="8"/>
+      <c r="E246" s="9">
+        <v>1</v>
+      </c>
+      <c r="F246" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G246" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="H246" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A247" s="12" t="s">
+        <v>452</v>
+      </c>
+      <c r="B247" s="11" t="s">
+        <v>453</v>
+      </c>
+      <c r="C247" s="7"/>
+      <c r="D247" s="8"/>
+      <c r="E247" s="9">
+        <v>1</v>
+      </c>
+      <c r="F247" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G247" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="H247" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A248" s="12" t="s">
+        <v>454</v>
+      </c>
+      <c r="B248" s="11" t="s">
+        <v>455</v>
+      </c>
+      <c r="C248" s="7"/>
+      <c r="D248" s="8"/>
+      <c r="E248" s="9">
+        <v>1</v>
+      </c>
+      <c r="F248" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G248" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="H248" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A249" s="12" t="s">
+        <v>456</v>
+      </c>
+      <c r="B249" s="11" t="s">
+        <v>457</v>
+      </c>
+      <c r="C249" s="7"/>
+      <c r="D249" s="8"/>
+      <c r="E249" s="9">
+        <v>1</v>
+      </c>
+      <c r="F249" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G249" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="H249" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A250" s="12" t="s">
+        <v>458</v>
+      </c>
+      <c r="B250" s="11" t="s">
+        <v>459</v>
+      </c>
+      <c r="C250" s="7"/>
+      <c r="D250" s="8"/>
+      <c r="E250" s="9">
+        <v>1</v>
+      </c>
+      <c r="F250" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G250" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="H250" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A251" s="22" t="s">
+        <v>460</v>
+      </c>
+      <c r="B251" s="15" t="s">
+        <v>461</v>
+      </c>
+      <c r="C251" s="7"/>
+      <c r="D251" s="8"/>
+      <c r="E251" s="9">
+        <v>1</v>
+      </c>
+      <c r="F251" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G251" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="H251" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A252" s="12" t="s">
+        <v>462</v>
+      </c>
+      <c r="B252" s="11" t="s">
+        <v>463</v>
+      </c>
+      <c r="C252" s="7"/>
+      <c r="D252" s="8"/>
+      <c r="E252" s="9">
+        <v>1</v>
+      </c>
+      <c r="F252" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G252" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="H252" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A253" s="12" t="s">
+        <v>464</v>
+      </c>
+      <c r="B253" s="11" t="s">
+        <v>465</v>
+      </c>
+      <c r="C253" s="7"/>
+      <c r="D253" s="8"/>
+      <c r="E253" s="9">
+        <v>1</v>
+      </c>
+      <c r="F253" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G253" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="H253" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A254" s="12" t="s">
+        <v>466</v>
+      </c>
+      <c r="B254" s="11" t="s">
+        <v>467</v>
+      </c>
+      <c r="C254" s="7"/>
+      <c r="D254" s="8"/>
+      <c r="E254" s="9">
+        <v>1</v>
+      </c>
+      <c r="F254" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G254" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="H254" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A255" s="12" t="s">
+        <v>468</v>
+      </c>
+      <c r="B255" s="11" t="s">
+        <v>469</v>
+      </c>
+      <c r="C255" s="7"/>
+      <c r="D255" s="8"/>
+      <c r="E255" s="9">
+        <v>1</v>
+      </c>
+      <c r="F255" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G255" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="H255" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A256" s="12" t="s">
+        <v>470</v>
+      </c>
+      <c r="B256" s="11" t="s">
+        <v>471</v>
+      </c>
+      <c r="C256" s="7"/>
+      <c r="D256" s="8"/>
+      <c r="E256" s="9">
+        <v>1</v>
+      </c>
+      <c r="F256" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G256" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="H256" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A257" s="12" t="s">
+        <v>472</v>
+      </c>
+      <c r="B257" s="11" t="s">
+        <v>473</v>
+      </c>
+      <c r="C257" s="7"/>
+      <c r="D257" s="8"/>
+      <c r="E257" s="9">
+        <v>1</v>
+      </c>
+      <c r="F257" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G257" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="H257" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A258" s="12" t="s">
+        <v>474</v>
+      </c>
+      <c r="B258" s="11" t="s">
+        <v>475</v>
+      </c>
+      <c r="C258" s="7"/>
+      <c r="D258" s="8"/>
+      <c r="E258" s="9">
+        <v>1</v>
+      </c>
+      <c r="F258" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G258" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="H258" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="259" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A259" s="12" t="s">
+        <v>476</v>
+      </c>
+      <c r="B259" s="11" t="s">
+        <v>477</v>
+      </c>
+      <c r="C259" s="7"/>
+      <c r="D259" s="8"/>
+      <c r="E259" s="9">
+        <v>1</v>
+      </c>
+      <c r="F259" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G259" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="H259" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A260" s="12" t="s">
+        <v>478</v>
+      </c>
+      <c r="B260" s="11" t="s">
+        <v>479</v>
+      </c>
+      <c r="C260" s="7"/>
+      <c r="D260" s="8"/>
+      <c r="E260" s="9">
+        <v>1</v>
+      </c>
+      <c r="F260" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G260" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="H260" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A261" s="12" t="s">
+        <v>480</v>
+      </c>
+      <c r="B261" s="11" t="s">
+        <v>481</v>
+      </c>
+      <c r="C261" s="7"/>
+      <c r="D261" s="8"/>
+      <c r="E261" s="9">
+        <v>1</v>
+      </c>
+      <c r="F261" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G261" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="H261" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A262" s="12" t="s">
+        <v>482</v>
+      </c>
+      <c r="B262" s="11" t="s">
+        <v>483</v>
+      </c>
+      <c r="C262" s="7"/>
+      <c r="D262" s="8"/>
+      <c r="E262" s="9">
+        <v>1</v>
+      </c>
+      <c r="F262" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G262" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="H262" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A263" s="12" t="s">
+        <v>484</v>
+      </c>
+      <c r="B263" s="11" t="s">
+        <v>485</v>
+      </c>
+      <c r="C263" s="7"/>
+      <c r="D263" s="8"/>
+      <c r="E263" s="9">
+        <v>1</v>
+      </c>
+      <c r="F263" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G263" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="H263" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="264" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A264" s="12" t="s">
+        <v>486</v>
+      </c>
+      <c r="B264" s="11" t="s">
+        <v>487</v>
+      </c>
+      <c r="C264" s="7"/>
+      <c r="D264" s="8"/>
+      <c r="E264" s="9">
+        <v>1</v>
+      </c>
+      <c r="F264" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G264" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="H264" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="265" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A265" s="12" t="s">
+        <v>488</v>
+      </c>
+      <c r="B265" s="11" t="s">
+        <v>489</v>
+      </c>
+      <c r="C265" s="7"/>
+      <c r="D265" s="8"/>
+      <c r="E265" s="9">
+        <v>1</v>
+      </c>
+      <c r="F265" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G265" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="H265" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="266" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A266" s="12" t="s">
+        <v>490</v>
+      </c>
+      <c r="B266" s="11" t="s">
+        <v>491</v>
+      </c>
+      <c r="C266" s="7"/>
+      <c r="D266" s="8"/>
+      <c r="E266" s="9">
+        <v>1</v>
+      </c>
+      <c r="F266" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G266" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="H266" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A267" s="12" t="s">
+        <v>492</v>
+      </c>
+      <c r="B267" s="11" t="s">
+        <v>493</v>
+      </c>
+      <c r="C267" s="7"/>
+      <c r="D267" s="8"/>
+      <c r="E267" s="9">
+        <v>1</v>
+      </c>
+      <c r="F267" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G267" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="H267" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="268" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A268" s="22" t="s">
+        <v>494</v>
+      </c>
+      <c r="B268" s="15" t="s">
+        <v>495</v>
+      </c>
+      <c r="C268" s="7"/>
+      <c r="D268" s="8"/>
+      <c r="E268" s="9">
+        <v>1</v>
+      </c>
+      <c r="F268" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G268" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="H268" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="269" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A269" s="12" t="s">
+        <v>496</v>
+      </c>
+      <c r="B269" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="C269" s="7"/>
+      <c r="D269" s="8"/>
+      <c r="E269" s="9">
+        <v>1</v>
+      </c>
+      <c r="F269" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G269" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="H269" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="270" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A270" s="22" t="s">
+        <v>498</v>
+      </c>
+      <c r="B270" s="15" t="s">
+        <v>499</v>
+      </c>
+      <c r="C270" s="7"/>
+      <c r="D270" s="8"/>
+      <c r="E270" s="9">
+        <v>1</v>
+      </c>
+      <c r="F270" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G270" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="H270" s="6" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -2365,6 +8192,15 @@
     <hyperlink ref="C5" r:id="rId2" display="mailto:m.boopathy@tatamarcopolo.com" xr:uid="{DEAB8DC6-CE1E-CA4D-998A-4C63B2F309D4}"/>
     <hyperlink ref="C3" r:id="rId3" display="mailto:girisha.c@tatamarcopolo.com" xr:uid="{8469C089-4848-724A-83C4-6DAB79C9ED0D}"/>
     <hyperlink ref="C11" r:id="rId4" display="mailto:Chandrashekhar.Hiremath@tatamarcopolo.com" xr:uid="{0045E5DD-3E7A-0C47-9D6E-607DAB08AFE3}"/>
+    <hyperlink ref="C69" r:id="rId5" xr:uid="{CB810F91-BA95-4742-9395-F313179A07F2}"/>
+    <hyperlink ref="C70" r:id="rId6" xr:uid="{413FAB36-787D-2540-A019-163773592D1B}"/>
+    <hyperlink ref="C71" r:id="rId7" xr:uid="{2DC94FCA-0415-0548-8417-0C4061FCCE29}"/>
+    <hyperlink ref="C72" r:id="rId8" xr:uid="{E4AC3E99-0362-6442-A572-8246F66DB0FE}"/>
+    <hyperlink ref="C73" r:id="rId9" xr:uid="{4A042499-C209-B741-84C6-883401F7D840}"/>
+    <hyperlink ref="C74" r:id="rId10" xr:uid="{935AEEF1-DC22-D441-931E-CC695E2F5B90}"/>
+    <hyperlink ref="C75" r:id="rId11" xr:uid="{CF85BE3B-F161-1940-A182-1A2C36EA9353}"/>
+    <hyperlink ref="C76" r:id="rId12" xr:uid="{68DA7045-D0E0-A544-90B1-19145D723A71}"/>
+    <hyperlink ref="C77" r:id="rId13" xr:uid="{44CDDCD8-A3D1-D949-A5E7-A48D613142C4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/documents/templates/bulk-upload/02-BulkUploadEmployee.xlsx
+++ b/documents/templates/bulk-upload/02-BulkUploadEmployee.xlsx
@@ -8,14 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dineshgajjar/Documents/Work/GitLab/YHWorks/Briot/clients/TMML/server/documents/templates/bulk-upload/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55E54D00-C33F-9641-928B-267FF2ADFA75}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D47402A0-47BD-F54D-AB7A-13142D0C4462}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{6BA803BE-7637-644E-81BF-475A654E4F59}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$270</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,10 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1299" uniqueCount="501">
-  <si>
-    <t>Notify for Machine Maintenance</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1299" uniqueCount="500">
   <si>
     <t>Department</t>
   </si>
@@ -327,9 +327,6 @@
     <t>praveen.datar@tatamarcopolo.com</t>
   </si>
   <si>
-    <t>YES</t>
-  </si>
-  <si>
     <t>SANTOSH JOGLEKAR</t>
   </si>
   <si>
@@ -381,9 +378,6 @@
     <t>VINAYAK SHIMPAGER</t>
   </si>
   <si>
-    <t>NO</t>
-  </si>
-  <si>
     <t>SANTOSH NANDEPPANAVAR</t>
   </si>
   <si>
@@ -1534,6 +1528,12 @@
   </si>
   <si>
     <t>Machine Shop (Production)</t>
+  </si>
+  <si>
+    <t>Notify For Machine Maintenance</t>
+  </si>
+  <si>
+    <t>no</t>
   </si>
 </sst>
 </file>
@@ -1635,7 +1635,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1665,19 +1665,10 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1689,14 +1680,8 @@
     <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1715,6 +1700,46 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2033,15 +2058,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADC00F89-2235-B741-A22E-475A64033711}">
   <dimension ref="A1:H270"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A251" workbookViewId="0">
-      <selection activeCell="A270" sqref="A270"/>
+    <sheetView tabSelected="1" topLeftCell="A192" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="43.1640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43.1640625" style="18" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.5" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="28.1640625" style="2" bestFit="1" customWidth="1"/>
@@ -2051,40 +2076,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>498</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="6">
+        <v>1</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>6</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="9">
-        <v>1</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>7</v>
       </c>
       <c r="D2" s="8">
         <v>0</v>
@@ -2093,24 +2118,24 @@
         <v>1</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>25</v>
+        <v>499</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="9">
+      <c r="A3" s="6">
         <v>730809</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="20" t="s">
         <v>11</v>
-      </c>
-      <c r="C3" s="25" t="s">
-        <v>12</v>
       </c>
       <c r="D3" s="8">
         <v>9243265893</v>
@@ -2119,24 +2144,24 @@
         <v>1</v>
       </c>
       <c r="F3" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="G3" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="H3" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="6">
+        <v>731018</v>
+      </c>
+      <c r="B4" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="9">
-        <v>731018</v>
-      </c>
-      <c r="B4" s="9" t="s">
+      <c r="C4" s="20" t="s">
         <v>15</v>
-      </c>
-      <c r="C4" s="25" t="s">
-        <v>16</v>
       </c>
       <c r="D4" s="8">
         <v>9243299879</v>
@@ -2145,24 +2170,24 @@
         <v>1</v>
       </c>
       <c r="F4" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="G4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="9" t="s">
-        <v>14</v>
-      </c>
       <c r="H4" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="9">
+      <c r="A5" s="6">
         <v>730869</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="20" t="s">
         <v>17</v>
-      </c>
-      <c r="C5" s="25" t="s">
-        <v>18</v>
       </c>
       <c r="D5" s="8">
         <v>9243265702</v>
@@ -2171,24 +2196,24 @@
         <v>1</v>
       </c>
       <c r="F5" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="9" t="s">
-        <v>14</v>
-      </c>
       <c r="H5" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="9">
+      <c r="A6" s="6">
         <v>731653</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="21" t="s">
         <v>19</v>
-      </c>
-      <c r="C6" s="26" t="s">
-        <v>20</v>
       </c>
       <c r="D6" s="8">
         <v>7204069750</v>
@@ -2197,24 +2222,24 @@
         <v>1</v>
       </c>
       <c r="F6" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="G6" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="9" t="s">
-        <v>14</v>
-      </c>
       <c r="H6" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="9">
+      <c r="A7" s="6">
         <v>731855</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>21</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>22</v>
       </c>
       <c r="D7" s="8">
         <v>7204009033</v>
@@ -2223,24 +2248,24 @@
         <v>1</v>
       </c>
       <c r="F7" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="G7" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="9" t="s">
-        <v>14</v>
-      </c>
       <c r="H7" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="9">
         <v>731924</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>23</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>24</v>
       </c>
       <c r="D8" s="8">
         <v>7204009035</v>
@@ -2249,24 +2274,24 @@
         <v>1</v>
       </c>
       <c r="F8" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="G8" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="9" t="s">
-        <v>14</v>
-      </c>
       <c r="H8" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="6">
+        <v>732210</v>
+      </c>
+      <c r="B9" s="23" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="9">
-        <v>732210</v>
-      </c>
-      <c r="B9" s="9" t="s">
+      <c r="C9" s="7" t="s">
         <v>26</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>27</v>
       </c>
       <c r="D9" s="8">
         <v>9513733160</v>
@@ -2275,24 +2300,24 @@
         <v>1</v>
       </c>
       <c r="F9" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="G9" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="9" t="s">
-        <v>14</v>
-      </c>
       <c r="H9" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="9">
         <v>730130</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="21" t="s">
         <v>28</v>
-      </c>
-      <c r="C10" s="26" t="s">
-        <v>29</v>
       </c>
       <c r="D10" s="8">
         <v>9243299682</v>
@@ -2301,24 +2326,24 @@
         <v>1</v>
       </c>
       <c r="F10" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="G10" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="9" t="s">
-        <v>14</v>
-      </c>
       <c r="H10" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="9">
         <v>731446</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="20" t="s">
         <v>30</v>
-      </c>
-      <c r="C11" s="25" t="s">
-        <v>31</v>
       </c>
       <c r="D11" s="8">
         <v>9243323920</v>
@@ -2327,24 +2352,24 @@
         <v>1</v>
       </c>
       <c r="F11" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="G11" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G11" s="9" t="s">
-        <v>14</v>
-      </c>
       <c r="H11" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="9">
+      <c r="A12" s="6">
         <v>732091</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>33</v>
       </c>
       <c r="D12" s="8">
         <v>9632442887</v>
@@ -2353,24 +2378,24 @@
         <v>1</v>
       </c>
       <c r="F12" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="G12" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G12" s="9" t="s">
-        <v>14</v>
-      </c>
       <c r="H12" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="9">
         <v>732211</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="7" t="s">
         <v>34</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>35</v>
       </c>
       <c r="D13" s="8">
         <v>9513733169</v>
@@ -2379,21 +2404,21 @@
         <v>1</v>
       </c>
       <c r="F13" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="G13" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G13" s="9" t="s">
-        <v>14</v>
-      </c>
       <c r="H13" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="9">
         <v>730386</v>
       </c>
-      <c r="B14" s="9" t="s">
-        <v>36</v>
+      <c r="B14" s="24" t="s">
+        <v>35</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="8">
@@ -2403,21 +2428,21 @@
         <v>1</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>25</v>
+        <v>499</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="9">
         <v>730222</v>
       </c>
-      <c r="B15" s="9" t="s">
-        <v>37</v>
+      <c r="B15" s="24" t="s">
+        <v>36</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="8">
@@ -2427,21 +2452,21 @@
         <v>1</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>25</v>
+        <v>499</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="9">
         <v>731654</v>
       </c>
-      <c r="B16" s="9" t="s">
-        <v>38</v>
+      <c r="B16" s="24" t="s">
+        <v>37</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="8">
@@ -2451,21 +2476,21 @@
         <v>1</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>25</v>
+        <v>499</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="9">
         <v>731866</v>
       </c>
-      <c r="B17" s="9" t="s">
-        <v>39</v>
+      <c r="B17" s="24" t="s">
+        <v>38</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="8">
@@ -2475,21 +2500,21 @@
         <v>1</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>25</v>
+        <v>499</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="9">
         <v>731869</v>
       </c>
-      <c r="B18" s="9" t="s">
-        <v>40</v>
+      <c r="B18" s="24" t="s">
+        <v>39</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="8">
@@ -2499,21 +2524,21 @@
         <v>1</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>25</v>
+        <v>499</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="9">
         <v>730899</v>
       </c>
-      <c r="B19" s="9" t="s">
-        <v>41</v>
+      <c r="B19" s="24" t="s">
+        <v>40</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="8">
@@ -2523,21 +2548,21 @@
         <v>1</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>25</v>
+        <v>499</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="9">
         <v>730255</v>
       </c>
-      <c r="B20" s="9" t="s">
-        <v>42</v>
+      <c r="B20" s="24" t="s">
+        <v>41</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="8">
@@ -2547,21 +2572,21 @@
         <v>1</v>
       </c>
       <c r="F20" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="G20" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G20" s="9" t="s">
-        <v>14</v>
-      </c>
       <c r="H20" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="9">
         <v>730410</v>
       </c>
-      <c r="B21" s="9" t="s">
-        <v>43</v>
+      <c r="B21" s="24" t="s">
+        <v>42</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="8">
@@ -2571,21 +2596,21 @@
         <v>1</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>25</v>
+        <v>499</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="9">
         <v>731244</v>
       </c>
-      <c r="B22" s="9" t="s">
-        <v>44</v>
+      <c r="B22" s="24" t="s">
+        <v>43</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="8">
@@ -2595,21 +2620,21 @@
         <v>1</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>25</v>
+        <v>499</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="9">
         <v>731187</v>
       </c>
-      <c r="B23" s="9" t="s">
-        <v>45</v>
+      <c r="B23" s="24" t="s">
+        <v>44</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="8">
@@ -2619,21 +2644,21 @@
         <v>1</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>25</v>
+        <v>499</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="9">
         <v>730219</v>
       </c>
-      <c r="B24" s="9" t="s">
-        <v>46</v>
+      <c r="B24" s="24" t="s">
+        <v>45</v>
       </c>
       <c r="C24" s="7"/>
       <c r="D24" s="8">
@@ -2643,21 +2668,21 @@
         <v>1</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>25</v>
+        <v>499</v>
       </c>
       <c r="G24" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="9">
         <v>731726</v>
       </c>
-      <c r="B25" s="9" t="s">
-        <v>47</v>
+      <c r="B25" s="24" t="s">
+        <v>46</v>
       </c>
       <c r="C25" s="7"/>
       <c r="D25" s="8">
@@ -2667,21 +2692,21 @@
         <v>1</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>25</v>
+        <v>499</v>
       </c>
       <c r="G25" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="9">
         <v>731868</v>
       </c>
-      <c r="B26" s="9" t="s">
-        <v>48</v>
+      <c r="B26" s="24" t="s">
+        <v>47</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="8">
@@ -2691,21 +2716,21 @@
         <v>1</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>25</v>
+        <v>499</v>
       </c>
       <c r="G26" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="9">
         <v>730900</v>
       </c>
-      <c r="B27" s="9" t="s">
-        <v>49</v>
+      <c r="B27" s="24" t="s">
+        <v>48</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="8">
@@ -2715,21 +2740,21 @@
         <v>1</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>25</v>
+        <v>499</v>
       </c>
       <c r="G27" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="9">
         <v>730260</v>
       </c>
-      <c r="B28" s="9" t="s">
-        <v>50</v>
+      <c r="B28" s="24" t="s">
+        <v>49</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="8">
@@ -2739,21 +2764,21 @@
         <v>1</v>
       </c>
       <c r="F28" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="G28" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G28" s="9" t="s">
-        <v>14</v>
-      </c>
       <c r="H28" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="9">
         <v>731655</v>
       </c>
-      <c r="B29" s="9" t="s">
-        <v>51</v>
+      <c r="B29" s="24" t="s">
+        <v>50</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="8">
@@ -2763,21 +2788,21 @@
         <v>1</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>25</v>
+        <v>499</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="9">
         <v>731729</v>
       </c>
-      <c r="B30" s="9" t="s">
-        <v>52</v>
+      <c r="B30" s="24" t="s">
+        <v>51</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="8">
@@ -2787,21 +2812,21 @@
         <v>1</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>25</v>
+        <v>499</v>
       </c>
       <c r="G30" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="9">
         <v>730544</v>
       </c>
-      <c r="B31" s="9" t="s">
-        <v>53</v>
+      <c r="B31" s="24" t="s">
+        <v>52</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="8">
@@ -2811,21 +2836,21 @@
         <v>1</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>25</v>
+        <v>499</v>
       </c>
       <c r="G31" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H31" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="9">
         <v>731253</v>
       </c>
-      <c r="B32" s="9" t="s">
-        <v>54</v>
+      <c r="B32" s="24" t="s">
+        <v>53</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="8">
@@ -2835,21 +2860,21 @@
         <v>1</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>25</v>
+        <v>499</v>
       </c>
       <c r="G32" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H32" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="9">
         <v>730442</v>
       </c>
-      <c r="B33" s="9" t="s">
-        <v>55</v>
+      <c r="B33" s="24" t="s">
+        <v>54</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="8">
@@ -2859,21 +2884,21 @@
         <v>1</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>25</v>
+        <v>499</v>
       </c>
       <c r="G33" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H33" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="9">
         <v>730259</v>
       </c>
-      <c r="B34" s="9" t="s">
-        <v>56</v>
+      <c r="B34" s="24" t="s">
+        <v>55</v>
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="8">
@@ -2883,21 +2908,21 @@
         <v>1</v>
       </c>
       <c r="F34" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="G34" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G34" s="9" t="s">
-        <v>14</v>
-      </c>
       <c r="H34" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="9">
         <v>730541</v>
       </c>
-      <c r="B35" s="9" t="s">
-        <v>57</v>
+      <c r="B35" s="24" t="s">
+        <v>56</v>
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="8">
@@ -2907,21 +2932,21 @@
         <v>1</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>25</v>
+        <v>499</v>
       </c>
       <c r="G35" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H35" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="9">
         <v>730223</v>
       </c>
-      <c r="B36" s="9" t="s">
-        <v>58</v>
+      <c r="B36" s="24" t="s">
+        <v>57</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="8">
@@ -2931,21 +2956,21 @@
         <v>1</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>25</v>
+        <v>499</v>
       </c>
       <c r="G36" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H36" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="9">
         <v>731949</v>
       </c>
-      <c r="B37" s="9" t="s">
-        <v>59</v>
+      <c r="B37" s="24" t="s">
+        <v>58</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="8">
@@ -2955,21 +2980,21 @@
         <v>1</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>25</v>
+        <v>499</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H37" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="9">
         <v>730257</v>
       </c>
-      <c r="B38" s="9" t="s">
-        <v>60</v>
+      <c r="B38" s="24" t="s">
+        <v>59</v>
       </c>
       <c r="C38" s="7"/>
       <c r="D38" s="8">
@@ -2979,21 +3004,21 @@
         <v>1</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>25</v>
+        <v>499</v>
       </c>
       <c r="G38" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H38" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="9">
         <v>731527</v>
       </c>
-      <c r="B39" s="9" t="s">
-        <v>61</v>
+      <c r="B39" s="24" t="s">
+        <v>60</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="8">
@@ -3003,21 +3028,21 @@
         <v>1</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>25</v>
+        <v>499</v>
       </c>
       <c r="G39" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H39" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="9">
         <v>796679</v>
       </c>
-      <c r="B40" s="9" t="s">
-        <v>62</v>
+      <c r="B40" s="24" t="s">
+        <v>61</v>
       </c>
       <c r="C40" s="7"/>
       <c r="D40" s="8">
@@ -3027,21 +3052,21 @@
         <v>1</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>25</v>
+        <v>499</v>
       </c>
       <c r="G40" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H40" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="9">
         <v>731510</v>
       </c>
-      <c r="B41" s="9" t="s">
-        <v>63</v>
+      <c r="B41" s="24" t="s">
+        <v>62</v>
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="8">
@@ -3051,21 +3076,21 @@
         <v>1</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>25</v>
+        <v>499</v>
       </c>
       <c r="G41" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H41" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="9">
         <v>731511</v>
       </c>
-      <c r="B42" s="9" t="s">
-        <v>64</v>
+      <c r="B42" s="24" t="s">
+        <v>63</v>
       </c>
       <c r="C42" s="7"/>
       <c r="D42" s="8">
@@ -3075,24 +3100,24 @@
         <v>1</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>25</v>
+        <v>499</v>
       </c>
       <c r="G42" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H42" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A43" s="9">
+      <c r="A43" s="6">
         <v>731728</v>
       </c>
-      <c r="B43" s="9" t="s">
+      <c r="B43" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="C43" s="21" t="s">
         <v>65</v>
-      </c>
-      <c r="C43" s="26" t="s">
-        <v>66</v>
       </c>
       <c r="D43" s="8">
         <v>0</v>
@@ -3101,21 +3126,21 @@
         <v>1</v>
       </c>
       <c r="F43" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="G43" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G43" s="9" t="s">
-        <v>14</v>
-      </c>
       <c r="H43" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="9">
         <v>730409</v>
       </c>
-      <c r="B44" s="9" t="s">
-        <v>67</v>
+      <c r="B44" s="24" t="s">
+        <v>66</v>
       </c>
       <c r="C44" s="7"/>
       <c r="D44" s="8">
@@ -3125,21 +3150,21 @@
         <v>1</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G44" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H44" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="9">
         <v>731445</v>
       </c>
-      <c r="B45" s="9" t="s">
-        <v>69</v>
+      <c r="B45" s="24" t="s">
+        <v>68</v>
       </c>
       <c r="C45" s="7"/>
       <c r="D45" s="8">
@@ -3149,21 +3174,21 @@
         <v>1</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>25</v>
+        <v>499</v>
       </c>
       <c r="G45" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H45" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="9">
         <v>731250</v>
       </c>
-      <c r="B46" s="9" t="s">
-        <v>70</v>
+      <c r="B46" s="24" t="s">
+        <v>69</v>
       </c>
       <c r="C46" s="7"/>
       <c r="D46" s="8">
@@ -3173,21 +3198,21 @@
         <v>1</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>25</v>
+        <v>499</v>
       </c>
       <c r="G46" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H46" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="9">
         <v>730359</v>
       </c>
-      <c r="B47" s="9" t="s">
-        <v>71</v>
+      <c r="B47" s="24" t="s">
+        <v>70</v>
       </c>
       <c r="C47" s="7"/>
       <c r="D47" s="8">
@@ -3197,21 +3222,21 @@
         <v>1</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>25</v>
+        <v>499</v>
       </c>
       <c r="G47" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H47" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="9">
         <v>731946</v>
       </c>
-      <c r="B48" s="9" t="s">
-        <v>72</v>
+      <c r="B48" s="24" t="s">
+        <v>71</v>
       </c>
       <c r="C48" s="7"/>
       <c r="D48" s="8">
@@ -3221,21 +3246,21 @@
         <v>1</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>25</v>
+        <v>499</v>
       </c>
       <c r="G48" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H48" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="9">
         <v>730543</v>
       </c>
-      <c r="B49" s="9" t="s">
-        <v>73</v>
+      <c r="B49" s="24" t="s">
+        <v>72</v>
       </c>
       <c r="C49" s="7"/>
       <c r="D49" s="8">
@@ -3245,21 +3270,21 @@
         <v>1</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>25</v>
+        <v>499</v>
       </c>
       <c r="G49" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H49" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="9">
         <v>731871</v>
       </c>
-      <c r="B50" s="9" t="s">
-        <v>74</v>
+      <c r="B50" s="24" t="s">
+        <v>73</v>
       </c>
       <c r="C50" s="7"/>
       <c r="D50" s="8">
@@ -3269,21 +3294,21 @@
         <v>1</v>
       </c>
       <c r="F50" s="6" t="s">
-        <v>25</v>
+        <v>499</v>
       </c>
       <c r="G50" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H50" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A51" s="9">
+      <c r="A51" s="6">
         <v>731872</v>
       </c>
-      <c r="B51" s="9" t="s">
-        <v>75</v>
+      <c r="B51" s="23" t="s">
+        <v>74</v>
       </c>
       <c r="C51" s="7"/>
       <c r="D51" s="8">
@@ -3293,21 +3318,21 @@
         <v>1</v>
       </c>
       <c r="F51" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="G51" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G51" s="9" t="s">
-        <v>14</v>
-      </c>
       <c r="H51" s="6" t="s">
-        <v>68</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A52" s="9">
+      <c r="A52" s="6">
         <v>731948</v>
       </c>
-      <c r="B52" s="9" t="s">
-        <v>76</v>
+      <c r="B52" s="23" t="s">
+        <v>75</v>
       </c>
       <c r="C52" s="7"/>
       <c r="D52" s="8">
@@ -3317,21 +3342,21 @@
         <v>1</v>
       </c>
       <c r="F52" s="6" t="s">
-        <v>25</v>
+        <v>499</v>
       </c>
       <c r="G52" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H52" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="9">
         <v>731867</v>
       </c>
-      <c r="B53" s="9" t="s">
-        <v>77</v>
+      <c r="B53" s="24" t="s">
+        <v>76</v>
       </c>
       <c r="C53" s="7"/>
       <c r="D53" s="8">
@@ -3341,21 +3366,21 @@
         <v>1</v>
       </c>
       <c r="F53" s="6" t="s">
-        <v>25</v>
+        <v>499</v>
       </c>
       <c r="G53" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H53" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="9">
         <v>731870</v>
       </c>
-      <c r="B54" s="9" t="s">
-        <v>78</v>
+      <c r="B54" s="24" t="s">
+        <v>77</v>
       </c>
       <c r="C54" s="7"/>
       <c r="D54" s="8">
@@ -3365,21 +3390,21 @@
         <v>1</v>
       </c>
       <c r="F54" s="6" t="s">
-        <v>25</v>
+        <v>499</v>
       </c>
       <c r="G54" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H54" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="9">
         <v>730871</v>
       </c>
-      <c r="B55" s="9" t="s">
-        <v>79</v>
+      <c r="B55" s="24" t="s">
+        <v>78</v>
       </c>
       <c r="C55" s="7"/>
       <c r="D55" s="8">
@@ -3389,21 +3414,21 @@
         <v>1</v>
       </c>
       <c r="F55" s="6" t="s">
-        <v>25</v>
+        <v>499</v>
       </c>
       <c r="G55" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H55" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="9">
         <v>730898</v>
       </c>
-      <c r="B56" s="9" t="s">
-        <v>80</v>
+      <c r="B56" s="24" t="s">
+        <v>79</v>
       </c>
       <c r="C56" s="7"/>
       <c r="D56" s="8">
@@ -3413,21 +3438,21 @@
         <v>1</v>
       </c>
       <c r="F56" s="6" t="s">
-        <v>25</v>
+        <v>499</v>
       </c>
       <c r="G56" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H56" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" s="9">
         <v>731727</v>
       </c>
-      <c r="B57" s="9" t="s">
-        <v>81</v>
+      <c r="B57" s="24" t="s">
+        <v>80</v>
       </c>
       <c r="C57" s="7"/>
       <c r="D57" s="8">
@@ -3437,21 +3462,21 @@
         <v>1</v>
       </c>
       <c r="F57" s="6" t="s">
-        <v>25</v>
+        <v>499</v>
       </c>
       <c r="G57" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H57" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="9">
         <v>730897</v>
       </c>
-      <c r="B58" s="9" t="s">
-        <v>82</v>
+      <c r="B58" s="24" t="s">
+        <v>81</v>
       </c>
       <c r="C58" s="7"/>
       <c r="D58" s="8">
@@ -3461,21 +3486,21 @@
         <v>1</v>
       </c>
       <c r="F58" s="6" t="s">
-        <v>25</v>
+        <v>499</v>
       </c>
       <c r="G58" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H58" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" s="9">
         <v>731947</v>
       </c>
-      <c r="B59" s="9" t="s">
-        <v>83</v>
+      <c r="B59" s="24" t="s">
+        <v>82</v>
       </c>
       <c r="C59" s="7"/>
       <c r="D59" s="8">
@@ -3485,21 +3510,21 @@
         <v>1</v>
       </c>
       <c r="F59" s="6" t="s">
-        <v>25</v>
+        <v>499</v>
       </c>
       <c r="G59" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H59" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" s="9">
         <v>730256</v>
       </c>
-      <c r="B60" s="9" t="s">
-        <v>84</v>
+      <c r="B60" s="24" t="s">
+        <v>83</v>
       </c>
       <c r="C60" s="7"/>
       <c r="D60" s="8">
@@ -3509,21 +3534,21 @@
         <v>1</v>
       </c>
       <c r="F60" s="6" t="s">
-        <v>25</v>
+        <v>499</v>
       </c>
       <c r="G60" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H60" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A61" s="9">
+      <c r="A61" s="6">
         <v>730225</v>
       </c>
-      <c r="B61" s="9" t="s">
-        <v>85</v>
+      <c r="B61" s="23" t="s">
+        <v>84</v>
       </c>
       <c r="C61" s="7"/>
       <c r="D61" s="8">
@@ -3533,21 +3558,21 @@
         <v>1</v>
       </c>
       <c r="F61" s="6" t="s">
-        <v>25</v>
+        <v>499</v>
       </c>
       <c r="G61" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H61" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" s="9">
         <v>731730</v>
       </c>
-      <c r="B62" s="9" t="s">
-        <v>86</v>
+      <c r="B62" s="24" t="s">
+        <v>85</v>
       </c>
       <c r="C62" s="7"/>
       <c r="D62" s="8">
@@ -3557,160 +3582,172 @@
         <v>1</v>
       </c>
       <c r="F62" s="6" t="s">
-        <v>25</v>
+        <v>499</v>
       </c>
       <c r="G62" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H62" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" s="4">
         <v>730688</v>
       </c>
-      <c r="B63" s="4" t="s">
+      <c r="B63" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="C63" s="19" t="s">
         <v>87</v>
-      </c>
-      <c r="C63" s="24" t="s">
-        <v>88</v>
       </c>
       <c r="D63" s="5">
         <v>9980121494</v>
       </c>
-      <c r="E63" s="5"/>
+      <c r="E63" s="5">
+        <v>1</v>
+      </c>
       <c r="F63" s="6" t="s">
-        <v>13</v>
+        <v>67</v>
       </c>
       <c r="G63" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H63" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" s="4">
         <v>731131</v>
       </c>
-      <c r="B64" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="C64" s="24"/>
+      <c r="B64" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="C64" s="19"/>
       <c r="D64" s="5">
         <v>9513648097</v>
       </c>
-      <c r="E64" s="5"/>
+      <c r="E64" s="5">
+        <v>1</v>
+      </c>
       <c r="F64" s="6" t="s">
-        <v>13</v>
+        <v>67</v>
       </c>
       <c r="G64" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H64" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" s="6">
         <v>779392</v>
       </c>
-      <c r="B65" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="C65" s="24"/>
+      <c r="B65" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="C65" s="19"/>
       <c r="D65" s="5">
         <v>7829534082</v>
       </c>
-      <c r="E65" s="5"/>
+      <c r="E65" s="5">
+        <v>1</v>
+      </c>
       <c r="F65" s="6" t="s">
-        <v>13</v>
+        <v>67</v>
       </c>
       <c r="G65" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H65" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" s="6">
         <v>779395</v>
       </c>
-      <c r="B66" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="C66" s="24"/>
+      <c r="B66" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="C66" s="19"/>
       <c r="D66" s="5">
         <v>8951102136</v>
       </c>
-      <c r="E66" s="5"/>
+      <c r="E66" s="5">
+        <v>1</v>
+      </c>
       <c r="F66" s="6" t="s">
-        <v>13</v>
+        <v>67</v>
       </c>
       <c r="G66" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H66" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" s="6">
         <v>779414</v>
       </c>
-      <c r="B67" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="C67" s="24"/>
+      <c r="B67" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="C67" s="19"/>
       <c r="D67" s="5">
         <v>6360045772</v>
       </c>
-      <c r="E67" s="5"/>
+      <c r="E67" s="5">
+        <v>1</v>
+      </c>
       <c r="F67" s="6" t="s">
-        <v>13</v>
+        <v>67</v>
       </c>
       <c r="G67" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H67" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" s="6">
         <v>730101</v>
       </c>
-      <c r="B68" s="7" t="s">
+      <c r="B68" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="C68" s="19" t="s">
         <v>94</v>
-      </c>
-      <c r="C68" s="24" t="s">
-        <v>95</v>
       </c>
       <c r="D68" s="5">
         <v>9243744153</v>
       </c>
-      <c r="E68" s="5"/>
+      <c r="E68" s="5">
+        <v>1</v>
+      </c>
       <c r="F68" s="6" t="s">
-        <v>13</v>
+        <v>67</v>
       </c>
       <c r="G68" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H68" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" s="6">
         <v>730081</v>
       </c>
-      <c r="B69" s="6" t="s">
+      <c r="B69" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="C69" s="20" t="s">
         <v>96</v>
-      </c>
-      <c r="C69" s="25" t="s">
-        <v>97</v>
       </c>
       <c r="D69" s="8">
         <v>9243291745</v>
@@ -3719,24 +3756,24 @@
         <v>1</v>
       </c>
       <c r="F69" s="6" t="s">
-        <v>98</v>
+        <v>67</v>
       </c>
       <c r="G69" s="9" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="H69" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" s="6">
         <v>730124</v>
       </c>
-      <c r="B70" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="C70" s="25" t="s">
-        <v>100</v>
+      <c r="B70" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="C70" s="20" t="s">
+        <v>98</v>
       </c>
       <c r="D70" s="8">
         <v>9243340886</v>
@@ -3745,24 +3782,24 @@
         <v>1</v>
       </c>
       <c r="F70" s="6" t="s">
-        <v>98</v>
+        <v>67</v>
       </c>
       <c r="G70" s="9" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="H70" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" s="6">
         <v>731450</v>
       </c>
-      <c r="B71" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="C71" s="25" t="s">
-        <v>102</v>
+      <c r="B71" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="C71" s="20" t="s">
+        <v>100</v>
       </c>
       <c r="D71" s="8">
         <v>8050003975</v>
@@ -3771,24 +3808,24 @@
         <v>1</v>
       </c>
       <c r="F71" s="6" t="s">
-        <v>98</v>
+        <v>67</v>
       </c>
       <c r="G71" s="9" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="H71" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" s="6">
         <v>731623</v>
       </c>
-      <c r="B72" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="C72" s="25" t="s">
-        <v>104</v>
+      <c r="B72" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="C72" s="20" t="s">
+        <v>102</v>
       </c>
       <c r="D72" s="8">
         <v>7411098864</v>
@@ -3797,24 +3834,24 @@
         <v>1</v>
       </c>
       <c r="F72" s="6" t="s">
-        <v>98</v>
+        <v>67</v>
       </c>
       <c r="G72" s="9" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="H72" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" s="6">
         <v>730057</v>
       </c>
-      <c r="B73" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="C73" s="25" t="s">
-        <v>106</v>
+      <c r="B73" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="C73" s="20" t="s">
+        <v>104</v>
       </c>
       <c r="D73" s="8">
         <v>9243341025</v>
@@ -3823,24 +3860,24 @@
         <v>1</v>
       </c>
       <c r="F73" s="6" t="s">
-        <v>98</v>
+        <v>67</v>
       </c>
       <c r="G73" s="9" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="H73" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" s="6">
         <v>730113</v>
       </c>
-      <c r="B74" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="C74" s="25" t="s">
-        <v>108</v>
+      <c r="B74" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="C74" s="20" t="s">
+        <v>106</v>
       </c>
       <c r="D74" s="8">
         <v>9243340882</v>
@@ -3849,24 +3886,24 @@
         <v>1</v>
       </c>
       <c r="F74" s="6" t="s">
-        <v>98</v>
+        <v>67</v>
       </c>
       <c r="G74" s="9" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="H74" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" s="6">
         <v>730031</v>
       </c>
-      <c r="B75" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="C75" s="25" t="s">
-        <v>110</v>
+      <c r="B75" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="C75" s="20" t="s">
+        <v>108</v>
       </c>
       <c r="D75" s="8">
         <v>9243523162</v>
@@ -3875,24 +3912,24 @@
         <v>1</v>
       </c>
       <c r="F75" s="6" t="s">
-        <v>98</v>
+        <v>67</v>
       </c>
       <c r="G75" s="9" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="H75" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="6">
         <v>732184</v>
       </c>
-      <c r="B76" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="C76" s="25" t="s">
-        <v>112</v>
+      <c r="B76" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="C76" s="20" t="s">
+        <v>110</v>
       </c>
       <c r="D76" s="8">
         <v>8884425279</v>
@@ -3901,24 +3938,24 @@
         <v>1</v>
       </c>
       <c r="F76" s="6" t="s">
-        <v>98</v>
+        <v>67</v>
       </c>
       <c r="G76" s="9" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="H76" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" s="6">
         <v>732253</v>
       </c>
-      <c r="B77" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="C77" s="25" t="s">
-        <v>114</v>
+      <c r="B77" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="C77" s="20" t="s">
+        <v>112</v>
       </c>
       <c r="D77" s="8">
         <v>7259592869</v>
@@ -3927,23 +3964,23 @@
         <v>1</v>
       </c>
       <c r="F77" s="6" t="s">
-        <v>98</v>
+        <v>67</v>
       </c>
       <c r="G77" s="9" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="H77" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" s="6">
         <v>779397</v>
       </c>
-      <c r="B78" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="C78" s="25"/>
+      <c r="B78" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="C78" s="20"/>
       <c r="D78" s="8">
         <v>9686123508</v>
       </c>
@@ -3951,21 +3988,21 @@
         <v>1</v>
       </c>
       <c r="F78" s="6" t="s">
-        <v>98</v>
+        <v>67</v>
       </c>
       <c r="G78" s="9" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="H78" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" s="6">
         <v>779345</v>
       </c>
-      <c r="B79" s="6" t="s">
-        <v>117</v>
+      <c r="B79" s="26" t="s">
+        <v>114</v>
       </c>
       <c r="C79" s="7"/>
       <c r="D79" s="8">
@@ -3975,21 +4012,21 @@
         <v>1</v>
       </c>
       <c r="F79" s="6" t="s">
-        <v>98</v>
+        <v>67</v>
       </c>
       <c r="G79" s="9" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="H79" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="B80" s="11" t="s">
-        <v>119</v>
+        <v>115</v>
+      </c>
+      <c r="B80" s="27" t="s">
+        <v>116</v>
       </c>
       <c r="C80" s="7"/>
       <c r="D80" s="8"/>
@@ -3997,21 +4034,21 @@
         <v>1</v>
       </c>
       <c r="F80" s="6" t="s">
-        <v>116</v>
+        <v>499</v>
       </c>
       <c r="G80" s="9" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="H80" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="B81" s="11" t="s">
-        <v>121</v>
+        <v>117</v>
+      </c>
+      <c r="B81" s="27" t="s">
+        <v>118</v>
       </c>
       <c r="C81" s="7"/>
       <c r="D81" s="8"/>
@@ -4019,21 +4056,21 @@
         <v>1</v>
       </c>
       <c r="F81" s="6" t="s">
-        <v>116</v>
+        <v>499</v>
       </c>
       <c r="G81" s="9" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="H81" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A82" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="B82" s="11" t="s">
-        <v>123</v>
+      <c r="A82" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="B82" s="27" t="s">
+        <v>120</v>
       </c>
       <c r="C82" s="7"/>
       <c r="D82" s="8"/>
@@ -4041,21 +4078,21 @@
         <v>1</v>
       </c>
       <c r="F82" s="6" t="s">
-        <v>116</v>
+        <v>499</v>
       </c>
       <c r="G82" s="9" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="H82" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="B83" s="11" t="s">
-        <v>125</v>
+        <v>121</v>
+      </c>
+      <c r="B83" s="27" t="s">
+        <v>122</v>
       </c>
       <c r="C83" s="7"/>
       <c r="D83" s="8"/>
@@ -4063,21 +4100,21 @@
         <v>1</v>
       </c>
       <c r="F83" s="6" t="s">
-        <v>116</v>
+        <v>499</v>
       </c>
       <c r="G83" s="9" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="H83" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="B84" s="11" t="s">
-        <v>127</v>
+        <v>123</v>
+      </c>
+      <c r="B84" s="27" t="s">
+        <v>124</v>
       </c>
       <c r="C84" s="7"/>
       <c r="D84" s="8"/>
@@ -4085,21 +4122,21 @@
         <v>1</v>
       </c>
       <c r="F84" s="6" t="s">
-        <v>116</v>
+        <v>499</v>
       </c>
       <c r="G84" s="9" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="H84" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="B85" s="11" t="s">
-        <v>129</v>
+        <v>125</v>
+      </c>
+      <c r="B85" s="27" t="s">
+        <v>126</v>
       </c>
       <c r="C85" s="7"/>
       <c r="D85" s="8"/>
@@ -4107,21 +4144,21 @@
         <v>1</v>
       </c>
       <c r="F85" s="6" t="s">
-        <v>116</v>
+        <v>499</v>
       </c>
       <c r="G85" s="9" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="H85" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="B86" s="11" t="s">
-        <v>131</v>
+        <v>127</v>
+      </c>
+      <c r="B86" s="27" t="s">
+        <v>128</v>
       </c>
       <c r="C86" s="7"/>
       <c r="D86" s="8"/>
@@ -4129,21 +4166,21 @@
         <v>1</v>
       </c>
       <c r="F86" s="6" t="s">
-        <v>116</v>
+        <v>499</v>
       </c>
       <c r="G86" s="9" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="H86" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A87" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="B87" s="11" t="s">
-        <v>133</v>
+      <c r="A87" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="B87" s="27" t="s">
+        <v>130</v>
       </c>
       <c r="C87" s="7"/>
       <c r="D87" s="8"/>
@@ -4151,21 +4188,21 @@
         <v>1</v>
       </c>
       <c r="F87" s="6" t="s">
-        <v>116</v>
+        <v>499</v>
       </c>
       <c r="G87" s="9" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="H87" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="B88" s="11" t="s">
-        <v>135</v>
+        <v>131</v>
+      </c>
+      <c r="B88" s="27" t="s">
+        <v>132</v>
       </c>
       <c r="C88" s="7"/>
       <c r="D88" s="8"/>
@@ -4173,21 +4210,21 @@
         <v>1</v>
       </c>
       <c r="F88" s="6" t="s">
-        <v>116</v>
+        <v>499</v>
       </c>
       <c r="G88" s="9" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="H88" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="B89" s="11" t="s">
-        <v>137</v>
+        <v>133</v>
+      </c>
+      <c r="B89" s="27" t="s">
+        <v>134</v>
       </c>
       <c r="C89" s="7"/>
       <c r="D89" s="8"/>
@@ -4195,21 +4232,21 @@
         <v>1</v>
       </c>
       <c r="F89" s="6" t="s">
-        <v>116</v>
+        <v>499</v>
       </c>
       <c r="G89" s="9" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="H89" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="B90" s="11" t="s">
-        <v>139</v>
+        <v>135</v>
+      </c>
+      <c r="B90" s="27" t="s">
+        <v>136</v>
       </c>
       <c r="C90" s="7"/>
       <c r="D90" s="8"/>
@@ -4217,21 +4254,21 @@
         <v>1</v>
       </c>
       <c r="F90" s="6" t="s">
-        <v>116</v>
+        <v>499</v>
       </c>
       <c r="G90" s="9" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="H90" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="B91" s="11" t="s">
-        <v>141</v>
+        <v>137</v>
+      </c>
+      <c r="B91" s="27" t="s">
+        <v>138</v>
       </c>
       <c r="C91" s="7"/>
       <c r="D91" s="8"/>
@@ -4239,21 +4276,21 @@
         <v>1</v>
       </c>
       <c r="F91" s="6" t="s">
-        <v>116</v>
+        <v>499</v>
       </c>
       <c r="G91" s="9" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="H91" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="B92" s="11" t="s">
-        <v>143</v>
+        <v>139</v>
+      </c>
+      <c r="B92" s="27" t="s">
+        <v>140</v>
       </c>
       <c r="C92" s="7"/>
       <c r="D92" s="8"/>
@@ -4261,21 +4298,21 @@
         <v>1</v>
       </c>
       <c r="F92" s="6" t="s">
-        <v>116</v>
+        <v>499</v>
       </c>
       <c r="G92" s="9" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="H92" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="B93" s="11" t="s">
-        <v>145</v>
+        <v>141</v>
+      </c>
+      <c r="B93" s="27" t="s">
+        <v>142</v>
       </c>
       <c r="C93" s="7"/>
       <c r="D93" s="8"/>
@@ -4283,21 +4320,21 @@
         <v>1</v>
       </c>
       <c r="F93" s="6" t="s">
-        <v>116</v>
+        <v>499</v>
       </c>
       <c r="G93" s="9" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="H93" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A94" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="B94" s="11" t="s">
-        <v>147</v>
+      <c r="A94" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="B94" s="27" t="s">
+        <v>144</v>
       </c>
       <c r="C94" s="7"/>
       <c r="D94" s="8"/>
@@ -4305,21 +4342,21 @@
         <v>1</v>
       </c>
       <c r="F94" s="6" t="s">
-        <v>116</v>
+        <v>499</v>
       </c>
       <c r="G94" s="9" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="H94" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="B95" s="11" t="s">
-        <v>149</v>
+        <v>145</v>
+      </c>
+      <c r="B95" s="27" t="s">
+        <v>146</v>
       </c>
       <c r="C95" s="7"/>
       <c r="D95" s="8"/>
@@ -4327,21 +4364,21 @@
         <v>1</v>
       </c>
       <c r="F95" s="6" t="s">
-        <v>116</v>
+        <v>499</v>
       </c>
       <c r="G95" s="9" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="H95" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="B96" s="11" t="s">
-        <v>151</v>
+        <v>147</v>
+      </c>
+      <c r="B96" s="27" t="s">
+        <v>148</v>
       </c>
       <c r="C96" s="7"/>
       <c r="D96" s="8"/>
@@ -4349,21 +4386,21 @@
         <v>1</v>
       </c>
       <c r="F96" s="6" t="s">
-        <v>116</v>
+        <v>499</v>
       </c>
       <c r="G96" s="9" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="H96" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="B97" s="11" t="s">
-        <v>153</v>
+        <v>149</v>
+      </c>
+      <c r="B97" s="27" t="s">
+        <v>150</v>
       </c>
       <c r="C97" s="7"/>
       <c r="D97" s="8"/>
@@ -4371,21 +4408,21 @@
         <v>1</v>
       </c>
       <c r="F97" s="6" t="s">
-        <v>116</v>
+        <v>499</v>
       </c>
       <c r="G97" s="9" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="H97" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="B98" s="11" t="s">
-        <v>155</v>
+        <v>151</v>
+      </c>
+      <c r="B98" s="27" t="s">
+        <v>152</v>
       </c>
       <c r="C98" s="7"/>
       <c r="D98" s="8"/>
@@ -4393,21 +4430,21 @@
         <v>1</v>
       </c>
       <c r="F98" s="6" t="s">
-        <v>116</v>
+        <v>499</v>
       </c>
       <c r="G98" s="9" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="H98" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="B99" s="11" t="s">
-        <v>157</v>
+        <v>153</v>
+      </c>
+      <c r="B99" s="27" t="s">
+        <v>154</v>
       </c>
       <c r="C99" s="7"/>
       <c r="D99" s="8"/>
@@ -4415,21 +4452,21 @@
         <v>1</v>
       </c>
       <c r="F99" s="6" t="s">
-        <v>116</v>
+        <v>499</v>
       </c>
       <c r="G99" s="9" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="H99" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="B100" s="11" t="s">
-        <v>159</v>
+        <v>155</v>
+      </c>
+      <c r="B100" s="27" t="s">
+        <v>156</v>
       </c>
       <c r="C100" s="7"/>
       <c r="D100" s="8"/>
@@ -4437,21 +4474,21 @@
         <v>1</v>
       </c>
       <c r="F100" s="6" t="s">
-        <v>116</v>
+        <v>499</v>
       </c>
       <c r="G100" s="9" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="H100" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="B101" s="11" t="s">
-        <v>161</v>
+        <v>157</v>
+      </c>
+      <c r="B101" s="27" t="s">
+        <v>158</v>
       </c>
       <c r="C101" s="7"/>
       <c r="D101" s="8"/>
@@ -4459,21 +4496,21 @@
         <v>1</v>
       </c>
       <c r="F101" s="6" t="s">
-        <v>116</v>
+        <v>499</v>
       </c>
       <c r="G101" s="9" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="H101" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="B102" s="11" t="s">
-        <v>163</v>
+        <v>159</v>
+      </c>
+      <c r="B102" s="27" t="s">
+        <v>160</v>
       </c>
       <c r="C102" s="7"/>
       <c r="D102" s="8"/>
@@ -4481,21 +4518,21 @@
         <v>1</v>
       </c>
       <c r="F102" s="6" t="s">
-        <v>116</v>
+        <v>499</v>
       </c>
       <c r="G102" s="9" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="H102" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="B103" s="11" t="s">
-        <v>165</v>
+        <v>161</v>
+      </c>
+      <c r="B103" s="27" t="s">
+        <v>162</v>
       </c>
       <c r="C103" s="7"/>
       <c r="D103" s="8"/>
@@ -4503,21 +4540,21 @@
         <v>1</v>
       </c>
       <c r="F103" s="6" t="s">
-        <v>116</v>
+        <v>499</v>
       </c>
       <c r="G103" s="9" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="H103" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="B104" s="11" t="s">
-        <v>167</v>
+        <v>163</v>
+      </c>
+      <c r="B104" s="27" t="s">
+        <v>164</v>
       </c>
       <c r="C104" s="7"/>
       <c r="D104" s="8"/>
@@ -4525,21 +4562,21 @@
         <v>1</v>
       </c>
       <c r="F104" s="6" t="s">
-        <v>116</v>
+        <v>499</v>
       </c>
       <c r="G104" s="9" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="H104" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="B105" s="11" t="s">
-        <v>169</v>
+        <v>165</v>
+      </c>
+      <c r="B105" s="27" t="s">
+        <v>166</v>
       </c>
       <c r="C105" s="7"/>
       <c r="D105" s="8"/>
@@ -4547,21 +4584,21 @@
         <v>1</v>
       </c>
       <c r="F105" s="6" t="s">
-        <v>116</v>
+        <v>499</v>
       </c>
       <c r="G105" s="9" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="H105" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106" s="10" t="s">
-        <v>170</v>
-      </c>
-      <c r="B106" s="11" t="s">
-        <v>171</v>
+        <v>167</v>
+      </c>
+      <c r="B106" s="27" t="s">
+        <v>168</v>
       </c>
       <c r="C106" s="7"/>
       <c r="D106" s="8"/>
@@ -4569,21 +4606,21 @@
         <v>1</v>
       </c>
       <c r="F106" s="6" t="s">
-        <v>116</v>
+        <v>499</v>
       </c>
       <c r="G106" s="9" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="H106" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A107" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="B107" s="11" t="s">
-        <v>173</v>
+      <c r="A107" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="B107" s="27" t="s">
+        <v>170</v>
       </c>
       <c r="C107" s="7"/>
       <c r="D107" s="8"/>
@@ -4591,21 +4628,21 @@
         <v>1</v>
       </c>
       <c r="F107" s="6" t="s">
-        <v>116</v>
+        <v>499</v>
       </c>
       <c r="G107" s="9" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="H107" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A108" s="13" t="s">
-        <v>174</v>
-      </c>
-      <c r="B108" s="11" t="s">
-        <v>175</v>
+      <c r="A108" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="B108" s="27" t="s">
+        <v>172</v>
       </c>
       <c r="C108" s="7"/>
       <c r="D108" s="8"/>
@@ -4613,43 +4650,43 @@
         <v>1</v>
       </c>
       <c r="F108" s="6" t="s">
-        <v>116</v>
+        <v>499</v>
       </c>
       <c r="G108" s="9" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="H108" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="B109" s="11" t="s">
-        <v>177</v>
-      </c>
-      <c r="C109" s="26"/>
+        <v>173</v>
+      </c>
+      <c r="B109" s="27" t="s">
+        <v>174</v>
+      </c>
+      <c r="C109" s="21"/>
       <c r="D109" s="8"/>
       <c r="E109" s="9">
         <v>1</v>
       </c>
       <c r="F109" s="6" t="s">
-        <v>116</v>
+        <v>499</v>
       </c>
       <c r="G109" s="9" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="H109" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A110" s="10" t="s">
-        <v>178</v>
-      </c>
-      <c r="B110" s="11" t="s">
-        <v>179</v>
+        <v>175</v>
+      </c>
+      <c r="B110" s="27" t="s">
+        <v>176</v>
       </c>
       <c r="C110" s="7"/>
       <c r="D110" s="8"/>
@@ -4657,21 +4694,21 @@
         <v>1</v>
       </c>
       <c r="F110" s="6" t="s">
-        <v>116</v>
+        <v>499</v>
       </c>
       <c r="G110" s="9" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="H110" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="B111" s="11" t="s">
-        <v>181</v>
+        <v>177</v>
+      </c>
+      <c r="B111" s="27" t="s">
+        <v>178</v>
       </c>
       <c r="C111" s="7"/>
       <c r="D111" s="8"/>
@@ -4679,21 +4716,21 @@
         <v>1</v>
       </c>
       <c r="F111" s="6" t="s">
-        <v>116</v>
+        <v>499</v>
       </c>
       <c r="G111" s="9" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="H111" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="B112" s="11" t="s">
-        <v>183</v>
+        <v>179</v>
+      </c>
+      <c r="B112" s="27" t="s">
+        <v>180</v>
       </c>
       <c r="C112" s="7"/>
       <c r="D112" s="8"/>
@@ -4701,21 +4738,21 @@
         <v>1</v>
       </c>
       <c r="F112" s="6" t="s">
-        <v>116</v>
+        <v>499</v>
       </c>
       <c r="G112" s="9" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="H112" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="B113" s="11" t="s">
-        <v>185</v>
+        <v>181</v>
+      </c>
+      <c r="B113" s="27" t="s">
+        <v>182</v>
       </c>
       <c r="C113" s="7"/>
       <c r="D113" s="8"/>
@@ -4723,21 +4760,21 @@
         <v>1</v>
       </c>
       <c r="F113" s="6" t="s">
-        <v>116</v>
+        <v>499</v>
       </c>
       <c r="G113" s="9" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="H113" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="B114" s="11" t="s">
-        <v>187</v>
+        <v>183</v>
+      </c>
+      <c r="B114" s="27" t="s">
+        <v>184</v>
       </c>
       <c r="C114" s="7"/>
       <c r="D114" s="8"/>
@@ -4745,21 +4782,21 @@
         <v>1</v>
       </c>
       <c r="F114" s="6" t="s">
-        <v>116</v>
+        <v>499</v>
       </c>
       <c r="G114" s="9" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="H114" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115" s="10" t="s">
-        <v>188</v>
-      </c>
-      <c r="B115" s="11" t="s">
-        <v>189</v>
+        <v>185</v>
+      </c>
+      <c r="B115" s="27" t="s">
+        <v>186</v>
       </c>
       <c r="C115" s="7"/>
       <c r="D115" s="8"/>
@@ -4767,21 +4804,21 @@
         <v>1</v>
       </c>
       <c r="F115" s="6" t="s">
-        <v>116</v>
+        <v>499</v>
       </c>
       <c r="G115" s="9" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="H115" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A116" s="10" t="s">
-        <v>190</v>
-      </c>
-      <c r="B116" s="11" t="s">
-        <v>191</v>
+        <v>187</v>
+      </c>
+      <c r="B116" s="27" t="s">
+        <v>188</v>
       </c>
       <c r="C116" s="7"/>
       <c r="D116" s="8"/>
@@ -4789,21 +4826,21 @@
         <v>1</v>
       </c>
       <c r="F116" s="6" t="s">
-        <v>116</v>
+        <v>499</v>
       </c>
       <c r="G116" s="9" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="H116" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A117" s="10" t="s">
-        <v>192</v>
-      </c>
-      <c r="B117" s="11" t="s">
-        <v>193</v>
+        <v>189</v>
+      </c>
+      <c r="B117" s="27" t="s">
+        <v>190</v>
       </c>
       <c r="C117" s="7"/>
       <c r="D117" s="8"/>
@@ -4811,21 +4848,21 @@
         <v>1</v>
       </c>
       <c r="F117" s="6" t="s">
-        <v>116</v>
+        <v>499</v>
       </c>
       <c r="G117" s="9" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="H117" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A118" s="13" t="s">
-        <v>194</v>
-      </c>
-      <c r="B118" s="11" t="s">
-        <v>195</v>
+      <c r="A118" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="B118" s="27" t="s">
+        <v>192</v>
       </c>
       <c r="C118" s="7"/>
       <c r="D118" s="8"/>
@@ -4833,21 +4870,21 @@
         <v>1</v>
       </c>
       <c r="F118" s="6" t="s">
-        <v>116</v>
+        <v>499</v>
       </c>
       <c r="G118" s="9" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="H118" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A119" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="B119" s="11" t="s">
-        <v>197</v>
+        <v>193</v>
+      </c>
+      <c r="B119" s="27" t="s">
+        <v>194</v>
       </c>
       <c r="C119" s="7"/>
       <c r="D119" s="8"/>
@@ -4855,21 +4892,21 @@
         <v>1</v>
       </c>
       <c r="F119" s="6" t="s">
-        <v>116</v>
+        <v>499</v>
       </c>
       <c r="G119" s="9" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="H119" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A120" s="13" t="s">
-        <v>198</v>
-      </c>
-      <c r="B120" s="11" t="s">
-        <v>199</v>
+      <c r="A120" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="B120" s="27" t="s">
+        <v>196</v>
       </c>
       <c r="C120" s="7"/>
       <c r="D120" s="8"/>
@@ -4877,21 +4914,21 @@
         <v>1</v>
       </c>
       <c r="F120" s="6" t="s">
-        <v>116</v>
+        <v>499</v>
       </c>
       <c r="G120" s="9" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="H120" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A121" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="B121" s="11" t="s">
-        <v>201</v>
+        <v>197</v>
+      </c>
+      <c r="B121" s="27" t="s">
+        <v>198</v>
       </c>
       <c r="C121" s="7"/>
       <c r="D121" s="8"/>
@@ -4899,21 +4936,21 @@
         <v>1</v>
       </c>
       <c r="F121" s="6" t="s">
-        <v>116</v>
+        <v>499</v>
       </c>
       <c r="G121" s="9" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="H121" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A122" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="B122" s="11" t="s">
-        <v>203</v>
+        <v>199</v>
+      </c>
+      <c r="B122" s="27" t="s">
+        <v>200</v>
       </c>
       <c r="C122" s="7"/>
       <c r="D122" s="8"/>
@@ -4921,21 +4958,21 @@
         <v>1</v>
       </c>
       <c r="F122" s="6" t="s">
-        <v>116</v>
+        <v>499</v>
       </c>
       <c r="G122" s="9" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="H122" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A123" s="13" t="s">
-        <v>204</v>
-      </c>
-      <c r="B123" s="11" t="s">
-        <v>205</v>
+      <c r="A123" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="B123" s="27" t="s">
+        <v>202</v>
       </c>
       <c r="C123" s="7"/>
       <c r="D123" s="8"/>
@@ -4943,21 +4980,21 @@
         <v>1</v>
       </c>
       <c r="F123" s="6" t="s">
-        <v>116</v>
+        <v>499</v>
       </c>
       <c r="G123" s="9" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="H123" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A124" s="12" t="s">
-        <v>206</v>
-      </c>
-      <c r="B124" s="14" t="s">
-        <v>207</v>
+      <c r="A124" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="B124" s="28" t="s">
+        <v>204</v>
       </c>
       <c r="C124" s="7"/>
       <c r="D124" s="8"/>
@@ -4965,21 +5002,21 @@
         <v>1</v>
       </c>
       <c r="F124" s="6" t="s">
-        <v>116</v>
+        <v>499</v>
       </c>
       <c r="G124" s="9" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="H124" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A125" s="13" t="s">
-        <v>208</v>
-      </c>
-      <c r="B125" s="11" t="s">
-        <v>209</v>
+      <c r="A125" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="B125" s="27" t="s">
+        <v>206</v>
       </c>
       <c r="C125" s="7"/>
       <c r="D125" s="8"/>
@@ -4987,21 +5024,21 @@
         <v>1</v>
       </c>
       <c r="F125" s="6" t="s">
-        <v>116</v>
+        <v>499</v>
       </c>
       <c r="G125" s="9" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="H125" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A126" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="B126" s="11" t="s">
-        <v>211</v>
+        <v>207</v>
+      </c>
+      <c r="B126" s="27" t="s">
+        <v>208</v>
       </c>
       <c r="C126" s="7"/>
       <c r="D126" s="8"/>
@@ -5009,21 +5046,21 @@
         <v>1</v>
       </c>
       <c r="F126" s="6" t="s">
-        <v>116</v>
+        <v>499</v>
       </c>
       <c r="G126" s="9" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="H126" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A127" s="10" t="s">
-        <v>212</v>
-      </c>
-      <c r="B127" s="11" t="s">
-        <v>213</v>
+        <v>209</v>
+      </c>
+      <c r="B127" s="27" t="s">
+        <v>210</v>
       </c>
       <c r="C127" s="7"/>
       <c r="D127" s="8"/>
@@ -5031,21 +5068,21 @@
         <v>1</v>
       </c>
       <c r="F127" s="6" t="s">
-        <v>116</v>
+        <v>499</v>
       </c>
       <c r="G127" s="9" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="H127" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A128" s="10" t="s">
-        <v>214</v>
-      </c>
-      <c r="B128" s="11" t="s">
-        <v>215</v>
+        <v>211</v>
+      </c>
+      <c r="B128" s="27" t="s">
+        <v>212</v>
       </c>
       <c r="C128" s="7"/>
       <c r="D128" s="8"/>
@@ -5053,21 +5090,21 @@
         <v>1</v>
       </c>
       <c r="F128" s="6" t="s">
-        <v>116</v>
+        <v>499</v>
       </c>
       <c r="G128" s="9" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="H128" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A129" s="13" t="s">
-        <v>216</v>
-      </c>
-      <c r="B129" s="11" t="s">
-        <v>217</v>
+      <c r="A129" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="B129" s="27" t="s">
+        <v>214</v>
       </c>
       <c r="C129" s="7"/>
       <c r="D129" s="8"/>
@@ -5075,21 +5112,21 @@
         <v>1</v>
       </c>
       <c r="F129" s="6" t="s">
-        <v>116</v>
+        <v>499</v>
       </c>
       <c r="G129" s="9" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="H129" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A130" s="10" t="s">
-        <v>218</v>
-      </c>
-      <c r="B130" s="11" t="s">
-        <v>219</v>
+        <v>215</v>
+      </c>
+      <c r="B130" s="27" t="s">
+        <v>216</v>
       </c>
       <c r="C130" s="7"/>
       <c r="D130" s="8"/>
@@ -5097,21 +5134,21 @@
         <v>1</v>
       </c>
       <c r="F130" s="6" t="s">
-        <v>116</v>
+        <v>499</v>
       </c>
       <c r="G130" s="9" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="H130" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A131" s="10" t="s">
-        <v>220</v>
-      </c>
-      <c r="B131" s="11" t="s">
-        <v>221</v>
+        <v>217</v>
+      </c>
+      <c r="B131" s="27" t="s">
+        <v>218</v>
       </c>
       <c r="C131" s="7"/>
       <c r="D131" s="8"/>
@@ -5119,21 +5156,21 @@
         <v>1</v>
       </c>
       <c r="F131" s="6" t="s">
-        <v>116</v>
+        <v>499</v>
       </c>
       <c r="G131" s="9" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="H131" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A132" s="10" t="s">
-        <v>222</v>
-      </c>
-      <c r="B132" s="11" t="s">
-        <v>223</v>
+        <v>219</v>
+      </c>
+      <c r="B132" s="27" t="s">
+        <v>220</v>
       </c>
       <c r="C132" s="7"/>
       <c r="D132" s="8"/>
@@ -5141,21 +5178,21 @@
         <v>1</v>
       </c>
       <c r="F132" s="6" t="s">
-        <v>116</v>
+        <v>499</v>
       </c>
       <c r="G132" s="9" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="H132" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A133" s="10" t="s">
-        <v>224</v>
-      </c>
-      <c r="B133" s="11" t="s">
-        <v>225</v>
+        <v>221</v>
+      </c>
+      <c r="B133" s="27" t="s">
+        <v>222</v>
       </c>
       <c r="C133" s="7"/>
       <c r="D133" s="8"/>
@@ -5163,21 +5200,21 @@
         <v>1</v>
       </c>
       <c r="F133" s="6" t="s">
-        <v>116</v>
+        <v>499</v>
       </c>
       <c r="G133" s="9" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="H133" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A134" s="12" t="s">
-        <v>226</v>
-      </c>
-      <c r="B134" s="11" t="s">
-        <v>227</v>
+      <c r="A134" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="B134" s="27" t="s">
+        <v>224</v>
       </c>
       <c r="C134" s="7"/>
       <c r="D134" s="8"/>
@@ -5185,21 +5222,21 @@
         <v>1</v>
       </c>
       <c r="F134" s="6" t="s">
-        <v>116</v>
+        <v>499</v>
       </c>
       <c r="G134" s="9" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="H134" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A135" s="10" t="s">
-        <v>228</v>
-      </c>
-      <c r="B135" s="11" t="s">
-        <v>229</v>
+        <v>225</v>
+      </c>
+      <c r="B135" s="27" t="s">
+        <v>226</v>
       </c>
       <c r="C135" s="7"/>
       <c r="D135" s="8"/>
@@ -5207,21 +5244,21 @@
         <v>1</v>
       </c>
       <c r="F135" s="6" t="s">
-        <v>116</v>
+        <v>499</v>
       </c>
       <c r="G135" s="9" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="H135" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A136" s="10" t="s">
-        <v>230</v>
-      </c>
-      <c r="B136" s="11" t="s">
-        <v>231</v>
+        <v>227</v>
+      </c>
+      <c r="B136" s="27" t="s">
+        <v>228</v>
       </c>
       <c r="C136" s="7"/>
       <c r="D136" s="8"/>
@@ -5229,21 +5266,21 @@
         <v>1</v>
       </c>
       <c r="F136" s="6" t="s">
-        <v>116</v>
+        <v>499</v>
       </c>
       <c r="G136" s="9" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="H136" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A137" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="B137" s="11" t="s">
-        <v>233</v>
+        <v>229</v>
+      </c>
+      <c r="B137" s="27" t="s">
+        <v>230</v>
       </c>
       <c r="C137" s="7"/>
       <c r="D137" s="8"/>
@@ -5251,21 +5288,21 @@
         <v>1</v>
       </c>
       <c r="F137" s="6" t="s">
-        <v>116</v>
+        <v>499</v>
       </c>
       <c r="G137" s="9" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="H137" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A138" s="10" t="s">
-        <v>234</v>
-      </c>
-      <c r="B138" s="11" t="s">
-        <v>235</v>
+        <v>231</v>
+      </c>
+      <c r="B138" s="27" t="s">
+        <v>232</v>
       </c>
       <c r="C138" s="7"/>
       <c r="D138" s="8"/>
@@ -5273,21 +5310,21 @@
         <v>1</v>
       </c>
       <c r="F138" s="6" t="s">
-        <v>116</v>
+        <v>499</v>
       </c>
       <c r="G138" s="9" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="H138" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A139" s="10" t="s">
-        <v>236</v>
-      </c>
-      <c r="B139" s="11" t="s">
-        <v>237</v>
+        <v>233</v>
+      </c>
+      <c r="B139" s="27" t="s">
+        <v>234</v>
       </c>
       <c r="C139" s="7"/>
       <c r="D139" s="8"/>
@@ -5295,21 +5332,21 @@
         <v>1</v>
       </c>
       <c r="F139" s="6" t="s">
-        <v>116</v>
+        <v>499</v>
       </c>
       <c r="G139" s="9" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="H139" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A140" s="10" t="s">
-        <v>238</v>
-      </c>
-      <c r="B140" s="11" t="s">
-        <v>239</v>
+        <v>235</v>
+      </c>
+      <c r="B140" s="27" t="s">
+        <v>236</v>
       </c>
       <c r="C140" s="7"/>
       <c r="D140" s="8"/>
@@ -5317,21 +5354,21 @@
         <v>1</v>
       </c>
       <c r="F140" s="6" t="s">
-        <v>116</v>
+        <v>499</v>
       </c>
       <c r="G140" s="9" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="H140" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A141" s="10" t="s">
-        <v>240</v>
-      </c>
-      <c r="B141" s="11" t="s">
-        <v>241</v>
+        <v>237</v>
+      </c>
+      <c r="B141" s="27" t="s">
+        <v>238</v>
       </c>
       <c r="C141" s="7"/>
       <c r="D141" s="8"/>
@@ -5339,21 +5376,21 @@
         <v>1</v>
       </c>
       <c r="F141" s="6" t="s">
-        <v>116</v>
+        <v>499</v>
       </c>
       <c r="G141" s="9" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="H141" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A142" s="10" t="s">
-        <v>242</v>
-      </c>
-      <c r="B142" s="11" t="s">
-        <v>243</v>
+        <v>239</v>
+      </c>
+      <c r="B142" s="27" t="s">
+        <v>240</v>
       </c>
       <c r="C142" s="7"/>
       <c r="D142" s="8"/>
@@ -5361,21 +5398,21 @@
         <v>1</v>
       </c>
       <c r="F142" s="6" t="s">
-        <v>116</v>
+        <v>499</v>
       </c>
       <c r="G142" s="9" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="H142" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A143" s="10" t="s">
-        <v>244</v>
-      </c>
-      <c r="B143" s="11" t="s">
-        <v>245</v>
+        <v>241</v>
+      </c>
+      <c r="B143" s="27" t="s">
+        <v>242</v>
       </c>
       <c r="C143" s="7"/>
       <c r="D143" s="8"/>
@@ -5383,21 +5420,21 @@
         <v>1</v>
       </c>
       <c r="F143" s="6" t="s">
-        <v>116</v>
+        <v>499</v>
       </c>
       <c r="G143" s="9" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="H143" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A144" s="12" t="s">
-        <v>246</v>
-      </c>
-      <c r="B144" s="11" t="s">
-        <v>247</v>
+      <c r="A144" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="B144" s="27" t="s">
+        <v>244</v>
       </c>
       <c r="C144" s="7"/>
       <c r="D144" s="8"/>
@@ -5405,21 +5442,21 @@
         <v>1</v>
       </c>
       <c r="F144" s="6" t="s">
-        <v>116</v>
+        <v>499</v>
       </c>
       <c r="G144" s="9" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="H144" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A145" s="10" t="s">
-        <v>248</v>
-      </c>
-      <c r="B145" s="11" t="s">
-        <v>249</v>
+        <v>245</v>
+      </c>
+      <c r="B145" s="27" t="s">
+        <v>246</v>
       </c>
       <c r="C145" s="7"/>
       <c r="D145" s="8"/>
@@ -5427,21 +5464,21 @@
         <v>1</v>
       </c>
       <c r="F145" s="6" t="s">
-        <v>116</v>
+        <v>499</v>
       </c>
       <c r="G145" s="9" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="H145" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A146" s="10" t="s">
-        <v>250</v>
-      </c>
-      <c r="B146" s="15" t="s">
-        <v>251</v>
+        <v>247</v>
+      </c>
+      <c r="B146" s="29" t="s">
+        <v>248</v>
       </c>
       <c r="C146" s="7"/>
       <c r="D146" s="8"/>
@@ -5449,21 +5486,21 @@
         <v>1</v>
       </c>
       <c r="F146" s="6" t="s">
-        <v>116</v>
+        <v>499</v>
       </c>
       <c r="G146" s="9" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="H146" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A147" s="10" t="s">
-        <v>252</v>
-      </c>
-      <c r="B147" s="11" t="s">
-        <v>253</v>
+        <v>249</v>
+      </c>
+      <c r="B147" s="27" t="s">
+        <v>250</v>
       </c>
       <c r="C147" s="7"/>
       <c r="D147" s="8"/>
@@ -5471,21 +5508,21 @@
         <v>1</v>
       </c>
       <c r="F147" s="6" t="s">
-        <v>116</v>
+        <v>499</v>
       </c>
       <c r="G147" s="9" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="H147" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A148" s="10" t="s">
-        <v>254</v>
-      </c>
-      <c r="B148" s="11" t="s">
-        <v>255</v>
+        <v>251</v>
+      </c>
+      <c r="B148" s="27" t="s">
+        <v>252</v>
       </c>
       <c r="C148" s="7"/>
       <c r="D148" s="8"/>
@@ -5493,21 +5530,21 @@
         <v>1</v>
       </c>
       <c r="F148" s="6" t="s">
-        <v>116</v>
+        <v>499</v>
       </c>
       <c r="G148" s="9" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="H148" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A149" s="10" t="s">
-        <v>256</v>
-      </c>
-      <c r="B149" s="11" t="s">
-        <v>257</v>
+        <v>253</v>
+      </c>
+      <c r="B149" s="27" t="s">
+        <v>254</v>
       </c>
       <c r="C149" s="7"/>
       <c r="D149" s="8"/>
@@ -5515,21 +5552,21 @@
         <v>1</v>
       </c>
       <c r="F149" s="6" t="s">
-        <v>116</v>
+        <v>499</v>
       </c>
       <c r="G149" s="9" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="H149" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A150" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="B150" s="11" t="s">
-        <v>259</v>
+        <v>255</v>
+      </c>
+      <c r="B150" s="27" t="s">
+        <v>256</v>
       </c>
       <c r="C150" s="7"/>
       <c r="D150" s="8"/>
@@ -5537,21 +5574,21 @@
         <v>1</v>
       </c>
       <c r="F150" s="6" t="s">
-        <v>116</v>
+        <v>499</v>
       </c>
       <c r="G150" s="9" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="H150" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A151" s="10" t="s">
-        <v>260</v>
-      </c>
-      <c r="B151" s="11" t="s">
-        <v>261</v>
+        <v>257</v>
+      </c>
+      <c r="B151" s="27" t="s">
+        <v>258</v>
       </c>
       <c r="C151" s="7"/>
       <c r="D151" s="8"/>
@@ -5559,21 +5596,21 @@
         <v>1</v>
       </c>
       <c r="F151" s="6" t="s">
-        <v>116</v>
+        <v>499</v>
       </c>
       <c r="G151" s="9" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="H151" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A152" s="10" t="s">
-        <v>262</v>
-      </c>
-      <c r="B152" s="11" t="s">
-        <v>263</v>
+        <v>259</v>
+      </c>
+      <c r="B152" s="27" t="s">
+        <v>260</v>
       </c>
       <c r="C152" s="7"/>
       <c r="D152" s="8"/>
@@ -5581,21 +5618,21 @@
         <v>1</v>
       </c>
       <c r="F152" s="6" t="s">
-        <v>116</v>
+        <v>499</v>
       </c>
       <c r="G152" s="9" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="H152" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A153" s="12" t="s">
-        <v>264</v>
-      </c>
-      <c r="B153" s="11" t="s">
-        <v>265</v>
+      <c r="A153" s="11" t="s">
+        <v>261</v>
+      </c>
+      <c r="B153" s="27" t="s">
+        <v>262</v>
       </c>
       <c r="C153" s="7"/>
       <c r="D153" s="8"/>
@@ -5603,21 +5640,21 @@
         <v>1</v>
       </c>
       <c r="F153" s="6" t="s">
-        <v>116</v>
+        <v>499</v>
       </c>
       <c r="G153" s="9" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="H153" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A154" s="10" t="s">
-        <v>266</v>
-      </c>
-      <c r="B154" s="11" t="s">
-        <v>267</v>
+        <v>263</v>
+      </c>
+      <c r="B154" s="27" t="s">
+        <v>264</v>
       </c>
       <c r="C154" s="7"/>
       <c r="D154" s="8"/>
@@ -5625,21 +5662,21 @@
         <v>1</v>
       </c>
       <c r="F154" s="6" t="s">
-        <v>116</v>
+        <v>499</v>
       </c>
       <c r="G154" s="9" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="H154" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A155" s="10" t="s">
-        <v>268</v>
-      </c>
-      <c r="B155" s="11" t="s">
-        <v>269</v>
+        <v>265</v>
+      </c>
+      <c r="B155" s="27" t="s">
+        <v>266</v>
       </c>
       <c r="C155" s="7"/>
       <c r="D155" s="8"/>
@@ -5647,21 +5684,21 @@
         <v>1</v>
       </c>
       <c r="F155" s="6" t="s">
-        <v>116</v>
+        <v>499</v>
       </c>
       <c r="G155" s="9" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="H155" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A156" s="10" t="s">
-        <v>270</v>
-      </c>
-      <c r="B156" s="11" t="s">
-        <v>271</v>
+        <v>267</v>
+      </c>
+      <c r="B156" s="27" t="s">
+        <v>268</v>
       </c>
       <c r="C156" s="7"/>
       <c r="D156" s="8"/>
@@ -5669,21 +5706,21 @@
         <v>1</v>
       </c>
       <c r="F156" s="6" t="s">
-        <v>116</v>
+        <v>499</v>
       </c>
       <c r="G156" s="9" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="H156" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A157" s="16" t="s">
-        <v>272</v>
-      </c>
-      <c r="B157" s="11" t="s">
-        <v>273</v>
+      <c r="A157" s="13" t="s">
+        <v>269</v>
+      </c>
+      <c r="B157" s="27" t="s">
+        <v>270</v>
       </c>
       <c r="C157" s="7"/>
       <c r="D157" s="8"/>
@@ -5691,21 +5728,21 @@
         <v>1</v>
       </c>
       <c r="F157" s="6" t="s">
-        <v>116</v>
+        <v>499</v>
       </c>
       <c r="G157" s="9" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="H157" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A158" s="12" t="s">
-        <v>274</v>
-      </c>
-      <c r="B158" s="11" t="s">
-        <v>275</v>
+      <c r="A158" s="11" t="s">
+        <v>271</v>
+      </c>
+      <c r="B158" s="27" t="s">
+        <v>272</v>
       </c>
       <c r="C158" s="7"/>
       <c r="D158" s="8"/>
@@ -5713,21 +5750,21 @@
         <v>1</v>
       </c>
       <c r="F158" s="6" t="s">
-        <v>116</v>
+        <v>499</v>
       </c>
       <c r="G158" s="9" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="H158" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A159" s="16" t="s">
-        <v>276</v>
-      </c>
-      <c r="B159" s="11" t="s">
-        <v>277</v>
+      <c r="A159" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="B159" s="27" t="s">
+        <v>274</v>
       </c>
       <c r="C159" s="7"/>
       <c r="D159" s="8"/>
@@ -5735,21 +5772,21 @@
         <v>1</v>
       </c>
       <c r="F159" s="6" t="s">
-        <v>116</v>
+        <v>499</v>
       </c>
       <c r="G159" s="9" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="H159" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A160" s="12" t="s">
-        <v>278</v>
-      </c>
-      <c r="B160" s="11" t="s">
-        <v>279</v>
+      <c r="A160" s="11" t="s">
+        <v>275</v>
+      </c>
+      <c r="B160" s="27" t="s">
+        <v>276</v>
       </c>
       <c r="C160" s="7"/>
       <c r="D160" s="8"/>
@@ -5757,21 +5794,21 @@
         <v>1</v>
       </c>
       <c r="F160" s="6" t="s">
-        <v>116</v>
+        <v>499</v>
       </c>
       <c r="G160" s="9" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="H160" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A161" s="16" t="s">
-        <v>280</v>
-      </c>
-      <c r="B161" s="11" t="s">
-        <v>281</v>
+      <c r="A161" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="B161" s="27" t="s">
+        <v>278</v>
       </c>
       <c r="C161" s="7"/>
       <c r="D161" s="8"/>
@@ -5779,21 +5816,21 @@
         <v>1</v>
       </c>
       <c r="F161" s="6" t="s">
-        <v>116</v>
+        <v>499</v>
       </c>
       <c r="G161" s="9" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="H161" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A162" s="12" t="s">
-        <v>282</v>
-      </c>
-      <c r="B162" s="11" t="s">
-        <v>283</v>
+      <c r="A162" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="B162" s="27" t="s">
+        <v>280</v>
       </c>
       <c r="C162" s="7"/>
       <c r="D162" s="8"/>
@@ -5801,21 +5838,21 @@
         <v>1</v>
       </c>
       <c r="F162" s="6" t="s">
-        <v>116</v>
+        <v>499</v>
       </c>
       <c r="G162" s="9" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="H162" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A163" s="16" t="s">
-        <v>284</v>
-      </c>
-      <c r="B163" s="11" t="s">
-        <v>285</v>
+      <c r="A163" s="13" t="s">
+        <v>281</v>
+      </c>
+      <c r="B163" s="27" t="s">
+        <v>282</v>
       </c>
       <c r="C163" s="7"/>
       <c r="D163" s="8"/>
@@ -5823,21 +5860,21 @@
         <v>1</v>
       </c>
       <c r="F163" s="6" t="s">
-        <v>116</v>
+        <v>499</v>
       </c>
       <c r="G163" s="9" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="H163" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A164" s="12" t="s">
-        <v>286</v>
-      </c>
-      <c r="B164" s="11" t="s">
-        <v>287</v>
+      <c r="A164" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="B164" s="27" t="s">
+        <v>284</v>
       </c>
       <c r="C164" s="7"/>
       <c r="D164" s="8"/>
@@ -5845,21 +5882,21 @@
         <v>1</v>
       </c>
       <c r="F164" s="6" t="s">
-        <v>116</v>
+        <v>499</v>
       </c>
       <c r="G164" s="9" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="H164" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A165" s="16" t="s">
-        <v>288</v>
-      </c>
-      <c r="B165" s="11" t="s">
-        <v>289</v>
+      <c r="A165" s="13" t="s">
+        <v>285</v>
+      </c>
+      <c r="B165" s="27" t="s">
+        <v>286</v>
       </c>
       <c r="C165" s="7"/>
       <c r="D165" s="8"/>
@@ -5867,21 +5904,21 @@
         <v>1</v>
       </c>
       <c r="F165" s="6" t="s">
-        <v>116</v>
+        <v>499</v>
       </c>
       <c r="G165" s="9" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="H165" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A166" s="12" t="s">
-        <v>290</v>
-      </c>
-      <c r="B166" s="11" t="s">
-        <v>291</v>
+      <c r="A166" s="11" t="s">
+        <v>287</v>
+      </c>
+      <c r="B166" s="27" t="s">
+        <v>288</v>
       </c>
       <c r="C166" s="7"/>
       <c r="D166" s="8"/>
@@ -5889,21 +5926,21 @@
         <v>1</v>
       </c>
       <c r="F166" s="6" t="s">
-        <v>116</v>
+        <v>499</v>
       </c>
       <c r="G166" s="9" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="H166" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A167" s="12" t="s">
-        <v>292</v>
-      </c>
-      <c r="B167" s="11" t="s">
-        <v>293</v>
+      <c r="A167" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="B167" s="27" t="s">
+        <v>290</v>
       </c>
       <c r="C167" s="7"/>
       <c r="D167" s="8"/>
@@ -5911,21 +5948,21 @@
         <v>1</v>
       </c>
       <c r="F167" s="6" t="s">
-        <v>116</v>
+        <v>499</v>
       </c>
       <c r="G167" s="9" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="H167" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A168" s="12" t="s">
-        <v>294</v>
-      </c>
-      <c r="B168" s="11" t="s">
-        <v>295</v>
+      <c r="A168" s="11" t="s">
+        <v>291</v>
+      </c>
+      <c r="B168" s="27" t="s">
+        <v>292</v>
       </c>
       <c r="C168" s="7"/>
       <c r="D168" s="8"/>
@@ -5933,21 +5970,21 @@
         <v>1</v>
       </c>
       <c r="F168" s="6" t="s">
-        <v>116</v>
+        <v>499</v>
       </c>
       <c r="G168" s="9" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="H168" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A169" s="12" t="s">
-        <v>296</v>
-      </c>
-      <c r="B169" s="11" t="s">
-        <v>297</v>
+      <c r="A169" s="11" t="s">
+        <v>293</v>
+      </c>
+      <c r="B169" s="27" t="s">
+        <v>294</v>
       </c>
       <c r="C169" s="7"/>
       <c r="D169" s="8"/>
@@ -5955,21 +5992,21 @@
         <v>1</v>
       </c>
       <c r="F169" s="6" t="s">
-        <v>116</v>
+        <v>499</v>
       </c>
       <c r="G169" s="9" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="H169" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A170" s="10" t="s">
-        <v>298</v>
-      </c>
-      <c r="B170" s="11" t="s">
-        <v>299</v>
+        <v>295</v>
+      </c>
+      <c r="B170" s="27" t="s">
+        <v>296</v>
       </c>
       <c r="C170" s="7"/>
       <c r="D170" s="8"/>
@@ -5977,21 +6014,21 @@
         <v>1</v>
       </c>
       <c r="F170" s="6" t="s">
-        <v>116</v>
+        <v>499</v>
       </c>
       <c r="G170" s="9" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="H170" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A171" s="12" t="s">
-        <v>300</v>
-      </c>
-      <c r="B171" s="11" t="s">
-        <v>301</v>
+      <c r="A171" s="11" t="s">
+        <v>297</v>
+      </c>
+      <c r="B171" s="27" t="s">
+        <v>298</v>
       </c>
       <c r="C171" s="7"/>
       <c r="D171" s="8"/>
@@ -5999,21 +6036,21 @@
         <v>1</v>
       </c>
       <c r="F171" s="6" t="s">
-        <v>116</v>
+        <v>499</v>
       </c>
       <c r="G171" s="9" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="H171" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A172" s="12" t="s">
-        <v>302</v>
-      </c>
-      <c r="B172" s="11" t="s">
-        <v>303</v>
+      <c r="A172" s="11" t="s">
+        <v>299</v>
+      </c>
+      <c r="B172" s="27" t="s">
+        <v>300</v>
       </c>
       <c r="C172" s="7"/>
       <c r="D172" s="8"/>
@@ -6021,21 +6058,21 @@
         <v>1</v>
       </c>
       <c r="F172" s="6" t="s">
-        <v>116</v>
+        <v>499</v>
       </c>
       <c r="G172" s="9" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="H172" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A173" s="12" t="s">
-        <v>304</v>
-      </c>
-      <c r="B173" s="11" t="s">
-        <v>305</v>
+      <c r="A173" s="11" t="s">
+        <v>301</v>
+      </c>
+      <c r="B173" s="27" t="s">
+        <v>302</v>
       </c>
       <c r="C173" s="7"/>
       <c r="D173" s="8"/>
@@ -6043,21 +6080,21 @@
         <v>1</v>
       </c>
       <c r="F173" s="6" t="s">
-        <v>116</v>
+        <v>499</v>
       </c>
       <c r="G173" s="9" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="H173" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A174" s="16" t="s">
-        <v>306</v>
-      </c>
-      <c r="B174" s="11" t="s">
-        <v>307</v>
+      <c r="A174" s="13" t="s">
+        <v>303</v>
+      </c>
+      <c r="B174" s="27" t="s">
+        <v>304</v>
       </c>
       <c r="C174" s="7"/>
       <c r="D174" s="8"/>
@@ -6065,21 +6102,21 @@
         <v>1</v>
       </c>
       <c r="F174" s="6" t="s">
-        <v>116</v>
+        <v>499</v>
       </c>
       <c r="G174" s="9" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="H174" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A175" s="16" t="s">
-        <v>308</v>
-      </c>
-      <c r="B175" s="11" t="s">
-        <v>309</v>
+      <c r="A175" s="13" t="s">
+        <v>305</v>
+      </c>
+      <c r="B175" s="27" t="s">
+        <v>306</v>
       </c>
       <c r="C175" s="7"/>
       <c r="D175" s="8"/>
@@ -6087,21 +6124,21 @@
         <v>1</v>
       </c>
       <c r="F175" s="6" t="s">
-        <v>116</v>
+        <v>499</v>
       </c>
       <c r="G175" s="9" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="H175" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A176" s="17" t="s">
-        <v>310</v>
-      </c>
-      <c r="B176" s="15" t="s">
-        <v>311</v>
+      <c r="A176" s="14" t="s">
+        <v>307</v>
+      </c>
+      <c r="B176" s="29" t="s">
+        <v>308</v>
       </c>
       <c r="C176" s="7"/>
       <c r="D176" s="8"/>
@@ -6109,21 +6146,21 @@
         <v>1</v>
       </c>
       <c r="F176" s="6" t="s">
-        <v>116</v>
+        <v>499</v>
       </c>
       <c r="G176" s="9" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="H176" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A177" s="16" t="s">
-        <v>312</v>
-      </c>
-      <c r="B177" s="11" t="s">
-        <v>313</v>
+      <c r="A177" s="13" t="s">
+        <v>309</v>
+      </c>
+      <c r="B177" s="27" t="s">
+        <v>310</v>
       </c>
       <c r="C177" s="7"/>
       <c r="D177" s="8"/>
@@ -6131,21 +6168,21 @@
         <v>1</v>
       </c>
       <c r="F177" s="6" t="s">
-        <v>116</v>
+        <v>499</v>
       </c>
       <c r="G177" s="9" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="H177" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A178" s="16" t="s">
-        <v>314</v>
-      </c>
-      <c r="B178" s="11" t="s">
-        <v>315</v>
+      <c r="A178" s="13" t="s">
+        <v>311</v>
+      </c>
+      <c r="B178" s="27" t="s">
+        <v>312</v>
       </c>
       <c r="C178" s="7"/>
       <c r="D178" s="8"/>
@@ -6153,21 +6190,21 @@
         <v>1</v>
       </c>
       <c r="F178" s="6" t="s">
-        <v>116</v>
+        <v>499</v>
       </c>
       <c r="G178" s="9" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="H178" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A179" s="12" t="s">
-        <v>316</v>
-      </c>
-      <c r="B179" s="11" t="s">
-        <v>317</v>
+      <c r="A179" s="11" t="s">
+        <v>313</v>
+      </c>
+      <c r="B179" s="27" t="s">
+        <v>314</v>
       </c>
       <c r="C179" s="7"/>
       <c r="D179" s="8"/>
@@ -6175,21 +6212,21 @@
         <v>1</v>
       </c>
       <c r="F179" s="6" t="s">
-        <v>116</v>
+        <v>499</v>
       </c>
       <c r="G179" s="9" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="H179" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A180" s="16" t="s">
-        <v>318</v>
-      </c>
-      <c r="B180" s="11" t="s">
-        <v>319</v>
+      <c r="A180" s="13" t="s">
+        <v>315</v>
+      </c>
+      <c r="B180" s="27" t="s">
+        <v>316</v>
       </c>
       <c r="C180" s="7"/>
       <c r="D180" s="8"/>
@@ -6197,21 +6234,21 @@
         <v>1</v>
       </c>
       <c r="F180" s="6" t="s">
-        <v>116</v>
+        <v>499</v>
       </c>
       <c r="G180" s="9" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="H180" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A181" s="12" t="s">
-        <v>320</v>
-      </c>
-      <c r="B181" s="11" t="s">
-        <v>321</v>
+      <c r="A181" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="B181" s="27" t="s">
+        <v>318</v>
       </c>
       <c r="C181" s="7"/>
       <c r="D181" s="8"/>
@@ -6219,21 +6256,21 @@
         <v>1</v>
       </c>
       <c r="F181" s="6" t="s">
-        <v>116</v>
+        <v>499</v>
       </c>
       <c r="G181" s="9" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="H181" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A182" s="12" t="s">
-        <v>322</v>
-      </c>
-      <c r="B182" s="11" t="s">
-        <v>323</v>
+      <c r="A182" s="11" t="s">
+        <v>319</v>
+      </c>
+      <c r="B182" s="27" t="s">
+        <v>320</v>
       </c>
       <c r="C182" s="7"/>
       <c r="D182" s="8"/>
@@ -6241,21 +6278,21 @@
         <v>1</v>
       </c>
       <c r="F182" s="6" t="s">
-        <v>116</v>
+        <v>499</v>
       </c>
       <c r="G182" s="9" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="H182" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A183" s="12" t="s">
-        <v>324</v>
-      </c>
-      <c r="B183" s="11" t="s">
-        <v>325</v>
+      <c r="A183" s="11" t="s">
+        <v>321</v>
+      </c>
+      <c r="B183" s="27" t="s">
+        <v>322</v>
       </c>
       <c r="C183" s="7"/>
       <c r="D183" s="8"/>
@@ -6263,21 +6300,21 @@
         <v>1</v>
       </c>
       <c r="F183" s="6" t="s">
-        <v>116</v>
+        <v>499</v>
       </c>
       <c r="G183" s="9" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="H183" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A184" s="12" t="s">
-        <v>326</v>
-      </c>
-      <c r="B184" s="11" t="s">
-        <v>327</v>
+      <c r="A184" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="B184" s="27" t="s">
+        <v>324</v>
       </c>
       <c r="C184" s="7"/>
       <c r="D184" s="8"/>
@@ -6285,21 +6322,21 @@
         <v>1</v>
       </c>
       <c r="F184" s="6" t="s">
-        <v>116</v>
+        <v>499</v>
       </c>
       <c r="G184" s="9" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="H184" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A185" s="12" t="s">
-        <v>328</v>
-      </c>
-      <c r="B185" s="11" t="s">
-        <v>329</v>
+      <c r="A185" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="B185" s="27" t="s">
+        <v>326</v>
       </c>
       <c r="C185" s="7"/>
       <c r="D185" s="8"/>
@@ -6307,21 +6344,21 @@
         <v>1</v>
       </c>
       <c r="F185" s="6" t="s">
-        <v>116</v>
+        <v>499</v>
       </c>
       <c r="G185" s="9" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="H185" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A186" s="12" t="s">
-        <v>330</v>
-      </c>
-      <c r="B186" s="11" t="s">
-        <v>331</v>
+      <c r="A186" s="11" t="s">
+        <v>327</v>
+      </c>
+      <c r="B186" s="27" t="s">
+        <v>328</v>
       </c>
       <c r="C186" s="7"/>
       <c r="D186" s="8"/>
@@ -6329,21 +6366,21 @@
         <v>1</v>
       </c>
       <c r="F186" s="6" t="s">
-        <v>116</v>
+        <v>499</v>
       </c>
       <c r="G186" s="9" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="H186" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A187" s="12" t="s">
-        <v>332</v>
-      </c>
-      <c r="B187" s="11" t="s">
-        <v>333</v>
+      <c r="A187" s="11" t="s">
+        <v>329</v>
+      </c>
+      <c r="B187" s="27" t="s">
+        <v>330</v>
       </c>
       <c r="C187" s="7"/>
       <c r="D187" s="8"/>
@@ -6351,21 +6388,21 @@
         <v>1</v>
       </c>
       <c r="F187" s="6" t="s">
-        <v>116</v>
+        <v>499</v>
       </c>
       <c r="G187" s="9" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="H187" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A188" s="12" t="s">
-        <v>334</v>
-      </c>
-      <c r="B188" s="11" t="s">
-        <v>335</v>
+      <c r="A188" s="11" t="s">
+        <v>331</v>
+      </c>
+      <c r="B188" s="27" t="s">
+        <v>332</v>
       </c>
       <c r="C188" s="7"/>
       <c r="D188" s="8"/>
@@ -6373,21 +6410,21 @@
         <v>1</v>
       </c>
       <c r="F188" s="6" t="s">
-        <v>116</v>
+        <v>499</v>
       </c>
       <c r="G188" s="9" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="H188" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A189" s="12" t="s">
-        <v>336</v>
-      </c>
-      <c r="B189" s="11" t="s">
-        <v>337</v>
+      <c r="A189" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="B189" s="27" t="s">
+        <v>334</v>
       </c>
       <c r="C189" s="7"/>
       <c r="D189" s="8"/>
@@ -6395,21 +6432,21 @@
         <v>1</v>
       </c>
       <c r="F189" s="6" t="s">
-        <v>116</v>
+        <v>499</v>
       </c>
       <c r="G189" s="9" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="H189" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A190" s="12" t="s">
-        <v>338</v>
-      </c>
-      <c r="B190" s="11" t="s">
-        <v>339</v>
+      <c r="A190" s="11" t="s">
+        <v>335</v>
+      </c>
+      <c r="B190" s="27" t="s">
+        <v>336</v>
       </c>
       <c r="C190" s="7"/>
       <c r="D190" s="8"/>
@@ -6417,21 +6454,21 @@
         <v>1</v>
       </c>
       <c r="F190" s="6" t="s">
-        <v>116</v>
+        <v>499</v>
       </c>
       <c r="G190" s="9" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="H190" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A191" s="12" t="s">
-        <v>340</v>
-      </c>
-      <c r="B191" s="11" t="s">
-        <v>341</v>
+      <c r="A191" s="11" t="s">
+        <v>337</v>
+      </c>
+      <c r="B191" s="27" t="s">
+        <v>338</v>
       </c>
       <c r="C191" s="7"/>
       <c r="D191" s="8"/>
@@ -6439,21 +6476,21 @@
         <v>1</v>
       </c>
       <c r="F191" s="6" t="s">
-        <v>116</v>
+        <v>499</v>
       </c>
       <c r="G191" s="9" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="H191" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A192" s="12" t="s">
-        <v>342</v>
-      </c>
-      <c r="B192" s="11" t="s">
-        <v>343</v>
+      <c r="A192" s="11" t="s">
+        <v>339</v>
+      </c>
+      <c r="B192" s="27" t="s">
+        <v>340</v>
       </c>
       <c r="C192" s="7"/>
       <c r="D192" s="8"/>
@@ -6461,21 +6498,21 @@
         <v>1</v>
       </c>
       <c r="F192" s="6" t="s">
-        <v>116</v>
+        <v>499</v>
       </c>
       <c r="G192" s="9" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="H192" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A193" s="12" t="s">
-        <v>344</v>
-      </c>
-      <c r="B193" s="11" t="s">
-        <v>345</v>
+      <c r="A193" s="11" t="s">
+        <v>341</v>
+      </c>
+      <c r="B193" s="27" t="s">
+        <v>342</v>
       </c>
       <c r="C193" s="7"/>
       <c r="D193" s="8"/>
@@ -6483,21 +6520,21 @@
         <v>1</v>
       </c>
       <c r="F193" s="6" t="s">
-        <v>116</v>
+        <v>499</v>
       </c>
       <c r="G193" s="9" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="H193" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A194" s="12" t="s">
-        <v>346</v>
-      </c>
-      <c r="B194" s="11" t="s">
-        <v>347</v>
+      <c r="A194" s="11" t="s">
+        <v>343</v>
+      </c>
+      <c r="B194" s="27" t="s">
+        <v>344</v>
       </c>
       <c r="C194" s="7"/>
       <c r="D194" s="8"/>
@@ -6505,21 +6542,21 @@
         <v>1</v>
       </c>
       <c r="F194" s="6" t="s">
-        <v>116</v>
+        <v>499</v>
       </c>
       <c r="G194" s="9" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="H194" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A195" s="18" t="s">
-        <v>348</v>
-      </c>
-      <c r="B195" s="19" t="s">
-        <v>349</v>
+      <c r="A195" s="15" t="s">
+        <v>345</v>
+      </c>
+      <c r="B195" s="30" t="s">
+        <v>346</v>
       </c>
       <c r="C195" s="7"/>
       <c r="D195" s="8"/>
@@ -6527,21 +6564,21 @@
         <v>1</v>
       </c>
       <c r="F195" s="6" t="s">
-        <v>116</v>
+        <v>499</v>
       </c>
       <c r="G195" s="9" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="H195" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A196" s="12" t="s">
-        <v>350</v>
-      </c>
-      <c r="B196" s="11" t="s">
-        <v>351</v>
+      <c r="A196" s="11" t="s">
+        <v>347</v>
+      </c>
+      <c r="B196" s="27" t="s">
+        <v>348</v>
       </c>
       <c r="C196" s="7"/>
       <c r="D196" s="8"/>
@@ -6549,21 +6586,21 @@
         <v>1</v>
       </c>
       <c r="F196" s="6" t="s">
-        <v>116</v>
+        <v>499</v>
       </c>
       <c r="G196" s="9" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="H196" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A197" s="12" t="s">
-        <v>352</v>
-      </c>
-      <c r="B197" s="11" t="s">
-        <v>353</v>
+      <c r="A197" s="11" t="s">
+        <v>349</v>
+      </c>
+      <c r="B197" s="27" t="s">
+        <v>350</v>
       </c>
       <c r="C197" s="7"/>
       <c r="D197" s="8"/>
@@ -6571,21 +6608,21 @@
         <v>1</v>
       </c>
       <c r="F197" s="6" t="s">
-        <v>116</v>
+        <v>499</v>
       </c>
       <c r="G197" s="9" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="H197" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A198" s="12" t="s">
-        <v>354</v>
-      </c>
-      <c r="B198" s="11" t="s">
-        <v>355</v>
+      <c r="A198" s="11" t="s">
+        <v>351</v>
+      </c>
+      <c r="B198" s="27" t="s">
+        <v>352</v>
       </c>
       <c r="C198" s="7"/>
       <c r="D198" s="8"/>
@@ -6593,21 +6630,21 @@
         <v>1</v>
       </c>
       <c r="F198" s="6" t="s">
-        <v>116</v>
+        <v>499</v>
       </c>
       <c r="G198" s="9" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="H198" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A199" s="12" t="s">
-        <v>356</v>
-      </c>
-      <c r="B199" s="11" t="s">
-        <v>357</v>
+      <c r="A199" s="11" t="s">
+        <v>353</v>
+      </c>
+      <c r="B199" s="27" t="s">
+        <v>354</v>
       </c>
       <c r="C199" s="7"/>
       <c r="D199" s="8"/>
@@ -6615,21 +6652,21 @@
         <v>1</v>
       </c>
       <c r="F199" s="6" t="s">
-        <v>116</v>
+        <v>499</v>
       </c>
       <c r="G199" s="9" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="H199" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A200" s="12" t="s">
-        <v>358</v>
-      </c>
-      <c r="B200" s="11" t="s">
-        <v>359</v>
+      <c r="A200" s="11" t="s">
+        <v>355</v>
+      </c>
+      <c r="B200" s="27" t="s">
+        <v>356</v>
       </c>
       <c r="C200" s="7"/>
       <c r="D200" s="8"/>
@@ -6637,21 +6674,21 @@
         <v>1</v>
       </c>
       <c r="F200" s="6" t="s">
-        <v>116</v>
+        <v>499</v>
       </c>
       <c r="G200" s="9" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="H200" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A201" s="12" t="s">
-        <v>360</v>
-      </c>
-      <c r="B201" s="11" t="s">
-        <v>361</v>
+      <c r="A201" s="11" t="s">
+        <v>357</v>
+      </c>
+      <c r="B201" s="27" t="s">
+        <v>358</v>
       </c>
       <c r="C201" s="7"/>
       <c r="D201" s="8"/>
@@ -6659,21 +6696,21 @@
         <v>1</v>
       </c>
       <c r="F201" s="6" t="s">
-        <v>116</v>
+        <v>499</v>
       </c>
       <c r="G201" s="9" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="H201" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A202" s="12" t="s">
-        <v>362</v>
-      </c>
-      <c r="B202" s="11" t="s">
-        <v>363</v>
+      <c r="A202" s="11" t="s">
+        <v>359</v>
+      </c>
+      <c r="B202" s="27" t="s">
+        <v>360</v>
       </c>
       <c r="C202" s="7"/>
       <c r="D202" s="8"/>
@@ -6681,21 +6718,21 @@
         <v>1</v>
       </c>
       <c r="F202" s="6" t="s">
-        <v>116</v>
+        <v>499</v>
       </c>
       <c r="G202" s="9" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="H202" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A203" s="12" t="s">
-        <v>364</v>
-      </c>
-      <c r="B203" s="11" t="s">
-        <v>365</v>
+      <c r="A203" s="11" t="s">
+        <v>361</v>
+      </c>
+      <c r="B203" s="27" t="s">
+        <v>362</v>
       </c>
       <c r="C203" s="7"/>
       <c r="D203" s="8"/>
@@ -6703,21 +6740,21 @@
         <v>1</v>
       </c>
       <c r="F203" s="6" t="s">
-        <v>116</v>
+        <v>499</v>
       </c>
       <c r="G203" s="9" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="H203" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A204" s="12" t="s">
-        <v>366</v>
-      </c>
-      <c r="B204" s="11" t="s">
-        <v>367</v>
+      <c r="A204" s="11" t="s">
+        <v>363</v>
+      </c>
+      <c r="B204" s="27" t="s">
+        <v>364</v>
       </c>
       <c r="C204" s="7"/>
       <c r="D204" s="8"/>
@@ -6725,21 +6762,21 @@
         <v>1</v>
       </c>
       <c r="F204" s="6" t="s">
-        <v>116</v>
+        <v>499</v>
       </c>
       <c r="G204" s="9" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="H204" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A205" s="12" t="s">
-        <v>368</v>
-      </c>
-      <c r="B205" s="11" t="s">
-        <v>369</v>
+      <c r="A205" s="11" t="s">
+        <v>365</v>
+      </c>
+      <c r="B205" s="27" t="s">
+        <v>366</v>
       </c>
       <c r="C205" s="7"/>
       <c r="D205" s="8"/>
@@ -6747,21 +6784,21 @@
         <v>1</v>
       </c>
       <c r="F205" s="6" t="s">
-        <v>116</v>
+        <v>499</v>
       </c>
       <c r="G205" s="9" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="H205" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A206" s="12" t="s">
-        <v>370</v>
-      </c>
-      <c r="B206" s="11" t="s">
-        <v>371</v>
+      <c r="A206" s="11" t="s">
+        <v>367</v>
+      </c>
+      <c r="B206" s="27" t="s">
+        <v>368</v>
       </c>
       <c r="C206" s="7"/>
       <c r="D206" s="8"/>
@@ -6769,21 +6806,21 @@
         <v>1</v>
       </c>
       <c r="F206" s="6" t="s">
-        <v>116</v>
+        <v>499</v>
       </c>
       <c r="G206" s="9" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="H206" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A207" s="12" t="s">
-        <v>372</v>
-      </c>
-      <c r="B207" s="11" t="s">
-        <v>373</v>
+      <c r="A207" s="11" t="s">
+        <v>369</v>
+      </c>
+      <c r="B207" s="27" t="s">
+        <v>370</v>
       </c>
       <c r="C207" s="7"/>
       <c r="D207" s="8"/>
@@ -6791,21 +6828,21 @@
         <v>1</v>
       </c>
       <c r="F207" s="6" t="s">
-        <v>116</v>
+        <v>499</v>
       </c>
       <c r="G207" s="9" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="H207" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A208" s="12" t="s">
-        <v>374</v>
-      </c>
-      <c r="B208" s="11" t="s">
-        <v>375</v>
+      <c r="A208" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="B208" s="27" t="s">
+        <v>372</v>
       </c>
       <c r="C208" s="7"/>
       <c r="D208" s="8"/>
@@ -6813,21 +6850,21 @@
         <v>1</v>
       </c>
       <c r="F208" s="6" t="s">
-        <v>116</v>
+        <v>499</v>
       </c>
       <c r="G208" s="9" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="H208" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A209" s="12" t="s">
-        <v>376</v>
-      </c>
-      <c r="B209" s="11" t="s">
-        <v>377</v>
+      <c r="A209" s="11" t="s">
+        <v>373</v>
+      </c>
+      <c r="B209" s="27" t="s">
+        <v>374</v>
       </c>
       <c r="C209" s="7"/>
       <c r="D209" s="8"/>
@@ -6835,21 +6872,21 @@
         <v>1</v>
       </c>
       <c r="F209" s="6" t="s">
-        <v>116</v>
+        <v>499</v>
       </c>
       <c r="G209" s="9" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="H209" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A210" s="12" t="s">
-        <v>378</v>
-      </c>
-      <c r="B210" s="11" t="s">
-        <v>379</v>
+      <c r="A210" s="11" t="s">
+        <v>375</v>
+      </c>
+      <c r="B210" s="27" t="s">
+        <v>376</v>
       </c>
       <c r="C210" s="7"/>
       <c r="D210" s="8"/>
@@ -6857,21 +6894,21 @@
         <v>1</v>
       </c>
       <c r="F210" s="6" t="s">
-        <v>116</v>
+        <v>499</v>
       </c>
       <c r="G210" s="9" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="H210" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A211" s="12" t="s">
-        <v>380</v>
-      </c>
-      <c r="B211" s="11" t="s">
-        <v>381</v>
+      <c r="A211" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="B211" s="27" t="s">
+        <v>378</v>
       </c>
       <c r="C211" s="7"/>
       <c r="D211" s="8"/>
@@ -6879,21 +6916,21 @@
         <v>1</v>
       </c>
       <c r="F211" s="6" t="s">
-        <v>116</v>
+        <v>499</v>
       </c>
       <c r="G211" s="9" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="H211" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A212" s="12" t="s">
-        <v>382</v>
-      </c>
-      <c r="B212" s="11" t="s">
-        <v>383</v>
+      <c r="A212" s="11" t="s">
+        <v>379</v>
+      </c>
+      <c r="B212" s="27" t="s">
+        <v>380</v>
       </c>
       <c r="C212" s="7"/>
       <c r="D212" s="8"/>
@@ -6901,21 +6938,21 @@
         <v>1</v>
       </c>
       <c r="F212" s="6" t="s">
-        <v>116</v>
+        <v>499</v>
       </c>
       <c r="G212" s="9" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="H212" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A213" s="12" t="s">
-        <v>384</v>
-      </c>
-      <c r="B213" s="11" t="s">
-        <v>385</v>
+      <c r="A213" s="11" t="s">
+        <v>381</v>
+      </c>
+      <c r="B213" s="27" t="s">
+        <v>382</v>
       </c>
       <c r="C213" s="7"/>
       <c r="D213" s="8"/>
@@ -6923,21 +6960,21 @@
         <v>1</v>
       </c>
       <c r="F213" s="6" t="s">
-        <v>116</v>
+        <v>499</v>
       </c>
       <c r="G213" s="9" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="H213" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A214" s="12" t="s">
-        <v>386</v>
-      </c>
-      <c r="B214" s="11" t="s">
-        <v>387</v>
+      <c r="A214" s="11" t="s">
+        <v>383</v>
+      </c>
+      <c r="B214" s="27" t="s">
+        <v>384</v>
       </c>
       <c r="C214" s="7"/>
       <c r="D214" s="8"/>
@@ -6945,21 +6982,21 @@
         <v>1</v>
       </c>
       <c r="F214" s="6" t="s">
-        <v>116</v>
+        <v>499</v>
       </c>
       <c r="G214" s="9" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="H214" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A215" s="12" t="s">
-        <v>388</v>
-      </c>
-      <c r="B215" s="11" t="s">
-        <v>389</v>
+      <c r="A215" s="11" t="s">
+        <v>385</v>
+      </c>
+      <c r="B215" s="27" t="s">
+        <v>386</v>
       </c>
       <c r="C215" s="7"/>
       <c r="D215" s="8"/>
@@ -6967,21 +7004,21 @@
         <v>1</v>
       </c>
       <c r="F215" s="6" t="s">
-        <v>116</v>
+        <v>499</v>
       </c>
       <c r="G215" s="9" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="H215" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A216" s="12" t="s">
-        <v>390</v>
-      </c>
-      <c r="B216" s="11" t="s">
-        <v>391</v>
+      <c r="A216" s="11" t="s">
+        <v>387</v>
+      </c>
+      <c r="B216" s="27" t="s">
+        <v>388</v>
       </c>
       <c r="C216" s="7"/>
       <c r="D216" s="8"/>
@@ -6989,21 +7026,21 @@
         <v>1</v>
       </c>
       <c r="F216" s="6" t="s">
-        <v>116</v>
+        <v>499</v>
       </c>
       <c r="G216" s="9" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="H216" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A217" s="12" t="s">
-        <v>392</v>
-      </c>
-      <c r="B217" s="11" t="s">
-        <v>393</v>
+      <c r="A217" s="11" t="s">
+        <v>389</v>
+      </c>
+      <c r="B217" s="27" t="s">
+        <v>390</v>
       </c>
       <c r="C217" s="7"/>
       <c r="D217" s="8"/>
@@ -7011,21 +7048,21 @@
         <v>1</v>
       </c>
       <c r="F217" s="6" t="s">
-        <v>116</v>
+        <v>499</v>
       </c>
       <c r="G217" s="9" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="H217" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A218" s="12" t="s">
-        <v>394</v>
-      </c>
-      <c r="B218" s="11" t="s">
-        <v>395</v>
+      <c r="A218" s="11" t="s">
+        <v>391</v>
+      </c>
+      <c r="B218" s="27" t="s">
+        <v>392</v>
       </c>
       <c r="C218" s="7"/>
       <c r="D218" s="8"/>
@@ -7033,21 +7070,21 @@
         <v>1</v>
       </c>
       <c r="F218" s="6" t="s">
-        <v>116</v>
+        <v>499</v>
       </c>
       <c r="G218" s="9" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="H218" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A219" s="12" t="s">
-        <v>396</v>
-      </c>
-      <c r="B219" s="11" t="s">
-        <v>397</v>
+      <c r="A219" s="11" t="s">
+        <v>393</v>
+      </c>
+      <c r="B219" s="27" t="s">
+        <v>394</v>
       </c>
       <c r="C219" s="7"/>
       <c r="D219" s="8"/>
@@ -7055,21 +7092,21 @@
         <v>1</v>
       </c>
       <c r="F219" s="6" t="s">
-        <v>116</v>
+        <v>499</v>
       </c>
       <c r="G219" s="9" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="H219" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A220" s="12" t="s">
-        <v>398</v>
-      </c>
-      <c r="B220" s="11" t="s">
-        <v>399</v>
+      <c r="A220" s="11" t="s">
+        <v>395</v>
+      </c>
+      <c r="B220" s="27" t="s">
+        <v>396</v>
       </c>
       <c r="C220" s="7"/>
       <c r="D220" s="8"/>
@@ -7077,21 +7114,21 @@
         <v>1</v>
       </c>
       <c r="F220" s="6" t="s">
-        <v>116</v>
+        <v>499</v>
       </c>
       <c r="G220" s="9" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="H220" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A221" s="12" t="s">
-        <v>400</v>
-      </c>
-      <c r="B221" s="11" t="s">
-        <v>401</v>
+      <c r="A221" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="B221" s="27" t="s">
+        <v>398</v>
       </c>
       <c r="C221" s="7"/>
       <c r="D221" s="8"/>
@@ -7099,21 +7136,21 @@
         <v>1</v>
       </c>
       <c r="F221" s="6" t="s">
-        <v>116</v>
+        <v>499</v>
       </c>
       <c r="G221" s="9" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="H221" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A222" s="12" t="s">
-        <v>402</v>
-      </c>
-      <c r="B222" s="11" t="s">
-        <v>403</v>
+      <c r="A222" s="11" t="s">
+        <v>399</v>
+      </c>
+      <c r="B222" s="27" t="s">
+        <v>400</v>
       </c>
       <c r="C222" s="7"/>
       <c r="D222" s="8"/>
@@ -7121,21 +7158,21 @@
         <v>1</v>
       </c>
       <c r="F222" s="6" t="s">
-        <v>116</v>
+        <v>499</v>
       </c>
       <c r="G222" s="9" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="H222" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A223" s="12" t="s">
-        <v>404</v>
-      </c>
-      <c r="B223" s="11" t="s">
-        <v>405</v>
+      <c r="A223" s="11" t="s">
+        <v>401</v>
+      </c>
+      <c r="B223" s="27" t="s">
+        <v>402</v>
       </c>
       <c r="C223" s="7"/>
       <c r="D223" s="8"/>
@@ -7143,21 +7180,21 @@
         <v>1</v>
       </c>
       <c r="F223" s="6" t="s">
-        <v>116</v>
+        <v>499</v>
       </c>
       <c r="G223" s="9" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="H223" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A224" s="12" t="s">
-        <v>406</v>
-      </c>
-      <c r="B224" s="11" t="s">
-        <v>407</v>
+      <c r="A224" s="11" t="s">
+        <v>403</v>
+      </c>
+      <c r="B224" s="27" t="s">
+        <v>404</v>
       </c>
       <c r="C224" s="7"/>
       <c r="D224" s="8"/>
@@ -7165,21 +7202,21 @@
         <v>1</v>
       </c>
       <c r="F224" s="6" t="s">
-        <v>116</v>
+        <v>499</v>
       </c>
       <c r="G224" s="9" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="H224" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A225" s="12" t="s">
-        <v>408</v>
-      </c>
-      <c r="B225" s="11" t="s">
-        <v>409</v>
+      <c r="A225" s="11" t="s">
+        <v>405</v>
+      </c>
+      <c r="B225" s="27" t="s">
+        <v>406</v>
       </c>
       <c r="C225" s="7"/>
       <c r="D225" s="8"/>
@@ -7187,21 +7224,21 @@
         <v>1</v>
       </c>
       <c r="F225" s="6" t="s">
-        <v>116</v>
+        <v>499</v>
       </c>
       <c r="G225" s="9" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="H225" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A226" s="12" t="s">
-        <v>410</v>
-      </c>
-      <c r="B226" s="11" t="s">
-        <v>411</v>
+      <c r="A226" s="11" t="s">
+        <v>407</v>
+      </c>
+      <c r="B226" s="27" t="s">
+        <v>408</v>
       </c>
       <c r="C226" s="7"/>
       <c r="D226" s="8"/>
@@ -7209,21 +7246,21 @@
         <v>1</v>
       </c>
       <c r="F226" s="6" t="s">
-        <v>116</v>
+        <v>499</v>
       </c>
       <c r="G226" s="9" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="H226" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A227" s="20" t="s">
-        <v>412</v>
-      </c>
-      <c r="B227" s="21" t="s">
-        <v>413</v>
+      <c r="A227" s="16" t="s">
+        <v>409</v>
+      </c>
+      <c r="B227" s="31" t="s">
+        <v>410</v>
       </c>
       <c r="C227" s="7"/>
       <c r="D227" s="8"/>
@@ -7231,21 +7268,21 @@
         <v>1</v>
       </c>
       <c r="F227" s="6" t="s">
-        <v>116</v>
+        <v>499</v>
       </c>
       <c r="G227" s="9" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="H227" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A228" s="12" t="s">
-        <v>414</v>
-      </c>
-      <c r="B228" s="11" t="s">
-        <v>415</v>
+      <c r="A228" s="11" t="s">
+        <v>411</v>
+      </c>
+      <c r="B228" s="27" t="s">
+        <v>412</v>
       </c>
       <c r="C228" s="7"/>
       <c r="D228" s="8"/>
@@ -7253,21 +7290,21 @@
         <v>1</v>
       </c>
       <c r="F228" s="6" t="s">
-        <v>116</v>
+        <v>499</v>
       </c>
       <c r="G228" s="9" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="H228" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A229" s="12" t="s">
-        <v>416</v>
-      </c>
-      <c r="B229" s="11" t="s">
-        <v>417</v>
+      <c r="A229" s="11" t="s">
+        <v>413</v>
+      </c>
+      <c r="B229" s="27" t="s">
+        <v>414</v>
       </c>
       <c r="C229" s="7"/>
       <c r="D229" s="8"/>
@@ -7275,21 +7312,21 @@
         <v>1</v>
       </c>
       <c r="F229" s="6" t="s">
-        <v>116</v>
+        <v>499</v>
       </c>
       <c r="G229" s="9" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="H229" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A230" s="12" t="s">
-        <v>418</v>
-      </c>
-      <c r="B230" s="21" t="s">
-        <v>419</v>
+      <c r="A230" s="11" t="s">
+        <v>415</v>
+      </c>
+      <c r="B230" s="31" t="s">
+        <v>416</v>
       </c>
       <c r="C230" s="7"/>
       <c r="D230" s="8"/>
@@ -7297,21 +7334,21 @@
         <v>1</v>
       </c>
       <c r="F230" s="6" t="s">
-        <v>116</v>
+        <v>499</v>
       </c>
       <c r="G230" s="9" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="H230" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A231" s="22" t="s">
-        <v>420</v>
-      </c>
-      <c r="B231" s="15" t="s">
-        <v>421</v>
+      <c r="A231" s="17" t="s">
+        <v>417</v>
+      </c>
+      <c r="B231" s="29" t="s">
+        <v>418</v>
       </c>
       <c r="C231" s="7"/>
       <c r="D231" s="8"/>
@@ -7319,21 +7356,21 @@
         <v>1</v>
       </c>
       <c r="F231" s="6" t="s">
-        <v>116</v>
+        <v>499</v>
       </c>
       <c r="G231" s="9" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="H231" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A232" s="12" t="s">
-        <v>422</v>
-      </c>
-      <c r="B232" s="11" t="s">
-        <v>423</v>
+      <c r="A232" s="11" t="s">
+        <v>419</v>
+      </c>
+      <c r="B232" s="27" t="s">
+        <v>420</v>
       </c>
       <c r="C232" s="7"/>
       <c r="D232" s="8"/>
@@ -7341,21 +7378,21 @@
         <v>1</v>
       </c>
       <c r="F232" s="6" t="s">
-        <v>116</v>
+        <v>499</v>
       </c>
       <c r="G232" s="9" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="H232" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A233" s="12" t="s">
-        <v>424</v>
-      </c>
-      <c r="B233" s="11" t="s">
-        <v>425</v>
+      <c r="A233" s="11" t="s">
+        <v>421</v>
+      </c>
+      <c r="B233" s="27" t="s">
+        <v>422</v>
       </c>
       <c r="C233" s="7"/>
       <c r="D233" s="8"/>
@@ -7363,21 +7400,21 @@
         <v>1</v>
       </c>
       <c r="F233" s="6" t="s">
-        <v>116</v>
+        <v>499</v>
       </c>
       <c r="G233" s="9" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="H233" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A234" s="12" t="s">
-        <v>426</v>
-      </c>
-      <c r="B234" s="11" t="s">
-        <v>427</v>
+      <c r="A234" s="11" t="s">
+        <v>423</v>
+      </c>
+      <c r="B234" s="27" t="s">
+        <v>424</v>
       </c>
       <c r="C234" s="7"/>
       <c r="D234" s="8"/>
@@ -7385,21 +7422,21 @@
         <v>1</v>
       </c>
       <c r="F234" s="6" t="s">
-        <v>116</v>
+        <v>499</v>
       </c>
       <c r="G234" s="9" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="H234" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A235" s="12" t="s">
-        <v>428</v>
-      </c>
-      <c r="B235" s="11" t="s">
-        <v>429</v>
+      <c r="A235" s="11" t="s">
+        <v>425</v>
+      </c>
+      <c r="B235" s="27" t="s">
+        <v>426</v>
       </c>
       <c r="C235" s="7"/>
       <c r="D235" s="8"/>
@@ -7407,21 +7444,21 @@
         <v>1</v>
       </c>
       <c r="F235" s="6" t="s">
-        <v>116</v>
+        <v>499</v>
       </c>
       <c r="G235" s="9" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="H235" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A236" s="12" t="s">
-        <v>430</v>
-      </c>
-      <c r="B236" s="11" t="s">
-        <v>431</v>
+      <c r="A236" s="11" t="s">
+        <v>427</v>
+      </c>
+      <c r="B236" s="27" t="s">
+        <v>428</v>
       </c>
       <c r="C236" s="7"/>
       <c r="D236" s="8"/>
@@ -7429,21 +7466,21 @@
         <v>1</v>
       </c>
       <c r="F236" s="6" t="s">
-        <v>116</v>
+        <v>499</v>
       </c>
       <c r="G236" s="9" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="H236" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A237" s="12" t="s">
-        <v>432</v>
-      </c>
-      <c r="B237" s="11" t="s">
-        <v>433</v>
+      <c r="A237" s="11" t="s">
+        <v>429</v>
+      </c>
+      <c r="B237" s="27" t="s">
+        <v>430</v>
       </c>
       <c r="C237" s="7"/>
       <c r="D237" s="8"/>
@@ -7451,21 +7488,21 @@
         <v>1</v>
       </c>
       <c r="F237" s="6" t="s">
-        <v>116</v>
+        <v>499</v>
       </c>
       <c r="G237" s="9" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="H237" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A238" s="12" t="s">
-        <v>434</v>
-      </c>
-      <c r="B238" s="11" t="s">
-        <v>435</v>
+      <c r="A238" s="11" t="s">
+        <v>431</v>
+      </c>
+      <c r="B238" s="27" t="s">
+        <v>432</v>
       </c>
       <c r="C238" s="7"/>
       <c r="D238" s="8"/>
@@ -7473,21 +7510,21 @@
         <v>1</v>
       </c>
       <c r="F238" s="6" t="s">
-        <v>116</v>
+        <v>499</v>
       </c>
       <c r="G238" s="9" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="H238" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A239" s="12" t="s">
-        <v>436</v>
-      </c>
-      <c r="B239" s="11" t="s">
-        <v>437</v>
+      <c r="A239" s="11" t="s">
+        <v>433</v>
+      </c>
+      <c r="B239" s="27" t="s">
+        <v>434</v>
       </c>
       <c r="C239" s="7"/>
       <c r="D239" s="8"/>
@@ -7495,21 +7532,21 @@
         <v>1</v>
       </c>
       <c r="F239" s="6" t="s">
-        <v>116</v>
+        <v>499</v>
       </c>
       <c r="G239" s="9" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="H239" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A240" s="12" t="s">
-        <v>438</v>
-      </c>
-      <c r="B240" s="11" t="s">
-        <v>439</v>
+      <c r="A240" s="11" t="s">
+        <v>435</v>
+      </c>
+      <c r="B240" s="27" t="s">
+        <v>436</v>
       </c>
       <c r="C240" s="7"/>
       <c r="D240" s="8"/>
@@ -7517,21 +7554,21 @@
         <v>1</v>
       </c>
       <c r="F240" s="6" t="s">
-        <v>116</v>
+        <v>499</v>
       </c>
       <c r="G240" s="9" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="H240" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A241" s="12" t="s">
-        <v>440</v>
-      </c>
-      <c r="B241" s="11" t="s">
-        <v>441</v>
+      <c r="A241" s="11" t="s">
+        <v>437</v>
+      </c>
+      <c r="B241" s="27" t="s">
+        <v>438</v>
       </c>
       <c r="C241" s="7"/>
       <c r="D241" s="8"/>
@@ -7539,21 +7576,21 @@
         <v>1</v>
       </c>
       <c r="F241" s="6" t="s">
-        <v>116</v>
+        <v>499</v>
       </c>
       <c r="G241" s="9" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="H241" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A242" s="12" t="s">
-        <v>442</v>
-      </c>
-      <c r="B242" s="11" t="s">
-        <v>443</v>
+      <c r="A242" s="11" t="s">
+        <v>439</v>
+      </c>
+      <c r="B242" s="27" t="s">
+        <v>440</v>
       </c>
       <c r="C242" s="7"/>
       <c r="D242" s="8"/>
@@ -7561,21 +7598,21 @@
         <v>1</v>
       </c>
       <c r="F242" s="6" t="s">
-        <v>116</v>
+        <v>499</v>
       </c>
       <c r="G242" s="9" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="H242" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A243" s="22" t="s">
-        <v>444</v>
-      </c>
-      <c r="B243" s="15" t="s">
-        <v>445</v>
+      <c r="A243" s="17" t="s">
+        <v>441</v>
+      </c>
+      <c r="B243" s="29" t="s">
+        <v>442</v>
       </c>
       <c r="C243" s="7"/>
       <c r="D243" s="8"/>
@@ -7583,21 +7620,21 @@
         <v>1</v>
       </c>
       <c r="F243" s="6" t="s">
-        <v>116</v>
+        <v>499</v>
       </c>
       <c r="G243" s="9" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="H243" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A244" s="12" t="s">
-        <v>446</v>
-      </c>
-      <c r="B244" s="11" t="s">
-        <v>447</v>
+      <c r="A244" s="11" t="s">
+        <v>443</v>
+      </c>
+      <c r="B244" s="27" t="s">
+        <v>444</v>
       </c>
       <c r="C244" s="7"/>
       <c r="D244" s="8"/>
@@ -7605,21 +7642,21 @@
         <v>1</v>
       </c>
       <c r="F244" s="6" t="s">
-        <v>116</v>
+        <v>499</v>
       </c>
       <c r="G244" s="9" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="H244" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A245" s="12" t="s">
-        <v>448</v>
-      </c>
-      <c r="B245" s="11" t="s">
-        <v>449</v>
+      <c r="A245" s="11" t="s">
+        <v>445</v>
+      </c>
+      <c r="B245" s="27" t="s">
+        <v>446</v>
       </c>
       <c r="C245" s="7"/>
       <c r="D245" s="8"/>
@@ -7627,21 +7664,21 @@
         <v>1</v>
       </c>
       <c r="F245" s="6" t="s">
-        <v>116</v>
+        <v>499</v>
       </c>
       <c r="G245" s="9" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="H245" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A246" s="12" t="s">
-        <v>450</v>
-      </c>
-      <c r="B246" s="11" t="s">
-        <v>451</v>
+      <c r="A246" s="11" t="s">
+        <v>447</v>
+      </c>
+      <c r="B246" s="27" t="s">
+        <v>448</v>
       </c>
       <c r="C246" s="7"/>
       <c r="D246" s="8"/>
@@ -7649,21 +7686,21 @@
         <v>1</v>
       </c>
       <c r="F246" s="6" t="s">
-        <v>116</v>
+        <v>499</v>
       </c>
       <c r="G246" s="9" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="H246" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A247" s="12" t="s">
-        <v>452</v>
-      </c>
-      <c r="B247" s="11" t="s">
-        <v>453</v>
+      <c r="A247" s="11" t="s">
+        <v>449</v>
+      </c>
+      <c r="B247" s="27" t="s">
+        <v>450</v>
       </c>
       <c r="C247" s="7"/>
       <c r="D247" s="8"/>
@@ -7671,21 +7708,21 @@
         <v>1</v>
       </c>
       <c r="F247" s="6" t="s">
-        <v>116</v>
+        <v>499</v>
       </c>
       <c r="G247" s="9" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="H247" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A248" s="12" t="s">
-        <v>454</v>
-      </c>
-      <c r="B248" s="11" t="s">
-        <v>455</v>
+      <c r="A248" s="11" t="s">
+        <v>451</v>
+      </c>
+      <c r="B248" s="27" t="s">
+        <v>452</v>
       </c>
       <c r="C248" s="7"/>
       <c r="D248" s="8"/>
@@ -7693,21 +7730,21 @@
         <v>1</v>
       </c>
       <c r="F248" s="6" t="s">
-        <v>116</v>
+        <v>499</v>
       </c>
       <c r="G248" s="9" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="H248" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A249" s="12" t="s">
-        <v>456</v>
-      </c>
-      <c r="B249" s="11" t="s">
-        <v>457</v>
+      <c r="A249" s="11" t="s">
+        <v>453</v>
+      </c>
+      <c r="B249" s="27" t="s">
+        <v>454</v>
       </c>
       <c r="C249" s="7"/>
       <c r="D249" s="8"/>
@@ -7715,21 +7752,21 @@
         <v>1</v>
       </c>
       <c r="F249" s="6" t="s">
-        <v>116</v>
+        <v>499</v>
       </c>
       <c r="G249" s="9" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="H249" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A250" s="12" t="s">
-        <v>458</v>
-      </c>
-      <c r="B250" s="11" t="s">
-        <v>459</v>
+      <c r="A250" s="11" t="s">
+        <v>455</v>
+      </c>
+      <c r="B250" s="27" t="s">
+        <v>456</v>
       </c>
       <c r="C250" s="7"/>
       <c r="D250" s="8"/>
@@ -7737,21 +7774,21 @@
         <v>1</v>
       </c>
       <c r="F250" s="6" t="s">
-        <v>116</v>
+        <v>499</v>
       </c>
       <c r="G250" s="9" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="H250" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A251" s="22" t="s">
-        <v>460</v>
-      </c>
-      <c r="B251" s="15" t="s">
-        <v>461</v>
+      <c r="A251" s="17" t="s">
+        <v>457</v>
+      </c>
+      <c r="B251" s="29" t="s">
+        <v>458</v>
       </c>
       <c r="C251" s="7"/>
       <c r="D251" s="8"/>
@@ -7759,21 +7796,21 @@
         <v>1</v>
       </c>
       <c r="F251" s="6" t="s">
-        <v>116</v>
+        <v>499</v>
       </c>
       <c r="G251" s="9" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="H251" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A252" s="12" t="s">
-        <v>462</v>
-      </c>
-      <c r="B252" s="11" t="s">
-        <v>463</v>
+      <c r="A252" s="11" t="s">
+        <v>459</v>
+      </c>
+      <c r="B252" s="27" t="s">
+        <v>460</v>
       </c>
       <c r="C252" s="7"/>
       <c r="D252" s="8"/>
@@ -7781,21 +7818,21 @@
         <v>1</v>
       </c>
       <c r="F252" s="6" t="s">
-        <v>116</v>
+        <v>499</v>
       </c>
       <c r="G252" s="9" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="H252" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A253" s="12" t="s">
-        <v>464</v>
-      </c>
-      <c r="B253" s="11" t="s">
-        <v>465</v>
+      <c r="A253" s="11" t="s">
+        <v>461</v>
+      </c>
+      <c r="B253" s="27" t="s">
+        <v>462</v>
       </c>
       <c r="C253" s="7"/>
       <c r="D253" s="8"/>
@@ -7803,21 +7840,21 @@
         <v>1</v>
       </c>
       <c r="F253" s="6" t="s">
-        <v>116</v>
+        <v>499</v>
       </c>
       <c r="G253" s="9" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="H253" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A254" s="12" t="s">
-        <v>466</v>
-      </c>
-      <c r="B254" s="11" t="s">
-        <v>467</v>
+      <c r="A254" s="11" t="s">
+        <v>463</v>
+      </c>
+      <c r="B254" s="27" t="s">
+        <v>464</v>
       </c>
       <c r="C254" s="7"/>
       <c r="D254" s="8"/>
@@ -7825,21 +7862,21 @@
         <v>1</v>
       </c>
       <c r="F254" s="6" t="s">
-        <v>116</v>
+        <v>499</v>
       </c>
       <c r="G254" s="9" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="H254" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A255" s="12" t="s">
-        <v>468</v>
-      </c>
-      <c r="B255" s="11" t="s">
-        <v>469</v>
+      <c r="A255" s="11" t="s">
+        <v>465</v>
+      </c>
+      <c r="B255" s="27" t="s">
+        <v>466</v>
       </c>
       <c r="C255" s="7"/>
       <c r="D255" s="8"/>
@@ -7847,21 +7884,21 @@
         <v>1</v>
       </c>
       <c r="F255" s="6" t="s">
-        <v>116</v>
+        <v>499</v>
       </c>
       <c r="G255" s="9" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="H255" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A256" s="12" t="s">
-        <v>470</v>
-      </c>
-      <c r="B256" s="11" t="s">
-        <v>471</v>
+      <c r="A256" s="11" t="s">
+        <v>467</v>
+      </c>
+      <c r="B256" s="27" t="s">
+        <v>468</v>
       </c>
       <c r="C256" s="7"/>
       <c r="D256" s="8"/>
@@ -7869,21 +7906,21 @@
         <v>1</v>
       </c>
       <c r="F256" s="6" t="s">
-        <v>116</v>
+        <v>499</v>
       </c>
       <c r="G256" s="9" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="H256" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="257" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A257" s="12" t="s">
-        <v>472</v>
-      </c>
-      <c r="B257" s="11" t="s">
-        <v>473</v>
+      <c r="A257" s="11" t="s">
+        <v>469</v>
+      </c>
+      <c r="B257" s="27" t="s">
+        <v>470</v>
       </c>
       <c r="C257" s="7"/>
       <c r="D257" s="8"/>
@@ -7891,21 +7928,21 @@
         <v>1</v>
       </c>
       <c r="F257" s="6" t="s">
-        <v>116</v>
+        <v>499</v>
       </c>
       <c r="G257" s="9" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="H257" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="258" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A258" s="12" t="s">
-        <v>474</v>
-      </c>
-      <c r="B258" s="11" t="s">
-        <v>475</v>
+      <c r="A258" s="11" t="s">
+        <v>471</v>
+      </c>
+      <c r="B258" s="27" t="s">
+        <v>472</v>
       </c>
       <c r="C258" s="7"/>
       <c r="D258" s="8"/>
@@ -7913,21 +7950,21 @@
         <v>1</v>
       </c>
       <c r="F258" s="6" t="s">
-        <v>116</v>
+        <v>499</v>
       </c>
       <c r="G258" s="9" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="H258" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="259" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A259" s="12" t="s">
-        <v>476</v>
-      </c>
-      <c r="B259" s="11" t="s">
-        <v>477</v>
+      <c r="A259" s="11" t="s">
+        <v>473</v>
+      </c>
+      <c r="B259" s="27" t="s">
+        <v>474</v>
       </c>
       <c r="C259" s="7"/>
       <c r="D259" s="8"/>
@@ -7935,21 +7972,21 @@
         <v>1</v>
       </c>
       <c r="F259" s="6" t="s">
-        <v>116</v>
+        <v>499</v>
       </c>
       <c r="G259" s="9" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="H259" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="260" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A260" s="12" t="s">
-        <v>478</v>
-      </c>
-      <c r="B260" s="11" t="s">
-        <v>479</v>
+      <c r="A260" s="11" t="s">
+        <v>475</v>
+      </c>
+      <c r="B260" s="27" t="s">
+        <v>476</v>
       </c>
       <c r="C260" s="7"/>
       <c r="D260" s="8"/>
@@ -7957,21 +7994,21 @@
         <v>1</v>
       </c>
       <c r="F260" s="6" t="s">
-        <v>116</v>
+        <v>499</v>
       </c>
       <c r="G260" s="9" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="H260" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="261" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A261" s="12" t="s">
-        <v>480</v>
-      </c>
-      <c r="B261" s="11" t="s">
-        <v>481</v>
+      <c r="A261" s="11" t="s">
+        <v>477</v>
+      </c>
+      <c r="B261" s="27" t="s">
+        <v>478</v>
       </c>
       <c r="C261" s="7"/>
       <c r="D261" s="8"/>
@@ -7979,21 +8016,21 @@
         <v>1</v>
       </c>
       <c r="F261" s="6" t="s">
-        <v>116</v>
+        <v>499</v>
       </c>
       <c r="G261" s="9" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="H261" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="262" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A262" s="12" t="s">
-        <v>482</v>
-      </c>
-      <c r="B262" s="11" t="s">
-        <v>483</v>
+      <c r="A262" s="11" t="s">
+        <v>479</v>
+      </c>
+      <c r="B262" s="27" t="s">
+        <v>480</v>
       </c>
       <c r="C262" s="7"/>
       <c r="D262" s="8"/>
@@ -8001,21 +8038,21 @@
         <v>1</v>
       </c>
       <c r="F262" s="6" t="s">
-        <v>116</v>
+        <v>499</v>
       </c>
       <c r="G262" s="9" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="H262" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="263" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A263" s="12" t="s">
-        <v>484</v>
-      </c>
-      <c r="B263" s="11" t="s">
-        <v>485</v>
+      <c r="A263" s="11" t="s">
+        <v>481</v>
+      </c>
+      <c r="B263" s="27" t="s">
+        <v>482</v>
       </c>
       <c r="C263" s="7"/>
       <c r="D263" s="8"/>
@@ -8023,21 +8060,21 @@
         <v>1</v>
       </c>
       <c r="F263" s="6" t="s">
-        <v>116</v>
+        <v>499</v>
       </c>
       <c r="G263" s="9" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="H263" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="264" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A264" s="12" t="s">
-        <v>486</v>
-      </c>
-      <c r="B264" s="11" t="s">
-        <v>487</v>
+      <c r="A264" s="11" t="s">
+        <v>483</v>
+      </c>
+      <c r="B264" s="27" t="s">
+        <v>484</v>
       </c>
       <c r="C264" s="7"/>
       <c r="D264" s="8"/>
@@ -8045,21 +8082,21 @@
         <v>1</v>
       </c>
       <c r="F264" s="6" t="s">
-        <v>116</v>
+        <v>499</v>
       </c>
       <c r="G264" s="9" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="H264" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="265" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A265" s="12" t="s">
-        <v>488</v>
-      </c>
-      <c r="B265" s="11" t="s">
-        <v>489</v>
+      <c r="A265" s="11" t="s">
+        <v>485</v>
+      </c>
+      <c r="B265" s="27" t="s">
+        <v>486</v>
       </c>
       <c r="C265" s="7"/>
       <c r="D265" s="8"/>
@@ -8067,21 +8104,21 @@
         <v>1</v>
       </c>
       <c r="F265" s="6" t="s">
-        <v>116</v>
+        <v>499</v>
       </c>
       <c r="G265" s="9" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="H265" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="266" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A266" s="12" t="s">
-        <v>490</v>
-      </c>
-      <c r="B266" s="11" t="s">
-        <v>491</v>
+      <c r="A266" s="11" t="s">
+        <v>487</v>
+      </c>
+      <c r="B266" s="27" t="s">
+        <v>488</v>
       </c>
       <c r="C266" s="7"/>
       <c r="D266" s="8"/>
@@ -8089,21 +8126,21 @@
         <v>1</v>
       </c>
       <c r="F266" s="6" t="s">
-        <v>116</v>
+        <v>499</v>
       </c>
       <c r="G266" s="9" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="H266" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="267" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A267" s="12" t="s">
-        <v>492</v>
-      </c>
-      <c r="B267" s="11" t="s">
-        <v>493</v>
+      <c r="A267" s="11" t="s">
+        <v>489</v>
+      </c>
+      <c r="B267" s="27" t="s">
+        <v>490</v>
       </c>
       <c r="C267" s="7"/>
       <c r="D267" s="8"/>
@@ -8111,21 +8148,21 @@
         <v>1</v>
       </c>
       <c r="F267" s="6" t="s">
-        <v>116</v>
+        <v>499</v>
       </c>
       <c r="G267" s="9" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="H267" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="268" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A268" s="22" t="s">
-        <v>494</v>
-      </c>
-      <c r="B268" s="15" t="s">
-        <v>495</v>
+      <c r="A268" s="17" t="s">
+        <v>491</v>
+      </c>
+      <c r="B268" s="29" t="s">
+        <v>492</v>
       </c>
       <c r="C268" s="7"/>
       <c r="D268" s="8"/>
@@ -8133,21 +8170,21 @@
         <v>1</v>
       </c>
       <c r="F268" s="6" t="s">
-        <v>116</v>
+        <v>499</v>
       </c>
       <c r="G268" s="9" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="H268" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="269" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A269" s="12" t="s">
-        <v>496</v>
-      </c>
-      <c r="B269" s="11" t="s">
-        <v>497</v>
+      <c r="A269" s="11" t="s">
+        <v>493</v>
+      </c>
+      <c r="B269" s="27" t="s">
+        <v>494</v>
       </c>
       <c r="C269" s="7"/>
       <c r="D269" s="8"/>
@@ -8155,21 +8192,21 @@
         <v>1</v>
       </c>
       <c r="F269" s="6" t="s">
-        <v>116</v>
+        <v>499</v>
       </c>
       <c r="G269" s="9" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="H269" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="270" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A270" s="22" t="s">
-        <v>498</v>
-      </c>
-      <c r="B270" s="15" t="s">
-        <v>499</v>
+      <c r="A270" s="17" t="s">
+        <v>495</v>
+      </c>
+      <c r="B270" s="29" t="s">
+        <v>496</v>
       </c>
       <c r="C270" s="7"/>
       <c r="D270" s="8"/>
@@ -8177,16 +8214,17 @@
         <v>1</v>
       </c>
       <c r="F270" s="6" t="s">
-        <v>116</v>
+        <v>499</v>
       </c>
       <c r="G270" s="9" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="H270" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:H270" xr:uid="{09ABA889-AAC2-7849-90F2-44D0E10BF37D}"/>
   <hyperlinks>
     <hyperlink ref="C4" r:id="rId1" xr:uid="{393CA979-EF90-134A-A7D4-543A5BFF66DB}"/>
     <hyperlink ref="C5" r:id="rId2" display="mailto:m.boopathy@tatamarcopolo.com" xr:uid="{DEAB8DC6-CE1E-CA4D-998A-4C63B2F309D4}"/>
